--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Trainers</t>
   </si>
@@ -35,19 +35,19 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Monday, May 19, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, May 20, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, May 21, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, May 22, 2025</t>
-  </si>
-  <si>
-    <t>Friday, May 23, 2025</t>
+    <t>Monday, May 26, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, May 27, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, May 28, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, May 29, 2025</t>
+  </si>
+  <si>
+    <t>Friday, May 30, 2025</t>
   </si>
   <si>
     <t>Rawan Moftah</t>
@@ -59,9 +59,21 @@
     <t>Eman Elsawy</t>
   </si>
   <si>
+    <t>Mohamed Atef</t>
+  </si>
+  <si>
+    <t>5th settlement</t>
+  </si>
+  <si>
     <t>RTAs</t>
   </si>
   <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
     <t>Wednesday</t>
   </si>
   <si>
@@ -83,22 +95,64 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Account</t>
+  </si>
+  <si>
     <t>Shift Start</t>
   </si>
   <si>
     <t>Shift End</t>
   </si>
   <si>
-    <t>Ahmed Mohamedsobhi</t>
+    <t>Mohamed Aref Azzam</t>
+  </si>
+  <si>
+    <t>AirAlo</t>
   </si>
   <si>
     <t>OFF</t>
   </si>
   <si>
-    <t>Saeed Almutiali</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Monday, May 26</t>
+  </si>
+  <si>
+    <t>Tuesday, May 27</t>
+  </si>
+  <si>
+    <t>Wednesday, May 28</t>
+  </si>
+  <si>
+    <t>Thursday, May 29</t>
+  </si>
+  <si>
+    <t>Friday, May 30</t>
+  </si>
+  <si>
+    <t>Saturday, May 31</t>
+  </si>
+  <si>
+    <t>Sunday, June 1</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Ahmed Mahmoud</t>
+  </si>
+  <si>
+    <t>Trainer - Talabat</t>
   </si>
 </sst>
 </file>
@@ -113,7 +167,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,9 +212,9 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -187,6 +241,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Century Gothic"/>
       <charset val="134"/>
     </font>
     <font>
@@ -196,9 +256,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Century Gothic"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -346,7 +420,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,18 +441,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDEEAF6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -391,6 +471,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0C343D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B5394"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -576,7 +680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -646,17 +750,96 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -667,11 +850,9 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -679,11 +860,9 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -807,137 +986,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -962,47 +1141,92 @@
     <xf numFmtId="35" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="20" fontId="12" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1540,10 +1764,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D14"/>
+      <selection activeCell="D17" sqref="D17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1554,12 +1778,12 @@
     <col min="15" max="15" width="9.45454545454546"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.75" customHeight="1" spans="1:1">
+    <row r="1" ht="23" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="31" customHeight="1" spans="1:12">
+    <row r="2" ht="31.75" customHeight="1" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1585,7 +1809,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" ht="16" customHeight="1" spans="1:12">
       <c r="A3" s="4">
         <v>10323544</v>
       </c>
@@ -1623,7 +1847,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" ht="15.25" spans="1:12">
       <c r="A4" s="4">
         <v>10318438</v>
       </c>
@@ -1662,7 +1886,7 @@
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:12">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>10278353</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1699,202 +1923,396 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" ht="19.25" spans="1:17">
-      <c r="A8" s="8" t="s">
+    <row r="6" ht="15.25" spans="1:12">
+      <c r="A6" s="5">
+        <v>10307948</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8" s="22"/>
+      <c r="C6" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="10" ht="15.25" spans="1:13">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11">
-        <v>45798</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11">
-        <v>45799</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11">
-        <v>45800</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11">
-        <v>45801</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11">
-        <v>45802</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="22"/>
+    <row r="8" ht="15.25" spans="17:17">
+      <c r="Q8" s="37"/>
     </row>
-    <row r="11" ht="15.25" spans="1:12">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+    <row r="9" ht="15.25" spans="1:17">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" ht="15.25" spans="1:17">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
+      <c r="D10" s="15">
+        <v>45803</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15">
+        <v>45804</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15">
+        <v>45805</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15">
+        <v>45806</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15">
+        <v>45807</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15">
+        <v>45808</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15">
+        <v>45809</v>
+      </c>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" ht="15.25" spans="1:17">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="13"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="17"/>
     </row>
-    <row r="12" ht="14.75" spans="1:12">
-      <c r="A12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>19</v>
+    <row r="12" ht="15.25" spans="1:17">
+      <c r="A12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="13" ht="15.25" spans="1:12">
-      <c r="A13" s="16">
-        <v>10322837</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="18">
+    <row r="13" ht="15.25" spans="1:17">
+      <c r="A13" s="20">
+        <v>10314789</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="23">
         <v>0.333333333333333</v>
       </c>
-      <c r="D13" s="18">
+      <c r="I13" s="35">
         <v>0.708333333333333</v>
       </c>
-      <c r="E13" s="18">
+      <c r="J13" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K13" s="35">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L13" s="23">
         <v>0.458333333333333</v>
       </c>
-      <c r="F13" s="18">
+      <c r="M13" s="35">
         <v>0.833333333333333</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="18">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L13" s="18">
-        <v>0.791666666666667</v>
+      <c r="N13" s="23">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="O13" s="35">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="P13" s="23">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="Q13" s="35">
+        <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="14" ht="15.25" spans="1:12">
-      <c r="A14" s="16">
-        <v>10323687</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>21</v>
+    <row r="15" spans="1:15">
+      <c r="A15" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="27"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="31">
+        <v>10259455</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="34">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E17" s="34">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F17" s="34">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G17" s="34">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H17" s="34">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I17" s="34">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J17" s="34">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K17" s="34">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="34">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="O17" s="34">
+        <v>0.833333333333333</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="31">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="A9:B10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>Trainers</t>
   </si>
@@ -153,6 +153,33 @@
   </si>
   <si>
     <t>Trainer - Talabat</t>
+  </si>
+  <si>
+    <t>Monday, June 2</t>
+  </si>
+  <si>
+    <t>Tuesday, June 3</t>
+  </si>
+  <si>
+    <t>Tuesday, June 4</t>
+  </si>
+  <si>
+    <t>Tuesday, June 5</t>
+  </si>
+  <si>
+    <t>Friday, June 6</t>
+  </si>
+  <si>
+    <t>Saturday, June 7</t>
+  </si>
+  <si>
+    <t>Sunday, June 8</t>
+  </si>
+  <si>
+    <t>Ahmed Hafiz</t>
+  </si>
+  <si>
+    <t>Training Manager</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1222,8 +1249,53 @@
     <xf numFmtId="179" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="179" fontId="12" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -1764,10 +1836,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1778,7 +1850,7 @@
     <col min="15" max="15" width="9.45454545454546"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:1">
+    <row r="1" ht="23.75" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1962,7 +2034,7 @@
       </c>
     </row>
     <row r="8" ht="15.25" spans="17:17">
-      <c r="Q8" s="37"/>
+      <c r="Q8" s="52"/>
     </row>
     <row r="9" ht="15.25" spans="1:17">
       <c r="A9" s="8" t="s">
@@ -2131,35 +2203,36 @@
       <c r="H13" s="23">
         <v>0.333333333333333</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="49">
         <v>0.708333333333333</v>
       </c>
       <c r="J13" s="23">
         <v>0.333333333333333</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="49">
         <v>0.708333333333333</v>
       </c>
       <c r="L13" s="23">
         <v>0.458333333333333</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="49">
         <v>0.833333333333333</v>
       </c>
       <c r="N13" s="23">
         <v>0.458333333333333</v>
       </c>
-      <c r="O13" s="35">
+      <c r="O13" s="49">
         <v>0.833333333333333</v>
       </c>
       <c r="P13" s="23">
         <v>0.458333333333333</v>
       </c>
-      <c r="Q13" s="35">
+      <c r="Q13" s="49">
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="14" ht="15.25"/>
+    <row r="15" ht="15.25" spans="1:15">
       <c r="A15" s="24" t="s">
         <v>28</v>
       </c>
@@ -2196,7 +2269,7 @@
       </c>
       <c r="O15" s="27"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" ht="15.25" spans="1:15">
       <c r="A16" s="28"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -2233,7 +2306,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" ht="15.25" spans="1:15">
       <c r="A17" s="31">
         <v>10259455</v>
       </c>
@@ -2267,10 +2340,10 @@
       <c r="K17" s="34">
         <v>0.833333333333333</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="36" t="s">
+      <c r="M17" s="50" t="s">
         <v>27</v>
       </c>
       <c r="N17" s="34">
@@ -2280,8 +2353,176 @@
         <v>0.833333333333333</v>
       </c>
     </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="38"/>
+      <c r="L19" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="42">
+        <v>10210885</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E21" s="45">
+        <v>0.75</v>
+      </c>
+      <c r="F21" s="45">
+        <v>0.375</v>
+      </c>
+      <c r="G21" s="45">
+        <v>0.75</v>
+      </c>
+      <c r="H21" s="45">
+        <v>0.375</v>
+      </c>
+      <c r="I21" s="45">
+        <v>0.75</v>
+      </c>
+      <c r="J21" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="45">
+        <v>0.875</v>
+      </c>
+      <c r="L21" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="M21" s="45">
+        <v>0.875</v>
+      </c>
+      <c r="N21" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="46">
+        <v>10259455</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="48">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E22" s="48">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F22" s="48">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G22" s="48">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H22" s="48">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I22" s="48">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J22" s="48">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K22" s="48">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L22" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="48">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="O22" s="48">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="41">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -2307,11 +2548,21 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="N15:O15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L19:L20"/>
     <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M19:M20"/>
     <mergeCell ref="A9:B10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Trainers</t>
   </si>
@@ -35,22 +35,19 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Monday, May 26, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, May 27, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, May 28, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, May 29, 2025</t>
-  </si>
-  <si>
-    <t>Friday, May 30, 2025</t>
-  </si>
-  <si>
-    <t>Rawan Moftah</t>
+    <t>Monday, June 2, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, June 3, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, June 4, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, June 5, 2025</t>
+  </si>
+  <si>
+    <t>Friday, June 6, 2025</t>
   </si>
   <si>
     <t>Hajar Ahmed</t>
@@ -65,9 +62,6 @@
     <t>5th settlement</t>
   </si>
   <si>
-    <t>RTAs</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -111,75 +105,6 @@
   </si>
   <si>
     <t>OFF</t>
-  </si>
-  <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
-    <t>Employee Name</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Monday, May 26</t>
-  </si>
-  <si>
-    <t>Tuesday, May 27</t>
-  </si>
-  <si>
-    <t>Wednesday, May 28</t>
-  </si>
-  <si>
-    <t>Thursday, May 29</t>
-  </si>
-  <si>
-    <t>Friday, May 30</t>
-  </si>
-  <si>
-    <t>Saturday, May 31</t>
-  </si>
-  <si>
-    <t>Sunday, June 1</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Ahmed Mahmoud</t>
-  </si>
-  <si>
-    <t>Trainer - Talabat</t>
-  </si>
-  <si>
-    <t>Monday, June 2</t>
-  </si>
-  <si>
-    <t>Tuesday, June 3</t>
-  </si>
-  <si>
-    <t>Tuesday, June 4</t>
-  </si>
-  <si>
-    <t>Tuesday, June 5</t>
-  </si>
-  <si>
-    <t>Friday, June 6</t>
-  </si>
-  <si>
-    <t>Saturday, June 7</t>
-  </si>
-  <si>
-    <t>Sunday, June 8</t>
-  </si>
-  <si>
-    <t>Ahmed Hafiz</t>
-  </si>
-  <si>
-    <t>Training Manager</t>
   </si>
 </sst>
 </file>
@@ -194,7 +119,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,26 +208,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -447,7 +352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,12 +379,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -498,30 +397,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0C343D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B5394"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -707,7 +582,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -780,9 +655,7 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -791,9 +664,7 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -831,60 +702,6 @@
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1013,137 +830,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,119 +1003,35 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="20" fontId="12" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1836,10 +1569,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1850,12 +1583,12 @@
     <col min="15" max="15" width="9.45454545454546"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.75" customHeight="1" spans="1:1">
+    <row r="1" ht="26" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="31.75" customHeight="1" spans="1:12">
+    <row r="2" ht="32.5" customHeight="1" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1881,47 +1614,47 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" ht="16" customHeight="1" spans="1:12">
+    <row r="3" ht="16.75" customHeight="1" spans="1:12">
       <c r="A3" s="4">
-        <v>10323544</v>
+        <v>10318438</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D3" s="7">
-        <v>0.75</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E3" s="6">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F3" s="7">
-        <v>0.75</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="G3" s="6">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H3" s="7">
-        <v>0.75</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="I3" s="6">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="J3" s="7">
-        <v>0.75</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="K3" s="6">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="L3" s="7">
-        <v>0.75</v>
+        <v>0.708333333333333</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:12">
-      <c r="A4" s="4">
-        <v>10318438</v>
+      <c r="A4" s="5">
+        <v>10278353</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -1959,7 +1692,7 @@
     </row>
     <row r="5" ht="15.25" spans="1:12">
       <c r="A5" s="5">
-        <v>10278353</v>
+        <v>10307948</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -1995,540 +1728,217 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" ht="15.25" spans="1:12">
-      <c r="A6" s="5">
-        <v>10307948</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="7" spans="17:17">
+      <c r="Q7" s="24"/>
+    </row>
+    <row r="8" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0.75</v>
-      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
     </row>
-    <row r="8" ht="15.25" spans="17:17">
-      <c r="Q8" s="52"/>
+    <row r="9" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15">
+        <v>45810</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15">
+        <v>45811</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15">
+        <v>45812</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15">
+        <v>45813</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15">
+        <v>45814</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15">
+        <v>45815</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15">
+        <v>45816</v>
+      </c>
+      <c r="Q9" s="15"/>
     </row>
-    <row r="9" ht="15.25" spans="1:17">
-      <c r="A9" s="8" t="s">
+    <row r="10" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="17"/>
     </row>
-    <row r="10" ht="15.25" spans="1:17">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="15">
-        <v>45803</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15">
-        <v>45804</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15">
-        <v>45805</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15">
-        <v>45806</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15">
-        <v>45807</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15">
-        <v>45808</v>
-      </c>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15">
-        <v>45809</v>
-      </c>
-      <c r="Q10" s="15"/>
+    <row r="11" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" ht="15.25" spans="1:17">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="17"/>
-    </row>
-    <row r="12" ht="15.25" spans="1:17">
-      <c r="A12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="19" t="s">
+    <row r="12" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A12" s="20">
+        <v>10314789</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="C12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" ht="15.25" spans="1:17">
-      <c r="A13" s="20">
-        <v>10314789</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="D12" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="23">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I13" s="49">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J13" s="23">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K13" s="49">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L13" s="23">
+      <c r="E12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="23">
         <v>0.458333333333333</v>
       </c>
-      <c r="M13" s="49">
+      <c r="I12" s="23">
         <v>0.833333333333333</v>
       </c>
-      <c r="N13" s="23">
+      <c r="J12" s="23">
         <v>0.458333333333333</v>
       </c>
-      <c r="O13" s="49">
+      <c r="K12" s="23">
         <v>0.833333333333333</v>
       </c>
-      <c r="P13" s="23">
+      <c r="L12" s="23">
         <v>0.458333333333333</v>
       </c>
-      <c r="Q13" s="49">
+      <c r="M12" s="23">
         <v>0.833333333333333</v>
       </c>
-    </row>
-    <row r="14" ht="15.25"/>
-    <row r="15" ht="15.25" spans="1:15">
-      <c r="A15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" s="27"/>
-    </row>
-    <row r="16" ht="15.25" spans="1:15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25" spans="1:15">
-      <c r="A17" s="31">
-        <v>10259455</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="34">
+      <c r="N12" s="23">
         <v>0.458333333333333</v>
       </c>
-      <c r="E17" s="34">
+      <c r="O12" s="23">
         <v>0.833333333333333</v>
       </c>
-      <c r="F17" s="34">
+      <c r="P12" s="23">
         <v>0.458333333333333</v>
       </c>
-      <c r="G17" s="34">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H17" s="34">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I17" s="34">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J17" s="34">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K17" s="34">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L17" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="34">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="O17" s="34">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="O19" s="38"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="O20" s="41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="42">
-        <v>10210885</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E21" s="45">
-        <v>0.75</v>
-      </c>
-      <c r="F21" s="45">
-        <v>0.375</v>
-      </c>
-      <c r="G21" s="45">
-        <v>0.75</v>
-      </c>
-      <c r="H21" s="45">
-        <v>0.375</v>
-      </c>
-      <c r="I21" s="45">
-        <v>0.75</v>
-      </c>
-      <c r="J21" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="K21" s="45">
-        <v>0.875</v>
-      </c>
-      <c r="L21" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="M21" s="45">
-        <v>0.875</v>
-      </c>
-      <c r="N21" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="46">
-        <v>10259455</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="48">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E22" s="48">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F22" s="48">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G22" s="48">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H22" s="48">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I22" s="48">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J22" s="48">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K22" s="48">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L22" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="48">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="O22" s="48">
+      <c r="Q12" s="23">
         <v>0.833333333333333</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="21">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
@@ -2536,34 +1946,7 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A8:B9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Trainers</t>
   </si>
@@ -35,22 +35,19 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Monday, June 2, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, June 3, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, June 4, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, June 5, 2025</t>
-  </si>
-  <si>
-    <t>Friday, June 6, 2025</t>
-  </si>
-  <si>
-    <t>Hajar Ahmed</t>
+    <t>Monday, June 9, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, June 10, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, June 11, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, June 12, 2025</t>
+  </si>
+  <si>
+    <t>Friday, June 13, 2025</t>
   </si>
   <si>
     <t>Eman Elsawy</t>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>OFF</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -139,7 +139,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="IBM Plex Sans"/>
+      <name val="ibm plex sans"/>
       <charset val="134"/>
     </font>
     <font>
@@ -147,7 +147,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="IBM Plex Sans"/>
+      <name val="ibm plex sans"/>
       <charset val="134"/>
     </font>
     <font>
@@ -159,7 +159,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0C343D"/>
-      <name val="IBM Plex Sans"/>
+      <name val="ibm plex sans"/>
       <charset val="134"/>
     </font>
     <font>
@@ -170,9 +170,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -582,7 +582,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -606,31 +606,108 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -639,6 +716,17 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -652,63 +740,31 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,7 +892,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -848,34 +904,34 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,30 +1016,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="35" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -991,50 +1050,53 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1569,10 +1631,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1580,81 +1642,110 @@
     <col min="1" max="1" width="10.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="18.3636363636364" customWidth="1"/>
     <col min="3" max="12" width="12.5454545454545" customWidth="1"/>
+    <col min="13" max="14" width="9.18181818181818"/>
     <col min="15" max="15" width="9.45454545454546"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="27.5" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="32.5" customHeight="1" spans="1:12">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" ht="14.75" spans="1:26">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
     </row>
-    <row r="3" ht="16.75" customHeight="1" spans="1:12">
-      <c r="A3" s="4">
-        <v>10318438</v>
+    <row r="3" s="1" customFormat="1" ht="14.75" spans="1:26">
+      <c r="A3" s="5">
+        <v>10278353</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="D3" s="7">
-        <v>0.708333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E3" s="6">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="F3" s="7">
-        <v>0.708333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G3" s="6">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="H3" s="7">
-        <v>0.708333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="I3" s="6">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="J3" s="7">
-        <v>0.708333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="K3" s="6">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="L3" s="7">
-        <v>0.708333333333333</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
     </row>
-    <row r="4" ht="15.25" spans="1:12">
+    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:26">
       <c r="A4" s="5">
-        <v>10278353</v>
+        <v>10307948</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -1689,249 +1780,231 @@
       <c r="L4" s="7">
         <v>0.75</v>
       </c>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
     </row>
-    <row r="5" ht="15.25" spans="1:12">
-      <c r="A5" s="5">
-        <v>10307948</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="7" spans="1:17">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0.75</v>
-      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
     </row>
-    <row r="7" spans="17:17">
-      <c r="Q7" s="24"/>
+    <row r="8" s="1" customFormat="1" ht="14.75" spans="1:17">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15">
+        <v>45817</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="15">
+        <v>45818</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15">
+        <v>45819</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="15">
+        <v>45820</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="15">
+        <v>45821</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="15">
+        <v>45822</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="15">
+        <v>45823</v>
+      </c>
+      <c r="Q8" s="16"/>
     </row>
-    <row r="8" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A8" s="8" t="s">
+    <row r="9" s="1" customFormat="1" ht="14.75" spans="1:17">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="19"/>
+      <c r="P9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="19"/>
     </row>
-    <row r="9" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15">
-        <v>45810</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15">
-        <v>45811</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15">
-        <v>45812</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15">
-        <v>45813</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15">
-        <v>45814</v>
-      </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15">
-        <v>45815</v>
-      </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15">
-        <v>45816</v>
-      </c>
-      <c r="Q9" s="15"/>
+    <row r="10" s="1" customFormat="1" ht="14.75" spans="1:17">
+      <c r="A10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="17"/>
-    </row>
-    <row r="11" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="19" t="s">
+    <row r="11" s="1" customFormat="1" ht="14.75" spans="1:17">
+      <c r="A11" s="21">
+        <v>10314789</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A12" s="20">
-        <v>10314789</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="C11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="D11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="E11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I11" s="23">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J11" s="23">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K11" s="23">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="23">
+        <v>0.875</v>
+      </c>
+      <c r="N11" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="23">
+        <v>0.875</v>
+      </c>
+      <c r="P11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="Q11" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="23">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I12" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J12" s="23">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K12" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L12" s="23">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="M12" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N12" s="23">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="O12" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="P12" s="23">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="Q12" s="23">
-        <v>0.833333333333333</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
@@ -1939,14 +2012,7 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A7:C8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Trainers</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Sunday, June 15, 2025</t>
+  </si>
+  <si>
+    <t>Yomna Ahmed</t>
   </si>
 </sst>
 </file>
@@ -119,7 +128,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +217,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF313131"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -352,7 +375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +420,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF1155CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA4335"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -582,7 +617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -757,6 +792,133 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -886,58 +1048,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -949,74 +1105,80 @@
     <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,7 +1251,43 @@
     <xf numFmtId="179" fontId="12" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1631,10 +1829,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A16" sqref="A16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1646,12 +1844,12 @@
     <col min="15" max="15" width="9.45454545454546"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.5" customHeight="1" spans="1:1">
+    <row r="1" ht="28.25" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.75" spans="1:26">
+    <row r="2" s="1" customFormat="1" ht="15.25" spans="1:26">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1676,22 +1874,22 @@
         <v>6</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.75" spans="1:26">
+    <row r="3" s="1" customFormat="1" ht="15.25" spans="1:26">
       <c r="A3" s="5">
         <v>10278353</v>
       </c>
@@ -1728,20 +1926,20 @@
       <c r="L3" s="7">
         <v>0.75</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15.25" spans="1:26">
       <c r="A4" s="5">
@@ -1780,22 +1978,23 @@
       <c r="L4" s="7">
         <v>0.75</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="6" ht="15.25"/>
+    <row r="7" ht="15.25" spans="1:17">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1816,7 +2015,7 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="14.75" spans="1:17">
+    <row r="8" s="1" customFormat="1" ht="15.25" spans="1:17">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -1849,7 +2048,7 @@
       </c>
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="14.75" spans="1:17">
+    <row r="9" s="1" customFormat="1" ht="15.25" spans="1:17">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -1882,7 +2081,7 @@
       </c>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="14.75" spans="1:17">
+    <row r="10" s="1" customFormat="1" ht="15.25" spans="1:17">
       <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
@@ -1935,7 +2134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="14.75" spans="1:17">
+    <row r="11" s="1" customFormat="1" ht="15.25" spans="1:17">
       <c r="A11" s="21">
         <v>10314789</v>
       </c>
@@ -1981,15 +2180,51 @@
       <c r="O11" s="23">
         <v>0.875</v>
       </c>
-      <c r="P11" s="26" t="s">
+      <c r="P11" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="26" t="s">
+      <c r="Q11" s="38" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="1:4">
+      <c r="A14" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="32">
+        <v>10252926</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="34">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D16" s="35">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -2012,6 +2247,9 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="A7:C8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Trainers</t>
   </si>
@@ -35,19 +35,19 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Monday, June 9, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, June 10, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, June 11, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, June 12, 2025</t>
-  </si>
-  <si>
-    <t>Friday, June 13, 2025</t>
+    <t>Monday, June 16, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, June 17, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, June 18, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, June 19, 2025</t>
+  </si>
+  <si>
+    <t>Friday, June 20, 2025</t>
   </si>
   <si>
     <t>Eman Elsawy</t>
@@ -56,6 +56,15 @@
     <t>Mohamed Atef</t>
   </si>
   <si>
+    <t>Abdelsalam Hisham</t>
+  </si>
+  <si>
+    <t>Janisse Saad</t>
+  </si>
+  <si>
+    <t>Zyad Ashraf</t>
+  </si>
+  <si>
     <t>5th settlement</t>
   </si>
   <si>
@@ -95,25 +104,13 @@
     <t>Shift End</t>
   </si>
   <si>
-    <t>Mohamed Aref Azzam</t>
+    <t>Toka Mohamed Ragai</t>
   </si>
   <si>
     <t>AirAlo</t>
   </si>
   <si>
     <t>OFF</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
-    <t>Sunday, June 15, 2025</t>
-  </si>
-  <si>
-    <t>Yomna Ahmed</t>
   </si>
 </sst>
 </file>
@@ -148,7 +145,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ibm plex sans"/>
+      <name val="IBM Plex Sans"/>
       <charset val="134"/>
     </font>
     <font>
@@ -156,7 +153,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ibm plex sans"/>
+      <name val="IBM Plex Sans"/>
       <charset val="134"/>
     </font>
     <font>
@@ -168,7 +165,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0C343D"/>
-      <name val="ibm plex sans"/>
+      <name val="IBM Plex Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -179,9 +182,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -217,17 +220,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF313131"/>
-      <name val="Calibri"/>
+      <color rgb="FF0C343D"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -375,7 +370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,18 +415,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1155CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA4335"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -617,7 +600,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -641,8 +624,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -656,14 +639,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -674,31 +657,15 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -722,13 +689,31 @@
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -749,89 +734,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -839,94 +742,6 @@
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,7 +869,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1066,123 +881,120 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1200,101 +1012,77 @@
     <xf numFmtId="178" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="35" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1829,10 +1617,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D16"/>
+      <selection activeCell="A16" sqref="A16:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1844,413 +1632,499 @@
     <col min="15" max="15" width="9.45454545454546"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.25" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="30.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.25" spans="1:26">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="1" ht="16" customHeight="1" spans="1:12">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
+      <c r="L2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.25" spans="1:26">
-      <c r="A3" s="5">
+    <row r="3" customFormat="1" ht="16" customHeight="1" spans="1:12">
+      <c r="A3" s="4">
         <v>10278353</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="15.25" spans="1:12">
+      <c r="A4" s="4">
+        <v>10307948</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
         <v>0.375</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D4" s="5">
         <v>0.75</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E4" s="5">
         <v>0.375</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F4" s="5">
         <v>0.75</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G4" s="5">
         <v>0.375</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H4" s="5">
         <v>0.75</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I4" s="5">
         <v>0.375</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J4" s="5">
         <v>0.75</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K4" s="5">
         <v>0.375</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L4" s="5">
         <v>0.75</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:26">
-      <c r="A4" s="5">
-        <v>10307948</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6">
+    <row r="5" ht="15.25" spans="1:26">
+      <c r="A5" s="6">
+        <v>10281254</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7">
         <v>0.375</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D5" s="7">
         <v>0.75</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E5" s="7">
         <v>0.375</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F5" s="7">
         <v>0.75</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G5" s="7">
         <v>0.375</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H5" s="7">
         <v>0.75</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I5" s="7">
         <v>0.375</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J5" s="7">
         <v>0.75</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K5" s="7">
         <v>0.375</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L5" s="7">
         <v>0.75</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
     </row>
-    <row r="6" ht="15.25"/>
+    <row r="6" ht="15.25" spans="1:26">
+      <c r="A6" s="6">
+        <v>10326418</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+    </row>
     <row r="7" ht="15.25" spans="1:17">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
+      <c r="A7" s="8">
+        <v>10273660</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15">
-        <v>45817</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15">
-        <v>45818</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15">
-        <v>45819</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="15">
-        <v>45820</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="15">
-        <v>45821</v>
-      </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="15">
-        <v>45822</v>
-      </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="15">
-        <v>45823</v>
-      </c>
-      <c r="Q8" s="16"/>
+    <row r="8" ht="15.25" spans="13:17">
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="18" t="s">
+    <row r="9" ht="15.25" spans="4:17">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="18" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="16">
+        <v>45824</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18">
+        <v>45825</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18">
+        <v>45826</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18">
+        <v>45827</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18">
+        <v>45828</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18">
+        <v>45829</v>
+      </c>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18">
+        <v>45830</v>
+      </c>
+      <c r="Q11" s="18"/>
+    </row>
+    <row r="12" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="18" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="18" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="18" t="s">
+      <c r="I12" s="20"/>
+      <c r="J12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="20"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="20" t="s">
+    <row r="13" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="B13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>21</v>
+      <c r="C13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A11" s="21">
-        <v>10314789</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="23">
+    <row r="14" ht="15.25" spans="1:17">
+      <c r="A14" s="23">
+        <v>10307941</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H14" s="26">
         <v>0.333333333333333</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I14" s="26">
         <v>0.708333333333333</v>
       </c>
-      <c r="J11" s="23">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K11" s="23">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L11" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="23">
-        <v>0.875</v>
-      </c>
-      <c r="N11" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="O11" s="23">
-        <v>0.875</v>
-      </c>
-      <c r="P11" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" ht="15.25" spans="1:4">
-      <c r="A14" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="26" t="s">
+      <c r="J14" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K14" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L14" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M14" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N14" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="O14" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="P14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="27"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="32">
-        <v>10252926</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="34">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D16" s="35">
-        <v>0.75</v>
+      <c r="Q14" s="25" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="21">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D9:Q9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A10:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Trainers</t>
   </si>
@@ -111,6 +111,57 @@
   </si>
   <si>
     <t>OFF</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.25"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uesday</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.25"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, June 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.25"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11.25"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, 2025</t>
+    </r>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Yomna Ahmed</t>
   </si>
 </sst>
 </file>
@@ -125,7 +176,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +271,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11.25"/>
+      <color rgb="FF313131"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.25"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF313131"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF0C343D"/>
       <name val="Arial"/>
@@ -370,7 +440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +485,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF1155CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA4335"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -600,7 +682,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -747,6 +829,122 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -863,137 +1061,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,7 +1273,43 @@
     <xf numFmtId="179" fontId="13" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1617,10 +1851,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1632,7 +1866,7 @@
     <col min="15" max="15" width="9.45454545454546"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.5" customHeight="1" spans="1:1">
+    <row r="1" ht="31.25" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1776,20 +2010,20 @@
       <c r="L5" s="7">
         <v>0.75</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
     </row>
     <row r="6" ht="15.25" spans="1:26">
       <c r="A6" s="6">
@@ -1828,20 +2062,20 @@
       <c r="L6" s="7">
         <v>0.75</v>
       </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
     </row>
     <row r="7" ht="15.25" spans="1:17">
       <c r="A7" s="8">
@@ -1880,18 +2114,18 @@
       <c r="L7" s="5">
         <v>0.75</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
     </row>
     <row r="8" ht="15.25" spans="13:17">
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" ht="15.25" spans="4:17">
       <c r="D9" s="9"/>
@@ -2102,8 +2336,45 @@
         <v>27</v>
       </c>
     </row>
+    <row r="16" ht="17.75" spans="1:5">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" ht="29.75" spans="1:4">
+      <c r="A17" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:4">
+      <c r="A18" s="35">
+        <v>10252926</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="37">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D18" s="38">
+        <v>0.75</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -2124,6 +2395,7 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="A10:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Trainers</t>
   </si>
@@ -111,57 +111,6 @@
   </si>
   <si>
     <t>OFF</t>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.25"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>uesday</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.25"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, June 1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.25"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.25"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, 2025</t>
-    </r>
-  </si>
-  <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
-    <t>Yomna Ahmed</t>
   </si>
 </sst>
 </file>
@@ -176,7 +125,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,25 +220,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11.25"/>
-      <color rgb="FF313131"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.25"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11.25"/>
-      <color rgb="FF313131"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF0C343D"/>
       <name val="Arial"/>
@@ -440,7 +370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,18 +415,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1155CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA4335"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -682,7 +600,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -829,122 +747,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1061,137 +863,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1273,43 +1075,7 @@
     <xf numFmtId="179" fontId="13" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1851,10 +1617,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A18" sqref="A16:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2010,20 +1776,20 @@
       <c r="L5" s="7">
         <v>0.75</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
     </row>
     <row r="6" ht="15.25" spans="1:26">
       <c r="A6" s="6">
@@ -2062,20 +1828,20 @@
       <c r="L6" s="7">
         <v>0.75</v>
       </c>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
     </row>
     <row r="7" ht="15.25" spans="1:17">
       <c r="A7" s="8">
@@ -2114,18 +1880,18 @@
       <c r="L7" s="5">
         <v>0.75</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" ht="15.25" spans="13:17">
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
     </row>
     <row r="9" ht="15.25" spans="4:17">
       <c r="D9" s="9"/>
@@ -2336,45 +2102,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="17.75" spans="1:5">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" ht="29.75" spans="1:4">
-      <c r="A17" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="1:4">
-      <c r="A18" s="35">
-        <v>10252926</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="37">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D18" s="38">
-        <v>0.75</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -2395,7 +2124,6 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="A10:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
   <si>
     <t>Trainers</t>
   </si>
@@ -35,19 +35,19 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Monday, June 16, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, June 17, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, June 18, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, June 19, 2025</t>
-  </si>
-  <si>
-    <t>Friday, June 20, 2025</t>
+    <t>Monday, June 23, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, June 24, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, June 25, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, June 26, 2025</t>
+  </si>
+  <si>
+    <t>Friday, June 27, 2025</t>
   </si>
   <si>
     <t>Eman Elsawy</t>
@@ -111,6 +111,75 @@
   </si>
   <si>
     <t>OFF</t>
+  </si>
+  <si>
+    <t>Monday June 23, 2025</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Reem Almotaib</t>
+  </si>
+  <si>
+    <t>10:00:00 AM</t>
+  </si>
+  <si>
+    <t>WK 26</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Start vs End</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Ahmed Elsayed</t>
+  </si>
+  <si>
+    <t>Smart Village</t>
+  </si>
+  <si>
+    <t>Mohamed Youssef</t>
+  </si>
+  <si>
+    <t>Shawky Ahmed</t>
+  </si>
+  <si>
+    <t>Hazem Sayed</t>
+  </si>
+  <si>
+    <t>Yomna Ahmed</t>
   </si>
 </sst>
 </file>
@@ -125,8 +194,16 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="34">
-    <font>
+  <fonts count="42">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -157,12 +234,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0C343D"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0C343D"/>
       <name val="IBM Plex Sans"/>
@@ -182,6 +261,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -202,27 +282,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Century Gothic"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF0C343D"/>
-      <name val="Arial"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ibm plex sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF073763"/>
+      <name val="ibm plex sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF073763"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF313131"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -370,7 +499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +544,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1155CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA4335"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -600,7 +771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -688,7 +859,9 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -697,7 +870,9 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -740,6 +915,240 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF434343"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF434343"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF434343"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -863,225 +1272,318 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1617,10 +2119,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A16:E18"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1628,482 +2130,890 @@
     <col min="1" max="1" width="10.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="18.3636363636364" customWidth="1"/>
     <col min="3" max="12" width="12.5454545454545" customWidth="1"/>
-    <col min="13" max="14" width="9.18181818181818"/>
+    <col min="13" max="13" width="9.18181818181818"/>
+    <col min="14" max="14" width="10.7272727272727"/>
     <col min="15" max="15" width="9.45454545454546"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.25" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="35.75" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="16" customHeight="1" spans="1:12">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="1" ht="18.25" customHeight="1" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3" customFormat="1" ht="16" customHeight="1" spans="1:12">
-      <c r="A3" s="4">
+    <row r="3" customFormat="1" ht="18.25" customHeight="1" spans="1:12">
+      <c r="A3" s="5">
         <v>10278353</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0.708333333333333</v>
+      <c r="C3" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.75</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.25" spans="1:12">
-      <c r="A4" s="4">
+    <row r="4" customFormat="1" ht="16.75" customHeight="1" spans="1:12">
+      <c r="A4" s="5">
         <v>10307948</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>0.375</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>0.75</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>0.375</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>0.75</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>0.375</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>0.75</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>0.375</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>0.75</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>0.375</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" ht="15.25" spans="1:26">
-      <c r="A5" s="6">
+    <row r="5" customFormat="1" ht="15.25" spans="1:12">
+      <c r="A5" s="5">
         <v>10281254</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>0.375</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.75</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>0.375</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.75</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>0.375</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>0.75</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>0.375</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>0.75</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>0.375</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>0.75</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
     </row>
-    <row r="6" ht="15.25" spans="1:26">
-      <c r="A6" s="6">
+    <row r="6" customFormat="1" ht="14.75" spans="1:12">
+      <c r="A6" s="5">
         <v>10326418</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0.375</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0.75</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>0.375</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>0.75</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.375</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.75</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>0.375</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>0.75</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>0.375</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>0.75</v>
       </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
     </row>
-    <row r="7" ht="15.25" spans="1:17">
-      <c r="A7" s="8">
+    <row r="7" ht="14.75" spans="1:12">
+      <c r="A7" s="7">
         <v>10273660</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="9">
         <v>0.375</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="9">
         <v>0.75</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="9">
         <v>0.375</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="9">
         <v>0.75</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="9">
         <v>0.375</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="9">
         <v>0.75</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="9">
         <v>0.375</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="9">
         <v>0.75</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="9">
         <v>0.375</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="9">
         <v>0.75</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
     </row>
     <row r="8" ht="15.25" spans="13:17">
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
     </row>
     <row r="9" ht="15.25" spans="4:17">
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
     </row>
-    <row r="10" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A10" s="10" t="s">
+    <row r="10" s="1" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
     </row>
-    <row r="11" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="16">
-        <v>45824</v>
+    <row r="11" s="1" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="17">
+        <v>45831</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="18">
-        <v>45825</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18">
-        <v>45826</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18">
-        <v>45827</v>
-      </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18">
-        <v>45828</v>
-      </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18">
-        <v>45829</v>
-      </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18">
-        <v>45830</v>
-      </c>
-      <c r="Q11" s="18"/>
+      <c r="F11" s="17">
+        <v>45832</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17">
+        <v>45833</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17">
+        <v>45834</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17">
+        <v>45835</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17">
+        <v>45836</v>
+      </c>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17">
+        <v>45837</v>
+      </c>
+      <c r="Q11" s="17"/>
     </row>
-    <row r="12" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20" t="s">
+    <row r="12" s="1" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20" t="s">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20" t="s">
+      <c r="K12" s="19"/>
+      <c r="L12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20" t="s">
+      <c r="M12" s="19"/>
+      <c r="N12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20" t="s">
+      <c r="O12" s="19"/>
+      <c r="P12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="20"/>
+      <c r="Q12" s="19"/>
     </row>
-    <row r="13" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A13" s="21" t="s">
+    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="22" t="s">
+      <c r="O13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="22" t="s">
+      <c r="P13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="22" t="s">
+      <c r="Q13" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" ht="15.25" spans="1:17">
-      <c r="A14" s="23">
+    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A14" s="22">
         <v>10307941</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="J14" s="25">
         <v>0.458333333333333</v>
       </c>
-      <c r="G14" s="26">
+      <c r="K14" s="25">
         <v>0.833333333333333</v>
       </c>
-      <c r="H14" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I14" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J14" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K14" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L14" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M14" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N14" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="O14" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="P14" s="25" t="s">
+      <c r="L14" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="M14" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="N14" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="O14" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="P14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="25" t="s">
+      <c r="Q14" s="24" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="1:4">
+      <c r="A17" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" ht="15.25" spans="1:4">
+      <c r="A18" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="1:4">
+      <c r="A19" s="34">
+        <v>10210886</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="37">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" ht="15.25"/>
+    <row r="22" customFormat="1" spans="1:16">
+      <c r="A22" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:16">
+      <c r="A23" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:16">
+      <c r="A24" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="O24" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:16">
+      <c r="A25" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="41">
+        <v>45831</v>
+      </c>
+      <c r="D25" s="41">
+        <v>45831</v>
+      </c>
+      <c r="E25" s="41">
+        <v>45832</v>
+      </c>
+      <c r="F25" s="41">
+        <v>45832</v>
+      </c>
+      <c r="G25" s="41">
+        <v>45833</v>
+      </c>
+      <c r="H25" s="41">
+        <v>45833</v>
+      </c>
+      <c r="I25" s="41">
+        <v>45834</v>
+      </c>
+      <c r="J25" s="41">
+        <v>45834</v>
+      </c>
+      <c r="K25" s="41">
+        <v>45835</v>
+      </c>
+      <c r="L25" s="41">
+        <v>45835</v>
+      </c>
+      <c r="M25" s="41">
+        <v>45836</v>
+      </c>
+      <c r="N25" s="41">
+        <v>45836</v>
+      </c>
+      <c r="O25" s="41">
+        <v>45837</v>
+      </c>
+      <c r="P25" s="41">
+        <v>45837</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:16">
+      <c r="A26" s="42">
+        <v>10317390</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="44">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D26" s="44">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E26" s="44">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="F26" s="44">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G26" s="44">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="H26" s="44">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="O26" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:16">
+      <c r="A27" s="42">
+        <v>10324909</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="P27" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:16">
+      <c r="A28" s="42">
+        <v>10333264</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" s="45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="42">
+        <v>10333263</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="44">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="H29" s="44">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I29" s="44">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="J29" s="44">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="K29" s="44">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="L29" s="44">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M29" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" s="45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" ht="16.25" spans="1:5">
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
+    </row>
+    <row r="32" ht="31.75" spans="1:4">
+      <c r="A32" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" ht="15.5" spans="1:4">
+      <c r="A33" s="56">
+        <v>10252926</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="58">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D33" s="59">
+        <v>0.791666666666667</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="29">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -2111,6 +3021,7 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="D9:Q9"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
@@ -2124,6 +3035,13 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="A10:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
   <si>
     <t>Trainers</t>
   </si>
@@ -113,18 +113,6 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>Monday June 23, 2025</t>
-  </si>
-  <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
-    <t>Reem Almotaib</t>
-  </si>
-  <si>
-    <t>10:00:00 AM</t>
-  </si>
-  <si>
     <t>WK 26</t>
   </si>
   <si>
@@ -177,9 +165,6 @@
   </si>
   <si>
     <t>Hazem Sayed</t>
-  </si>
-  <si>
-    <t>Yomna Ahmed</t>
   </si>
 </sst>
 </file>
@@ -194,7 +179,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,27 +281,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ibm plex sans"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF073763"/>
-      <name val="ibm plex sans"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF073763"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Tahoma"/>
@@ -332,26 +296,6 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF313131"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -499,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,24 +488,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -574,18 +500,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1155CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA4335"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -771,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -921,233 +835,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF434343"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF434343"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF434343"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1272,137 +965,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1481,107 +1174,32 @@
     <xf numFmtId="179" fontId="13" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="15" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -2119,10 +1737,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2280,7 +1898,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="14.75" spans="1:12">
+    <row r="6" customFormat="1" ht="15.25" spans="1:12">
       <c r="A6" s="5">
         <v>10326418</v>
       </c>
@@ -2318,7 +1936,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" ht="14.75" spans="1:12">
+    <row r="7" ht="15.25" spans="1:12">
       <c r="A7" s="7">
         <v>10273660</v>
       </c>
@@ -2357,11 +1975,11 @@
       </c>
     </row>
     <row r="8" ht="15.25" spans="13:17">
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
     </row>
     <row r="9" ht="15.25" spans="4:17">
       <c r="D9" s="10"/>
@@ -2572,448 +2190,372 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" ht="15.25" spans="1:4">
+    <row r="17" customFormat="1" ht="15.25" spans="1:16">
       <c r="A17" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
     </row>
-    <row r="18" ht="15.25" spans="1:4">
-      <c r="A18" s="30" t="s">
+    <row r="18" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>24</v>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="19" ht="15.25" spans="1:4">
-      <c r="A19" s="34">
-        <v>10210886</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="37">
-        <v>0.791666666666667</v>
+    <row r="19" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A19" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="15.25"/>
-    <row r="22" customFormat="1" spans="1:16">
-      <c r="A22" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
+    <row r="20" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A20" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="29">
+        <v>45831</v>
+      </c>
+      <c r="D20" s="29">
+        <v>45831</v>
+      </c>
+      <c r="E20" s="29">
+        <v>45832</v>
+      </c>
+      <c r="F20" s="29">
+        <v>45832</v>
+      </c>
+      <c r="G20" s="29">
+        <v>45833</v>
+      </c>
+      <c r="H20" s="29">
+        <v>45833</v>
+      </c>
+      <c r="I20" s="29">
+        <v>45834</v>
+      </c>
+      <c r="J20" s="29">
+        <v>45834</v>
+      </c>
+      <c r="K20" s="29">
+        <v>45835</v>
+      </c>
+      <c r="L20" s="29">
+        <v>45835</v>
+      </c>
+      <c r="M20" s="29">
+        <v>45836</v>
+      </c>
+      <c r="N20" s="29">
+        <v>45836</v>
+      </c>
+      <c r="O20" s="29">
+        <v>45837</v>
+      </c>
+      <c r="P20" s="29">
+        <v>45837</v>
+      </c>
     </row>
-    <row r="23" customFormat="1" spans="1:16">
-      <c r="A23" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="N23" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="P23" s="40" t="s">
-        <v>40</v>
+    <row r="21" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A21" s="30">
+        <v>10317390</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="32">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D21" s="32">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G21" s="32">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="H21" s="32">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:16">
-      <c r="A24" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="40" t="s">
+    <row r="22" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A22" s="30">
+        <v>10324909</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="L24" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="M24" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="N24" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="O24" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="P24" s="40" t="s">
-        <v>43</v>
+      <c r="C22" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:16">
-      <c r="A25" s="39" t="s">
+    <row r="23" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A23" s="30">
+        <v>10333264</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="41">
-        <v>45831</v>
-      </c>
-      <c r="D25" s="41">
-        <v>45831</v>
-      </c>
-      <c r="E25" s="41">
-        <v>45832</v>
-      </c>
-      <c r="F25" s="41">
-        <v>45832</v>
-      </c>
-      <c r="G25" s="41">
-        <v>45833</v>
-      </c>
-      <c r="H25" s="41">
-        <v>45833</v>
-      </c>
-      <c r="I25" s="41">
-        <v>45834</v>
-      </c>
-      <c r="J25" s="41">
-        <v>45834</v>
-      </c>
-      <c r="K25" s="41">
-        <v>45835</v>
-      </c>
-      <c r="L25" s="41">
-        <v>45835</v>
-      </c>
-      <c r="M25" s="41">
-        <v>45836</v>
-      </c>
-      <c r="N25" s="41">
-        <v>45836</v>
-      </c>
-      <c r="O25" s="41">
-        <v>45837</v>
-      </c>
-      <c r="P25" s="41">
-        <v>45837</v>
+      <c r="C23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:16">
-      <c r="A26" s="42">
-        <v>10317390</v>
-      </c>
-      <c r="B26" s="43" t="s">
+    <row r="24" ht="15.25" spans="1:16">
+      <c r="A24" s="30">
+        <v>10333263</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C24" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="32">
         <v>0.291666666666667</v>
       </c>
-      <c r="D26" s="44">
+      <c r="H24" s="32">
         <v>0.666666666666667</v>
       </c>
-      <c r="E26" s="44">
+      <c r="I24" s="32">
         <v>0.291666666666667</v>
       </c>
-      <c r="F26" s="44">
+      <c r="J24" s="32">
         <v>0.666666666666667</v>
       </c>
-      <c r="G26" s="44">
+      <c r="K24" s="32">
         <v>0.291666666666667</v>
       </c>
-      <c r="H26" s="44">
+      <c r="L24" s="32">
         <v>0.666666666666667</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="M24" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="45" t="s">
+      <c r="N24" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="45" t="s">
+      <c r="O24" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="45" t="s">
+      <c r="P24" s="33" t="s">
         <v>27</v>
-      </c>
-      <c r="M26" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="N26" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="O26" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="P26" s="46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:16">
-      <c r="A27" s="42">
-        <v>10324909</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="M27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="O27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="P27" s="46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:16">
-      <c r="A28" s="42">
-        <v>10333264</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="L28" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="P28" s="45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="42">
-        <v>10333263</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="44">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="H29" s="44">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I29" s="44">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="J29" s="44">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K29" s="44">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="L29" s="44">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M29" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="N29" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="O29" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="P29" s="45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" ht="16.25" spans="1:5">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
-    </row>
-    <row r="32" ht="31.75" spans="1:4">
-      <c r="A32" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" ht="15.5" spans="1:4">
-      <c r="A33" s="56">
-        <v>10252926</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="58">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D33" s="59">
-        <v>0.791666666666667</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="26">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -3035,13 +2577,10 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A10:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
   <si>
     <t>Trainers</t>
   </si>
@@ -35,19 +35,7 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Monday, June 23, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, June 24, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, June 25, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, June 26, 2025</t>
-  </si>
-  <si>
-    <t>Friday, June 27, 2025</t>
+    <t>Monday, June 30, 2025</t>
   </si>
   <si>
     <t>Eman Elsawy</t>
@@ -62,6 +50,12 @@
     <t>Janisse Saad</t>
   </si>
   <si>
+    <t>Youssef Amer</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>Zyad Ashraf</t>
   </si>
   <si>
@@ -104,7 +98,7 @@
     <t>Shift End</t>
   </si>
   <si>
-    <t>Toka Mohamed Ragai</t>
+    <t>Mohamed Aref Azzam</t>
   </si>
   <si>
     <t>AirAlo</t>
@@ -113,7 +107,16 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>WK 26</t>
+    <t>Joudi Moussa</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Ahmed Mohamedsobhi</t>
+  </si>
+  <si>
+    <t>WK 27</t>
   </si>
   <si>
     <t>Day</t>
@@ -149,6 +152,9 @@
     <t>End</t>
   </si>
   <si>
+    <t>Site</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -158,13 +164,10 @@
     <t>Smart Village</t>
   </si>
   <si>
-    <t>Mohamed Youssef</t>
-  </si>
-  <si>
-    <t>Shawky Ahmed</t>
-  </si>
-  <si>
-    <t>Hazem Sayed</t>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Yomna Ahmed</t>
   </si>
 </sst>
 </file>
@@ -179,16 +182,8 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="36">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+  <fonts count="39">
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -219,14 +214,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF0C343D"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF0C343D"/>
       <name val="IBM Plex Sans"/>
@@ -246,7 +239,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -267,15 +259,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Century Gothic"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <charset val="134"/>
@@ -296,6 +292,26 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF313131"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -443,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +510,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF1155CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA4335"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF666666"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -685,7 +713,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -848,6 +876,146 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -965,244 +1133,283 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="15" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="15" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1737,10 +1944,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1751,811 +1958,868 @@
     <col min="13" max="13" width="9.18181818181818"/>
     <col min="14" max="14" width="10.7272727272727"/>
     <col min="15" max="15" width="9.45454545454546"/>
+    <col min="16" max="16" width="9.18181818181818"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.75" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="38.75" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="18.25" customHeight="1" spans="1:12">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="1" ht="19.75" customHeight="1" spans="1:12">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" customFormat="1" ht="19.75" customHeight="1" spans="1:12">
+      <c r="A3" s="4">
+        <v>10278353</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="C3" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="17.5" customHeight="1" spans="1:12">
+      <c r="A4" s="4">
+        <v>10307948</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" customFormat="1" ht="18.25" customHeight="1" spans="1:12">
-      <c r="A3" s="5">
-        <v>10278353</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="16.75" customHeight="1" spans="1:12">
-      <c r="A4" s="5">
-        <v>10307948</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.75</v>
+      <c r="C4" s="5">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.958333333333333</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="15.25" spans="1:12">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>10281254</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
         <v>0.375</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0.75</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.375</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0.75</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.375</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0.75</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>0.375</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>0.75</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>0.375</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="15.25" spans="1:12">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>10326418</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
         <v>0.375</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>0.75</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0.375</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>0.75</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0.375</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>0.75</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>0.375</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>0.75</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>0.375</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:12">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
+        <v>10245223</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="8" ht="15.25" spans="1:17">
+      <c r="A8" s="6">
         <v>10273660</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
         <v>0.375</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="5">
         <v>0.75</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="5">
         <v>0.375</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="5">
         <v>0.75</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G8" s="5">
         <v>0.375</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H8" s="5">
         <v>0.75</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I8" s="5">
         <v>0.375</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J8" s="5">
         <v>0.75</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K8" s="5">
         <v>0.375</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L8" s="5">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="8" ht="15.25" spans="13:17">
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
     </row>
     <row r="9" ht="15.25" spans="4:17">
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A10" s="11" t="s">
+    <row r="10" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="15">
+        <v>45838</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15">
+        <v>45839</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15">
+        <v>45840</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15">
+        <v>45841</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15">
+        <v>45842</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15">
+        <v>45843</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15">
+        <v>45844</v>
+      </c>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="17"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="17">
-        <v>45831</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17">
-        <v>45832</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17">
-        <v>45833</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17">
-        <v>45834</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17">
-        <v>45835</v>
-      </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17">
-        <v>45836</v>
-      </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17">
-        <v>45837</v>
-      </c>
-      <c r="Q11" s="17"/>
+    <row r="13" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="19"/>
+    <row r="14" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A14" s="20">
+        <v>10314789</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J14" s="23">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K14" s="23">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L14" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M14" s="23">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N14" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="O14" s="23">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="P14" s="23">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>0.833333333333333</v>
+      </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="21" t="s">
+    <row r="15" ht="15.25" spans="1:17">
+      <c r="A15" s="20">
+        <v>10320445</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="D15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="23">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I15" s="23">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J15" s="23">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K15" s="23">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="23">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="1:17">
+      <c r="A16" s="20">
+        <v>10322837</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="21" t="s">
-        <v>24</v>
+      <c r="D16" s="23">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F16" s="23">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G16" s="23">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H16" s="23">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I16" s="23">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J16" s="23">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K16" s="23">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L16" s="23">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="M16" s="23">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A14" s="22">
-        <v>10307941</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G14" s="25">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="H14" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="I14" s="25">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="J14" s="25">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K14" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L14" s="25">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="M14" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N14" s="25">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="O14" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="P14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="24" t="s">
-        <v>27</v>
-      </c>
+    <row r="17" ht="15.25"/>
+    <row r="18" ht="15.25" spans="1:18">
+      <c r="A18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="48"/>
     </row>
-    <row r="17" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-    </row>
-    <row r="18" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A18" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28" t="s">
+    <row r="19" ht="15.25" spans="1:18">
+      <c r="A19" s="27" t="s">
         <v>30</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="O18" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="P18" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A19" s="27" t="s">
-        <v>37</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="1:18">
+      <c r="A20" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="28" t="s">
+      <c r="D20" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="28" t="s">
+      <c r="F20" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="28" t="s">
+      <c r="H20" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" s="28" t="s">
+      <c r="J20" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="M19" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" s="28" t="s">
+      <c r="M20" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" s="28" t="s">
+      <c r="P20" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="28" t="s">
         <v>39</v>
       </c>
+      <c r="R20" s="28" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="20" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A20" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="29">
-        <v>45831</v>
-      </c>
-      <c r="D20" s="29">
-        <v>45831</v>
-      </c>
-      <c r="E20" s="29">
-        <v>45832</v>
-      </c>
-      <c r="F20" s="29">
-        <v>45832</v>
-      </c>
-      <c r="G20" s="29">
-        <v>45833</v>
-      </c>
-      <c r="H20" s="29">
-        <v>45833</v>
-      </c>
-      <c r="I20" s="29">
-        <v>45834</v>
-      </c>
-      <c r="J20" s="29">
-        <v>45834</v>
-      </c>
-      <c r="K20" s="29">
-        <v>45835</v>
-      </c>
-      <c r="L20" s="29">
-        <v>45835</v>
-      </c>
-      <c r="M20" s="29">
-        <v>45836</v>
-      </c>
-      <c r="N20" s="29">
-        <v>45836</v>
-      </c>
-      <c r="O20" s="29">
-        <v>45837</v>
-      </c>
-      <c r="P20" s="29">
-        <v>45837</v>
+    <row r="21" ht="15.25" spans="1:18">
+      <c r="A21" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="29">
+        <v>45838</v>
+      </c>
+      <c r="D21" s="29">
+        <v>45838</v>
+      </c>
+      <c r="E21" s="29">
+        <v>45839</v>
+      </c>
+      <c r="F21" s="29">
+        <v>45839</v>
+      </c>
+      <c r="G21" s="29">
+        <v>45840</v>
+      </c>
+      <c r="H21" s="29">
+        <v>45840</v>
+      </c>
+      <c r="I21" s="29">
+        <v>45841</v>
+      </c>
+      <c r="J21" s="29">
+        <v>45841</v>
+      </c>
+      <c r="K21" s="29">
+        <v>45841</v>
+      </c>
+      <c r="L21" s="29">
+        <v>45842</v>
+      </c>
+      <c r="M21" s="29">
+        <v>45842</v>
+      </c>
+      <c r="N21" s="29">
+        <v>45842</v>
+      </c>
+      <c r="O21" s="29">
+        <v>45843</v>
+      </c>
+      <c r="P21" s="29">
+        <v>45843</v>
+      </c>
+      <c r="Q21" s="29">
+        <v>45844</v>
+      </c>
+      <c r="R21" s="29">
+        <v>45844</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A21" s="30">
+    <row r="22" ht="15.25" spans="1:18">
+      <c r="A22" s="30">
         <v>10317390</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="32">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D21" s="32">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E21" s="32">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="F21" s="32">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G21" s="32">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="H21" s="32">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="O21" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="P21" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A22" s="30">
-        <v>10324909</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="O22" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="P22" s="34" t="s">
-        <v>42</v>
+      <c r="C22" s="32">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D22" s="32">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E22" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="F22" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="G22" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="H22" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" s="47" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A23" s="30">
-        <v>10333264</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="L23" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="P23" s="33" t="s">
-        <v>27</v>
-      </c>
+    <row r="25" ht="18.25" spans="1:5">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
     </row>
-    <row r="24" ht="15.25" spans="1:16">
-      <c r="A24" s="30">
-        <v>10333263</v>
-      </c>
-      <c r="B24" s="31" t="s">
+    <row r="26" ht="15.75" spans="1:4">
+      <c r="A26" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="32">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="H24" s="32">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I24" s="32">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="J24" s="32">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K24" s="32">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="L24" s="32">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M24" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="O24" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="P24" s="33" t="s">
-        <v>27</v>
+      <c r="B26" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:4">
+      <c r="A27" s="41">
+        <v>10252926</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="43">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D27" s="44">
+        <v>0.791666666666667</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -2577,10 +2841,11 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A18:R18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="A10:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
   <si>
     <t>Trainers</t>
   </si>
@@ -164,10 +164,187 @@
     <t>Smart Village</t>
   </si>
   <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
-    <t>Yomna Ahmed</t>
+    <t>طلبات RTAs مواعيد ثابتة دائماً اجازة جمعة و سبت</t>
+  </si>
+  <si>
+    <r>
+      <t>محمد</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>احمد</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>عبد</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>الله</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>السيد</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>احمد</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>عبد</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>العزيز</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>مؤمن</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>مدحت</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>احمد</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>عطية</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -295,23 +472,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Segoe UI"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF313131"/>
-      <name val="Times New Roman"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
       <charset val="134"/>
     </font>
     <font>
@@ -459,7 +638,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,18 +689,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1155CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA4335"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF666666"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -713,7 +880,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -887,117 +1054,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1139,7 +1205,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1151,142 +1217,145 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -1363,52 +1432,37 @@
     <xf numFmtId="179" fontId="16" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+      <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1944,10 +1998,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1962,860 +2016,906 @@
   </cols>
   <sheetData>
     <row r="1" ht="38.75" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="19.75" customHeight="1" spans="1:12">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" ht="19.75" customHeight="1" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3" customFormat="1" ht="19.75" customHeight="1" spans="1:12">
-      <c r="A3" s="4">
+    <row r="3" s="1" customFormat="1" ht="19.75" customHeight="1" spans="1:12">
+      <c r="A3" s="5">
         <v>10278353</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>0.375</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>0.75</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>0.375</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>0.75</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>0.375</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>0.75</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>0.375</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>0.75</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>0.375</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="17.5" customHeight="1" spans="1:12">
-      <c r="A4" s="4">
+    <row r="4" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:12">
+      <c r="A4" s="5">
         <v>10307948</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>0.583333333333333</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>0.958333333333333</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>0.583333333333333</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>0.958333333333333</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>0.583333333333333</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>0.958333333333333</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>0.583333333333333</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>0.958333333333333</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>0.583333333333333</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>0.958333333333333</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.25" spans="1:12">
-      <c r="A5" s="4">
+    <row r="5" s="1" customFormat="1" ht="15.25" spans="1:12">
+      <c r="A5" s="5">
         <v>10281254</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>0.375</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>0.75</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>0.375</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>0.75</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>0.375</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>0.75</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>0.375</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>0.75</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>0.375</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15.25" spans="1:12">
-      <c r="A6" s="4">
+    <row r="6" s="1" customFormat="1" ht="15.25" spans="1:12">
+      <c r="A6" s="5">
         <v>10326418</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>0.375</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>0.75</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>0.375</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>0.75</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>0.375</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>0.75</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>0.375</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <v>0.75</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <v>0.375</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" ht="15.25" spans="1:12">
-      <c r="A7" s="6">
+    <row r="7" s="1" customFormat="1" ht="15.25" spans="1:12">
+      <c r="A7" s="7">
         <v>10245223</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>0.583333333333333</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>0.958333333333333</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>0.583333333333333</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>0.958333333333333</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>0.583333333333333</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
         <v>0.958333333333333</v>
       </c>
     </row>
-    <row r="8" ht="15.25" spans="1:17">
-      <c r="A8" s="6">
+    <row r="8" s="1" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A8" s="7">
         <v>10273660</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>0.375</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>0.75</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>0.375</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>0.75</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>0.375</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>0.75</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>0.375</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>0.75</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>0.375</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <v>0.75</v>
       </c>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" ht="15.25" spans="4:17">
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
     </row>
     <row r="10" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="16">
         <v>45838</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16">
         <v>45839</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16">
         <v>45840</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15">
+      <c r="I11" s="16"/>
+      <c r="J11" s="16">
         <v>45841</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15">
+      <c r="K11" s="16"/>
+      <c r="L11" s="16">
         <v>45842</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15">
+      <c r="M11" s="16"/>
+      <c r="N11" s="16">
         <v>45843</v>
       </c>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15">
+      <c r="O11" s="16"/>
+      <c r="P11" s="16">
         <v>45844</v>
       </c>
-      <c r="Q11" s="15"/>
+      <c r="Q11" s="16"/>
     </row>
     <row r="12" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="18"/>
+      <c r="H12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="18"/>
+      <c r="J12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17" t="s">
+      <c r="K12" s="18"/>
+      <c r="L12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17" t="s">
+      <c r="M12" s="18"/>
+      <c r="N12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17" t="s">
+      <c r="O12" s="18"/>
+      <c r="P12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="17"/>
+      <c r="Q12" s="18"/>
     </row>
     <row r="13" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="19" t="s">
+      <c r="Q13" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A14" s="20">
+      <c r="A14" s="21">
         <v>10314789</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="24">
         <v>0.458333333333333</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="24">
         <v>0.833333333333333</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="24">
         <v>0.458333333333333</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="24">
         <v>0.833333333333333</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="24">
         <v>0.333333333333333</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="24">
         <v>0.708333333333333</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="24">
         <v>0.333333333333333</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="24">
         <v>0.708333333333333</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="24">
         <v>0.458333333333333</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="24">
         <v>0.833333333333333</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:17">
-      <c r="A15" s="20">
+      <c r="A15" s="21">
         <v>10320445</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="24">
         <v>0.458333333333333</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="24">
         <v>0.833333333333333</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="24">
         <v>0.458333333333333</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="24">
         <v>0.833333333333333</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="O15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="24">
         <v>0.458333333333333</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="24">
         <v>0.833333333333333</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:17">
-      <c r="A16" s="20">
+      <c r="A16" s="21">
         <v>10322837</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="N16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="22" t="s">
+      <c r="O16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="22" t="s">
+      <c r="P16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="22" t="s">
+      <c r="Q16" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" ht="15.25"/>
     <row r="18" ht="15.25" spans="1:18">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="48"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="44"/>
     </row>
     <row r="19" ht="15.25" spans="1:18">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="28" t="s">
+      <c r="K19" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="M19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="N19" s="28" t="s">
+      <c r="N19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="O19" s="28" t="s">
+      <c r="O19" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="28" t="s">
+      <c r="P19" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="28" t="s">
+      <c r="Q19" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="28" t="s">
+      <c r="R19" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:18">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="28" t="s">
+      <c r="J20" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="28" t="s">
+      <c r="K20" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="M20" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="N20" s="28" t="s">
+      <c r="N20" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="28" t="s">
+      <c r="O20" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="P20" s="28" t="s">
+      <c r="P20" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="28" t="s">
+      <c r="Q20" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="R20" s="28" t="s">
+      <c r="R20" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:18">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="29">
+      <c r="B21" s="28"/>
+      <c r="C21" s="30">
         <v>45838</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="30">
         <v>45838</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="30">
         <v>45839</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="30">
         <v>45839</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="30">
         <v>45840</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="30">
         <v>45840</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="30">
         <v>45841</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="30">
         <v>45841</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="30">
         <v>45841</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="30">
         <v>45842</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="30">
         <v>45842</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21" s="30">
         <v>45842</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O21" s="30">
         <v>45843</v>
       </c>
-      <c r="P21" s="29">
+      <c r="P21" s="30">
         <v>45843</v>
       </c>
-      <c r="Q21" s="29">
+      <c r="Q21" s="30">
         <v>45844</v>
       </c>
-      <c r="R21" s="29">
+      <c r="R21" s="30">
         <v>45844</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:18">
-      <c r="A22" s="30">
+      <c r="A22" s="31">
         <v>10317390</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="33">
         <v>0.291666666666667</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="33">
         <v>0.666666666666667</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="33">
         <v>0.375</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="33">
         <v>0.75</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="33">
         <v>0.375</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="33">
         <v>0.75</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="46" t="s">
+      <c r="J22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="46" t="s">
+      <c r="K22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="46" t="s">
+      <c r="L22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="46" t="s">
+      <c r="M22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="46" t="s">
+      <c r="N22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="47" t="s">
+      <c r="O22" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="P22" s="47" t="s">
+      <c r="P22" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="Q22" s="47" t="s">
+      <c r="Q22" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="47" t="s">
+      <c r="R22" s="43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" ht="18.25" spans="1:5">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
+    <row r="24" ht="15.25" spans="1:1">
+      <c r="A24" s="34" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="26" ht="15.75" spans="1:4">
+    <row r="25" ht="15.25" spans="1:4">
+      <c r="A25" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+    </row>
+    <row r="26" ht="14.75" spans="1:4">
       <c r="A26" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:4">
-      <c r="A27" s="41">
-        <v>10252926</v>
-      </c>
-      <c r="B27" s="42" t="s">
+    <row r="27" ht="14.75" spans="1:4">
+      <c r="A27" s="38">
+        <v>10334426</v>
+      </c>
+      <c r="B27" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="40">
         <v>0.458333333333333</v>
       </c>
-      <c r="D27" s="44">
-        <v>0.791666666666667</v>
+      <c r="D27" s="40">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="28" ht="14.75" spans="1:4">
+      <c r="A28" s="38">
+        <v>10334495</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D28" s="40">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="29" ht="14.75" spans="1:4">
+      <c r="A29" s="38">
+        <v>10334497</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D29" s="40">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="30" ht="14.75" spans="1:4">
+      <c r="A30" s="38">
+        <v>10335595</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D30" s="40">
+        <v>0.833333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2845,7 +2945,7 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A25:D25"/>
     <mergeCell ref="A10:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>Trainers</t>
   </si>
@@ -35,7 +35,19 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Monday, June 30, 2025</t>
+    <t>Monday, July 7, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, July 8, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, July 9, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, July 10, 2025</t>
+  </si>
+  <si>
+    <t>Friday, July 11, 2025</t>
   </si>
   <si>
     <t>Eman Elsawy</t>
@@ -50,27 +62,12 @@
     <t>Janisse Saad</t>
   </si>
   <si>
-    <t>Youssef Amer</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Zyad Ashraf</t>
   </si>
   <si>
     <t>5th settlement</t>
   </si>
   <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
@@ -107,52 +104,43 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>Joudi Moussa</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Ahmed Mohamedsobhi</t>
-  </si>
-  <si>
-    <t>WK 27</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Tue</t>
-  </si>
-  <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>Thu</t>
-  </si>
-  <si>
-    <t>Fri</t>
-  </si>
-  <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>Start vs End</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Site</t>
+    <t>WK 29</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>tue</t>
+  </si>
+  <si>
+    <t>wed</t>
+  </si>
+  <si>
+    <t>thu</t>
+  </si>
+  <si>
+    <t>fri</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>start vs end</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>site</t>
   </si>
   <si>
     <t>Date</t>
@@ -164,187 +152,7 @@
     <t>Smart Village</t>
   </si>
   <si>
-    <t>طلبات RTAs مواعيد ثابتة دائماً اجازة جمعة و سبت</t>
-  </si>
-  <si>
-    <r>
-      <t>محمد</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>احمد</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>عبد</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>الله</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>السيد</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>احمد</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>عبد</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>العزيز</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>مؤمن</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>مدحت</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>احمد</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>عطية</t>
-    </r>
+    <t>shiko</t>
   </si>
 </sst>
 </file>
@@ -359,7 +167,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,12 +224,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -443,20 +245,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Century Gothic"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -473,23 +263,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Century Gothic"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Century Gothic"/>
       <charset val="134"/>
     </font>
@@ -638,7 +419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,24 +458,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F1F1F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF888888"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF666666"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -880,7 +667,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -920,7 +707,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -935,7 +722,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -986,9 +773,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1020,22 +813,9 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1046,25 +826,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1074,7 +839,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1199,270 +964,249 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="15" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="19" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1998,10 +1742,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2012,274 +1756,232 @@
     <col min="13" max="13" width="9.18181818181818"/>
     <col min="14" max="14" width="10.7272727272727"/>
     <col min="15" max="15" width="9.45454545454546"/>
-    <col min="16" max="16" width="9.18181818181818"/>
+    <col min="16" max="17" width="9.18181818181818"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.75" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="43.25" customHeight="1" spans="1:1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="19.75" customHeight="1" spans="1:12">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" ht="16" customHeight="1" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="5"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19.75" customHeight="1" spans="1:12">
-      <c r="A3" s="5">
+    <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:12">
+      <c r="A3" s="6">
         <v>10278353</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8">
         <v>0.375</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>0.75</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>0.375</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
         <v>0.75</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="8">
         <v>0.375</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="8">
         <v>0.75</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="8">
         <v>0.375</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="8">
         <v>0.75</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="8">
         <v>0.375</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="8">
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:12">
-      <c r="A4" s="5">
+    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:12">
+      <c r="A4" s="6">
         <v>10307948</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.958333333333333</v>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.708333333333333</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.25" spans="1:12">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>10281254</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8">
         <v>0.375</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="8">
         <v>0.75</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>0.375</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <v>0.75</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="8">
         <v>0.375</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="8">
         <v>0.75</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="8">
         <v>0.375</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="8">
         <v>0.75</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="8">
         <v>0.375</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="8">
         <v>0.75</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.25" spans="1:12">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>10326418</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8">
         <v>0.375</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="8">
         <v>0.75</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>0.375</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>0.75</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="8">
         <v>0.375</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="8">
         <v>0.75</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="8">
         <v>0.375</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="8">
         <v>0.75</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="8">
         <v>0.375</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="8">
         <v>0.75</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.25" spans="1:12">
-      <c r="A7" s="7">
-        <v>10245223</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0.958333333333333</v>
+      <c r="A7" s="6">
+        <v>10273660</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.75</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A8" s="7">
-        <v>10273660</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-    </row>
-    <row r="9" ht="15.25" spans="4:17">
+    <row r="8" ht="15.25"/>
+    <row r="9" spans="4:17">
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -2295,631 +1997,468 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" customFormat="1" ht="15.25" spans="1:17">
+    <row r="10" customFormat="1" spans="1:11">
       <c r="A10" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
     </row>
-    <row r="11" customFormat="1" ht="15.25" spans="1:17">
+    <row r="11" customFormat="1" ht="14.75" spans="1:11">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="12"/>
       <c r="D11" s="16">
-        <v>45838</v>
+        <v>45848</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16">
-        <v>45839</v>
+        <v>45849</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16">
-        <v>45840</v>
+        <v>45850</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16">
-        <v>45841</v>
+        <v>45851</v>
       </c>
       <c r="K11" s="16"/>
-      <c r="L11" s="16">
-        <v>45842</v>
-      </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16">
-        <v>45843</v>
-      </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16">
-        <v>45844</v>
-      </c>
-      <c r="Q11" s="16"/>
     </row>
-    <row r="12" customFormat="1" ht="15.25" spans="1:17">
+    <row r="12" customFormat="1" ht="14.75" spans="1:11">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K12" s="18"/>
-      <c r="L12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18" t="s">
+    </row>
+    <row r="13" customFormat="1" ht="14.75" spans="1:11">
+      <c r="A13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="18"/>
+      <c r="B13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="13" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q13" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="15.25" spans="1:17">
+    <row r="14" customFormat="1" ht="14.75" spans="1:11">
       <c r="A14" s="21">
         <v>10314789</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="D14" s="23">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="J14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="K14" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25"/>
+    <row r="17" s="2" customFormat="1" ht="15.25" spans="1:24">
+      <c r="A17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I14" s="24">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J14" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K14" s="24">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L14" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M14" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N14" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="O14" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="P14" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="Q14" s="24">
-        <v>0.833333333333333</v>
-      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="37"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
     </row>
-    <row r="15" ht="15.25" spans="1:17">
-      <c r="A15" s="21">
-        <v>10320445</v>
-      </c>
-      <c r="B15" s="22" t="s">
+    <row r="18" s="2" customFormat="1" ht="15.25" spans="1:24">
+      <c r="A18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="15.25" spans="1:24">
+      <c r="A19" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="15.25" spans="1:24">
+      <c r="A20" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="28">
+        <v>45845</v>
+      </c>
+      <c r="D20" s="28">
+        <v>45845</v>
+      </c>
+      <c r="E20" s="28">
+        <v>45846</v>
+      </c>
+      <c r="F20" s="28">
+        <v>45846</v>
+      </c>
+      <c r="G20" s="28">
+        <v>45847</v>
+      </c>
+      <c r="H20" s="28">
+        <v>45847</v>
+      </c>
+      <c r="I20" s="28">
+        <v>45848</v>
+      </c>
+      <c r="J20" s="28">
+        <v>45848</v>
+      </c>
+      <c r="K20" s="28">
+        <v>45849</v>
+      </c>
+      <c r="L20" s="28">
+        <v>45849</v>
+      </c>
+      <c r="M20" s="28">
+        <v>45850</v>
+      </c>
+      <c r="N20" s="28">
+        <v>45850</v>
+      </c>
+      <c r="O20" s="28">
+        <v>45850</v>
+      </c>
+      <c r="P20" s="28">
+        <v>45851</v>
+      </c>
+      <c r="Q20" s="28">
+        <v>45851</v>
+      </c>
+      <c r="R20" s="28">
+        <v>45851</v>
+      </c>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="15.25" spans="1:24">
+      <c r="A21" s="29">
+        <v>10317390</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="31">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D21" s="31">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E21" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="F21" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="G21" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="H21" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="I21" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I15" s="24">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J15" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K15" s="24">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="Q15" s="24">
-        <v>0.833333333333333</v>
-      </c>
+      <c r="J21" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
     </row>
-    <row r="16" ht="15.25" spans="1:17">
-      <c r="A16" s="21">
-        <v>10322837</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="22" t="s">
+    <row r="22" s="2" customFormat="1" ht="15.25" spans="1:24">
+      <c r="A22" s="29">
+        <v>10324909</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E16" s="24">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F16" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G16" s="24">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H16" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I16" s="24">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J16" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K16" s="24">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L16" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="M16" s="24">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25"/>
-    <row r="18" ht="15.25" spans="1:18">
-      <c r="A18" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="44"/>
-    </row>
-    <row r="19" ht="15.25" spans="1:18">
-      <c r="A19" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="R19" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="1:18">
-      <c r="A20" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="29" t="s">
+      <c r="D22" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="29" t="s">
+      <c r="H22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="29" t="s">
+      <c r="I22" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="J22" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="K22" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="L22" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="M22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="29" t="s">
+      <c r="N22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="29" t="s">
+      <c r="O22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="N20" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="O20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" s="29" t="s">
+      <c r="P22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="R20" s="29" t="s">
+      <c r="Q22" s="33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" ht="15.25" spans="1:18">
-      <c r="A21" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="30">
-        <v>45838</v>
-      </c>
-      <c r="D21" s="30">
-        <v>45838</v>
-      </c>
-      <c r="E21" s="30">
-        <v>45839</v>
-      </c>
-      <c r="F21" s="30">
-        <v>45839</v>
-      </c>
-      <c r="G21" s="30">
-        <v>45840</v>
-      </c>
-      <c r="H21" s="30">
-        <v>45840</v>
-      </c>
-      <c r="I21" s="30">
-        <v>45841</v>
-      </c>
-      <c r="J21" s="30">
-        <v>45841</v>
-      </c>
-      <c r="K21" s="30">
-        <v>45841</v>
-      </c>
-      <c r="L21" s="30">
-        <v>45842</v>
-      </c>
-      <c r="M21" s="30">
-        <v>45842</v>
-      </c>
-      <c r="N21" s="30">
-        <v>45842</v>
-      </c>
-      <c r="O21" s="30">
-        <v>45843</v>
-      </c>
-      <c r="P21" s="30">
-        <v>45843</v>
-      </c>
-      <c r="Q21" s="30">
-        <v>45844</v>
-      </c>
-      <c r="R21" s="30">
-        <v>45844</v>
-      </c>
-    </row>
-    <row r="22" ht="15.25" spans="1:18">
-      <c r="A22" s="31">
-        <v>10317390</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="33">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D22" s="33">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E22" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="F22" s="33">
-        <v>0.75</v>
-      </c>
-      <c r="G22" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="H22" s="33">
-        <v>0.75</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q22" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="R22" s="43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25" spans="1:1">
-      <c r="A24" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" ht="15.25" spans="1:4">
-      <c r="A25" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-    </row>
-    <row r="26" ht="14.75" spans="1:4">
-      <c r="A26" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" ht="14.75" spans="1:4">
-      <c r="A27" s="38">
-        <v>10334426</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D27" s="40">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="28" ht="14.75" spans="1:4">
-      <c r="A28" s="38">
-        <v>10334495</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D28" s="40">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="29" ht="14.75" spans="1:4">
-      <c r="A29" s="38">
-        <v>10334497</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D29" s="40">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="30" ht="14.75" spans="1:4">
-      <c r="A30" s="38">
-        <v>10335595</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D30" s="40">
-        <v>0.833333333333333</v>
-      </c>
+      <c r="R22" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="20">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -2931,21 +2470,14 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A25:D25"/>
     <mergeCell ref="A10:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>Trainers</t>
   </si>
@@ -35,19 +35,19 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Monday, July 7, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, July 8, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, July 9, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, July 10, 2025</t>
-  </si>
-  <si>
-    <t>Friday, July 11, 2025</t>
+    <t>Monday, July 14, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, July 15, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, July 16, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, July 17, 2025</t>
+  </si>
+  <si>
+    <t>Friday, July 18, 2025</t>
   </si>
   <si>
     <t>Eman Elsawy</t>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Zyad Ashraf</t>
+  </si>
+  <si>
+    <t>Hajer Ahmed</t>
   </si>
   <si>
     <t>5th settlement</t>
@@ -707,7 +710,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -722,7 +725,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1094,11 +1097,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1108,19 +1108,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -1143,28 +1143,28 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1173,37 +1173,37 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1742,10 +1742,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+      <selection activeCell="C3" sqref="C3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1759,513 +1759,430 @@
     <col min="16" max="17" width="9.18181818181818"/>
   </cols>
   <sheetData>
-    <row r="1" ht="43.25" customHeight="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="20" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16" customHeight="1" spans="1:12">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="1" ht="16" customHeight="1" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:12">
-      <c r="A3" s="6">
+    <row r="3" customFormat="1" ht="16" customHeight="1" spans="1:12">
+      <c r="A3" s="5">
         <v>10278353</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>0.375</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>0.75</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>0.375</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>0.75</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>0.375</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>0.75</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <v>0.375</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>0.75</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>0.375</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:12">
-      <c r="A4" s="6">
+    <row r="4" customFormat="1" ht="14.75" spans="1:12">
+      <c r="A4" s="5">
         <v>10307948</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>0.333333333333333</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>0.708333333333333</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="14.75" spans="1:12">
+      <c r="A5" s="5">
+        <v>10281254</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="14.75" spans="1:12">
+      <c r="A6" s="5">
+        <v>10326418</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="14.75" spans="1:12">
+      <c r="A7" s="7">
+        <v>10273660</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6">
         <v>0.333333333333333</v>
       </c>
-      <c r="F4" s="8">
+      <c r="D7" s="6">
         <v>0.708333333333333</v>
       </c>
-      <c r="G4" s="8">
+      <c r="E7" s="6">
         <v>0.333333333333333</v>
       </c>
-      <c r="H4" s="8">
+      <c r="F7" s="6">
         <v>0.708333333333333</v>
       </c>
-      <c r="I4" s="8">
+      <c r="G7" s="6">
         <v>0.333333333333333</v>
       </c>
-      <c r="J4" s="8">
+      <c r="H7" s="6">
         <v>0.708333333333333</v>
       </c>
-      <c r="K4" s="8">
+      <c r="I7" s="6">
         <v>0.333333333333333</v>
       </c>
-      <c r="L4" s="8">
+      <c r="J7" s="6">
         <v>0.708333333333333</v>
       </c>
+      <c r="K7" s="6">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.708333333333333</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.25" spans="1:12">
-      <c r="A5" s="6">
-        <v>10281254</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8">
+    <row r="8" ht="14.75" spans="1:12">
+      <c r="A8" s="7">
+        <v>10318438</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6">
         <v>0.375</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D8" s="6">
         <v>0.75</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E8" s="6">
         <v>0.375</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F8" s="6">
         <v>0.75</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G8" s="6">
         <v>0.375</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H8" s="6">
         <v>0.75</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I8" s="6">
         <v>0.375</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J8" s="6">
         <v>0.75</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K8" s="6">
         <v>0.375</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L8" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.25" spans="1:12">
-      <c r="A6" s="6">
-        <v>10326418</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0.75</v>
-      </c>
+    <row r="11" spans="4:17">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.25" spans="1:12">
-      <c r="A7" s="6">
-        <v>10273660</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0.75</v>
-      </c>
+    <row r="12" customFormat="1" ht="15.25" spans="1:11">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
     </row>
-    <row r="8" ht="15.25"/>
-    <row r="9" spans="4:17">
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
+    <row r="13" customFormat="1" ht="15.25" spans="1:11">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="15">
+        <v>45848</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15">
+        <v>45849</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15">
+        <v>45850</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15">
+        <v>45851</v>
+      </c>
+      <c r="K13" s="15"/>
     </row>
-    <row r="10" customFormat="1" spans="1:11">
-      <c r="A10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+    <row r="14" customFormat="1" ht="15.25" spans="1:11">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="17"/>
     </row>
-    <row r="11" customFormat="1" ht="14.75" spans="1:11">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="16">
-        <v>45848</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16">
-        <v>45849</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16">
-        <v>45850</v>
-      </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16">
-        <v>45851</v>
-      </c>
-      <c r="K11" s="16"/>
+    <row r="15" customFormat="1" ht="15.25" spans="1:11">
+      <c r="A15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="12" customFormat="1" ht="14.75" spans="1:11">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="18"/>
+    <row r="16" customFormat="1" ht="15.25" spans="1:11">
+      <c r="A16" s="20">
+        <v>10314789</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G16" s="22">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="I16" s="22">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="13" customFormat="1" ht="14.75" spans="1:11">
-      <c r="A13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="14.75" spans="1:11">
-      <c r="A14" s="21">
-        <v>10314789</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="23">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E14" s="23">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="F14" s="23">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="H14" s="23">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="I14" s="23">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25"/>
-    <row r="17" s="2" customFormat="1" ht="15.25" spans="1:24">
-      <c r="A17" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="37"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="15.25" spans="1:24">
-      <c r="A18" s="26" t="s">
+    <row r="18" ht="15.25"/>
+    <row r="19" s="1" customFormat="1" ht="15.25" spans="1:24">
+      <c r="A19" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="15.25" spans="1:24">
-      <c r="A19" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="R19" s="27" t="s">
-        <v>37</v>
-      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="36"/>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19"/>
@@ -2273,58 +2190,58 @@
       <c r="W19"/>
       <c r="X19"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="15.25" spans="1:24">
-      <c r="A20" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="28">
-        <v>45845</v>
-      </c>
-      <c r="D20" s="28">
-        <v>45845</v>
-      </c>
-      <c r="E20" s="28">
-        <v>45846</v>
-      </c>
-      <c r="F20" s="28">
-        <v>45846</v>
-      </c>
-      <c r="G20" s="28">
-        <v>45847</v>
-      </c>
-      <c r="H20" s="28">
-        <v>45847</v>
-      </c>
-      <c r="I20" s="28">
-        <v>45848</v>
-      </c>
-      <c r="J20" s="28">
-        <v>45848</v>
-      </c>
-      <c r="K20" s="28">
-        <v>45849</v>
-      </c>
-      <c r="L20" s="28">
-        <v>45849</v>
-      </c>
-      <c r="M20" s="28">
-        <v>45850</v>
-      </c>
-      <c r="N20" s="28">
-        <v>45850</v>
-      </c>
-      <c r="O20" s="28">
-        <v>45850</v>
-      </c>
-      <c r="P20" s="28">
-        <v>45851</v>
-      </c>
-      <c r="Q20" s="28">
-        <v>45851</v>
-      </c>
-      <c r="R20" s="28">
-        <v>45851</v>
+    <row r="20" s="1" customFormat="1" ht="15.25" spans="1:24">
+      <c r="A20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="S20"/>
       <c r="T20"/>
@@ -2333,60 +2250,58 @@
       <c r="W20"/>
       <c r="X20"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="15.25" spans="1:24">
-      <c r="A21" s="29">
-        <v>10317390</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="31">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D21" s="31">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E21" s="31">
-        <v>0.375</v>
-      </c>
-      <c r="F21" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="G21" s="31">
-        <v>0.375</v>
-      </c>
-      <c r="H21" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="O21" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q21" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="33" t="s">
-        <v>40</v>
+    <row r="21" s="1" customFormat="1" ht="15.25" spans="1:24">
+      <c r="A21" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="R21" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="S21"/>
       <c r="T21"/>
@@ -2395,60 +2310,58 @@
       <c r="W21"/>
       <c r="X21"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="15.25" spans="1:24">
-      <c r="A22" s="29">
-        <v>10324909</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="31">
-        <v>0.375</v>
-      </c>
-      <c r="J22" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="K22" s="31">
-        <v>0.375</v>
-      </c>
-      <c r="L22" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="M22" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q22" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="R22" s="33" t="s">
-        <v>40</v>
+    <row r="22" s="1" customFormat="1" ht="15.25" spans="1:24">
+      <c r="A22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="27">
+        <v>45845</v>
+      </c>
+      <c r="D22" s="27">
+        <v>45845</v>
+      </c>
+      <c r="E22" s="27">
+        <v>45846</v>
+      </c>
+      <c r="F22" s="27">
+        <v>45846</v>
+      </c>
+      <c r="G22" s="27">
+        <v>45847</v>
+      </c>
+      <c r="H22" s="27">
+        <v>45847</v>
+      </c>
+      <c r="I22" s="27">
+        <v>45848</v>
+      </c>
+      <c r="J22" s="27">
+        <v>45848</v>
+      </c>
+      <c r="K22" s="27">
+        <v>45849</v>
+      </c>
+      <c r="L22" s="27">
+        <v>45849</v>
+      </c>
+      <c r="M22" s="27">
+        <v>45850</v>
+      </c>
+      <c r="N22" s="27">
+        <v>45850</v>
+      </c>
+      <c r="O22" s="27">
+        <v>45850</v>
+      </c>
+      <c r="P22" s="27">
+        <v>45851</v>
+      </c>
+      <c r="Q22" s="27">
+        <v>45851</v>
+      </c>
+      <c r="R22" s="27">
+        <v>45851</v>
       </c>
       <c r="S22"/>
       <c r="T22"/>
@@ -2456,6 +2369,130 @@
       <c r="V22"/>
       <c r="W22"/>
       <c r="X22"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="15.25" spans="1:24">
+      <c r="A23" s="28">
+        <v>10317390</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="30">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D23" s="30">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E23" s="30">
+        <v>0.375</v>
+      </c>
+      <c r="F23" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="G23" s="30">
+        <v>0.375</v>
+      </c>
+      <c r="H23" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="R23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15.25" spans="1:24">
+      <c r="A24" s="28">
+        <v>10324909</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="30">
+        <v>0.375</v>
+      </c>
+      <c r="J24" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="K24" s="30">
+        <v>0.375</v>
+      </c>
+      <c r="L24" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2465,20 +2502,20 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="D9:Q9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A19:R19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A12:B13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Trainers</t>
   </si>
@@ -71,6 +71,15 @@
     <t>5th settlement</t>
   </si>
   <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
     <t>Thursday</t>
   </si>
   <si>
@@ -105,57 +114,6 @@
   </si>
   <si>
     <t>OFF</t>
-  </si>
-  <si>
-    <t>WK 29</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>mon</t>
-  </si>
-  <si>
-    <t>tue</t>
-  </si>
-  <si>
-    <t>wed</t>
-  </si>
-  <si>
-    <t>thu</t>
-  </si>
-  <si>
-    <t>fri</t>
-  </si>
-  <si>
-    <t>sat</t>
-  </si>
-  <si>
-    <t>sun</t>
-  </si>
-  <si>
-    <t>start vs end</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Ahmed Elsayed</t>
-  </si>
-  <si>
-    <t>Smart Village</t>
-  </si>
-  <si>
-    <t>shiko</t>
   </si>
 </sst>
 </file>
@@ -170,8 +128,16 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="35">
-    <font>
+  <fonts count="32">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -222,7 +188,7 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -236,32 +202,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF222222"/>
       <name val="Arial Narrow"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -272,8 +214,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF222222"/>
       <name val="Century Gothic"/>
       <charset val="134"/>
     </font>
@@ -422,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,24 +404,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1F1F1F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF888888"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -670,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -813,43 +738,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -967,52 +855,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,193 +918,142 @@
     <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1742,10 +1588,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D8"/>
+      <selection activeCell="A3" sqref="A3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1753,18 +1599,18 @@
     <col min="1" max="1" width="10.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="18.3636363636364" customWidth="1"/>
     <col min="3" max="12" width="12.5454545454545" customWidth="1"/>
-    <col min="13" max="13" width="9.18181818181818"/>
+    <col min="13" max="13" width="9.27272727272727"/>
     <col min="14" max="14" width="10.7272727272727"/>
     <col min="15" max="15" width="9.45454545454546"/>
     <col min="16" max="17" width="9.18181818181818"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:1">
+    <row r="1" ht="20.75" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="16" customHeight="1" spans="1:12">
+    <row r="2" customFormat="1" ht="16.75" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1790,7 +1636,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" customFormat="1" ht="16" customHeight="1" spans="1:12">
+    <row r="3" customFormat="1" ht="16.75" customHeight="1" spans="1:12">
       <c r="A3" s="5">
         <v>10278353</v>
       </c>
@@ -1828,7 +1674,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="14.75" spans="1:12">
+    <row r="4" customFormat="1" ht="15.25" spans="1:12">
       <c r="A4" s="5">
         <v>10307948</v>
       </c>
@@ -1866,7 +1712,7 @@
         <v>0.958333333333333</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="14.75" spans="1:12">
+    <row r="5" customFormat="1" ht="15.25" spans="1:12">
       <c r="A5" s="5">
         <v>10281254</v>
       </c>
@@ -1904,7 +1750,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="14.75" spans="1:12">
+    <row r="6" customFormat="1" ht="15.25" spans="1:12">
       <c r="A6" s="5">
         <v>10326418</v>
       </c>
@@ -1942,7 +1788,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="14.75" spans="1:12">
+    <row r="7" customFormat="1" ht="15.25" spans="1:12">
       <c r="A7" s="7">
         <v>10273660</v>
       </c>
@@ -1980,7 +1826,7 @@
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="8" ht="14.75" spans="1:12">
+    <row r="8" ht="15.25" spans="1:12">
       <c r="A8" s="7">
         <v>10318438</v>
       </c>
@@ -2018,7 +1864,8 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="4:17">
+    <row r="10" ht="15.25"/>
+    <row r="11" ht="15.25" spans="4:17">
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -2034,468 +1881,201 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" customFormat="1" ht="15.25" spans="1:11">
+    <row r="12" customFormat="1" ht="15.25" spans="1:17">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
     </row>
-    <row r="13" customFormat="1" ht="15.25" spans="1:11">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="15">
-        <v>45848</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15">
-        <v>45849</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15">
-        <v>45850</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15">
-        <v>45851</v>
-      </c>
-      <c r="K13" s="15"/>
+    <row r="13" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="14">
+        <v>45852</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14">
+        <v>45853</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
+        <v>45854</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14">
+        <v>45855</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14">
+        <v>45856</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14">
+        <v>45857</v>
+      </c>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14">
+        <v>45858</v>
+      </c>
+      <c r="Q13" s="14"/>
     </row>
-    <row r="14" customFormat="1" ht="15.25" spans="1:11">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17" t="s">
+    <row r="14" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17" t="s">
+      <c r="I14" s="16"/>
+      <c r="J14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="16"/>
     </row>
-    <row r="15" customFormat="1" ht="15.25" spans="1:11">
-      <c r="A15" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="19" t="s">
+    <row r="15" customFormat="1" ht="14.75" spans="1:17">
+      <c r="A15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>22</v>
+      <c r="C15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="15.25" spans="1:11">
-      <c r="A16" s="20">
+    <row r="16" s="1" customFormat="1" ht="14.75" spans="1:17">
+      <c r="A16" s="19">
         <v>10314789</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="22">
+      <c r="B16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G16" s="22">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I16" s="22">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J16" s="22">
         <v>0.583333333333333</v>
       </c>
-      <c r="E16" s="22">
+      <c r="K16" s="22">
         <v>0.958333333333333</v>
       </c>
-      <c r="F16" s="22">
+      <c r="L16" s="22">
         <v>0.583333333333333</v>
       </c>
-      <c r="G16" s="22">
+      <c r="M16" s="22">
         <v>0.958333333333333</v>
       </c>
-      <c r="H16" s="22">
+      <c r="N16" s="22">
         <v>0.583333333333333</v>
       </c>
-      <c r="I16" s="22">
+      <c r="O16" s="22">
         <v>0.958333333333333</v>
       </c>
-      <c r="J16" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25"/>
-    <row r="19" s="1" customFormat="1" ht="15.25" spans="1:24">
-      <c r="A19" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="36"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="15.25" spans="1:24">
-      <c r="A20" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26" t="s">
+      <c r="P16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="Q16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P20" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q20" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="R20" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="15.25" spans="1:24">
-      <c r="A21" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="M21" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="N21" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="P21" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q21" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R21" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="15.25" spans="1:24">
-      <c r="A22" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="27">
-        <v>45845</v>
-      </c>
-      <c r="D22" s="27">
-        <v>45845</v>
-      </c>
-      <c r="E22" s="27">
-        <v>45846</v>
-      </c>
-      <c r="F22" s="27">
-        <v>45846</v>
-      </c>
-      <c r="G22" s="27">
-        <v>45847</v>
-      </c>
-      <c r="H22" s="27">
-        <v>45847</v>
-      </c>
-      <c r="I22" s="27">
-        <v>45848</v>
-      </c>
-      <c r="J22" s="27">
-        <v>45848</v>
-      </c>
-      <c r="K22" s="27">
-        <v>45849</v>
-      </c>
-      <c r="L22" s="27">
-        <v>45849</v>
-      </c>
-      <c r="M22" s="27">
-        <v>45850</v>
-      </c>
-      <c r="N22" s="27">
-        <v>45850</v>
-      </c>
-      <c r="O22" s="27">
-        <v>45850</v>
-      </c>
-      <c r="P22" s="27">
-        <v>45851</v>
-      </c>
-      <c r="Q22" s="27">
-        <v>45851</v>
-      </c>
-      <c r="R22" s="27">
-        <v>45851</v>
-      </c>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="15.25" spans="1:24">
-      <c r="A23" s="28">
-        <v>10317390</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="30">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D23" s="30">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E23" s="30">
-        <v>0.375</v>
-      </c>
-      <c r="F23" s="30">
-        <v>0.75</v>
-      </c>
-      <c r="G23" s="30">
-        <v>0.375</v>
-      </c>
-      <c r="H23" s="30">
-        <v>0.75</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="N23" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="O23" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="P23" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q23" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="R23" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="15.25" spans="1:24">
-      <c r="A24" s="28">
-        <v>10324909</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="30">
-        <v>0.375</v>
-      </c>
-      <c r="J24" s="30">
-        <v>0.75</v>
-      </c>
-      <c r="K24" s="30">
-        <v>0.375</v>
-      </c>
-      <c r="L24" s="30">
-        <v>0.75</v>
-      </c>
-      <c r="M24" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="N24" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="O24" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="P24" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q24" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="R24" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -2507,14 +2087,16 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A19:R19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="A12:B13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Trainers</t>
   </si>
@@ -35,36 +35,30 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Monday, July 14, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, July 15, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, July 16, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, July 17, 2025</t>
-  </si>
-  <si>
-    <t>Friday, July 18, 2025</t>
+    <t>Monday, July 21, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, July 22, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, July 23, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, July 24, 2025</t>
+  </si>
+  <si>
+    <t>Friday, July 25, 2025</t>
   </si>
   <si>
     <t>Eman Elsawy</t>
   </si>
   <si>
-    <t>Mohamed Atef</t>
-  </si>
-  <si>
     <t>Abdelsalam Hisham</t>
   </si>
   <si>
     <t>Janisse Saad</t>
   </si>
   <si>
-    <t>Zyad Ashraf</t>
-  </si>
-  <si>
     <t>Hajer Ahmed</t>
   </si>
   <si>
@@ -107,13 +101,19 @@
     <t>Shift End</t>
   </si>
   <si>
-    <t>Mohamed Aref Azzam</t>
+    <t>Omar Sabry</t>
   </si>
   <si>
     <t>AirAlo</t>
   </si>
   <si>
     <t>OFF</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Toka Mohamed Ragai</t>
   </si>
 </sst>
 </file>
@@ -128,7 +128,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +177,13 @@
       <sz val="11"/>
       <color rgb="FF0C343D"/>
       <name val="IBM Plex Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -187,13 +194,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial Narrow"/>
@@ -201,9 +201,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
       <charset val="134"/>
     </font>
     <font>
@@ -214,13 +228,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Century Gothic"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -595,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -680,28 +687,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
@@ -710,28 +695,6 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -855,137 +818,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,50 +973,47 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="15" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="12" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1591,7 +1551,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B8"/>
+      <selection activeCell="A2" sqref="A2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1601,16 +1561,16 @@
     <col min="3" max="12" width="12.5454545454545" customWidth="1"/>
     <col min="13" max="13" width="9.27272727272727"/>
     <col min="14" max="14" width="10.7272727272727"/>
-    <col min="15" max="15" width="9.45454545454546"/>
-    <col min="16" max="17" width="9.18181818181818"/>
+    <col min="15" max="16" width="9.45454545454546"/>
+    <col min="17" max="17" width="9.18181818181818"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.75" customHeight="1" spans="1:1">
+    <row r="1" ht="22.25" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="16.75" customHeight="1" spans="1:12">
+    <row r="2" customFormat="1" ht="17.5" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1636,7 +1596,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" customFormat="1" ht="16.75" customHeight="1" spans="1:12">
+    <row r="3" customFormat="1" ht="17.5" customHeight="1" spans="1:12">
       <c r="A3" s="5">
         <v>10278353</v>
       </c>
@@ -1674,9 +1634,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.25" spans="1:12">
+    <row r="4" customFormat="1" ht="14.75" spans="1:12">
       <c r="A4" s="5">
-        <v>10307948</v>
+        <v>10281254</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -1688,33 +1648,33 @@
         <v>0.708333333333333</v>
       </c>
       <c r="E4" s="6">
-        <v>0.583333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F4" s="6">
-        <v>0.958333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="G4" s="6">
-        <v>0.583333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H4" s="6">
-        <v>0.958333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="I4" s="6">
-        <v>0.583333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="J4" s="6">
-        <v>0.958333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="K4" s="6">
-        <v>0.583333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="L4" s="6">
-        <v>0.958333333333333</v>
+        <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="15.25" spans="1:12">
+    <row r="5" customFormat="1" ht="14.75" spans="1:12">
       <c r="A5" s="5">
-        <v>10281254</v>
+        <v>10326418</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -1750,9 +1710,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15.25" spans="1:12">
-      <c r="A6" s="5">
-        <v>10326418</v>
+    <row r="6" customFormat="1" ht="14.75" spans="1:12">
+      <c r="A6" s="7">
+        <v>10318438</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -1788,301 +1748,270 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.25" spans="1:12">
-      <c r="A7" s="7">
-        <v>10273660</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1"/>
+    <row r="10" ht="15.25"/>
+    <row r="11" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="8" ht="15.25" spans="1:12">
-      <c r="A8" s="7">
-        <v>10318438</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="10" ht="15.25"/>
-    <row r="11" ht="15.25" spans="4:17">
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
     </row>
     <row r="12" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="11"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="11">
+        <v>45859</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11">
+        <v>45860</v>
+      </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="11">
+        <v>45861</v>
+      </c>
       <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="J12" s="11">
+        <v>45862</v>
+      </c>
       <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="L12" s="11">
+        <v>45863</v>
+      </c>
       <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
+      <c r="N12" s="11">
+        <v>45864</v>
+      </c>
       <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
+      <c r="P12" s="11">
+        <v>45865</v>
+      </c>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" customFormat="1" ht="15.25" spans="1:17">
+    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:17">
       <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="14">
-        <v>45852</v>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="14">
-        <v>45853</v>
+      <c r="F13" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="14">
-        <v>45854</v>
+      <c r="H13" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="I13" s="14"/>
-      <c r="J13" s="14">
-        <v>45855</v>
+      <c r="J13" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="K13" s="14"/>
-      <c r="L13" s="14">
-        <v>45856</v>
+      <c r="L13" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="M13" s="14"/>
-      <c r="N13" s="14">
-        <v>45857</v>
+      <c r="N13" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="O13" s="14"/>
-      <c r="P13" s="14">
-        <v>45858</v>
+      <c r="P13" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="15"/>
+    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="F14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="H14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="J14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="L14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="N14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="15" customFormat="1" ht="14.75" spans="1:17">
-      <c r="A15" s="17" t="s">
-        <v>21</v>
+    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A15" s="17">
+        <v>10314766</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="18" t="s">
+      <c r="D15" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A16" s="17">
+        <v>10307941</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="14.75" spans="1:17">
-      <c r="A16" s="19">
-        <v>10314789</v>
-      </c>
-      <c r="B16" s="20" t="s">
+      <c r="D16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G16" s="22">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H16" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I16" s="22">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J16" s="22">
+      <c r="E16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="19">
         <v>0.583333333333333</v>
       </c>
-      <c r="K16" s="22">
+      <c r="G16" s="19">
         <v>0.958333333333333</v>
       </c>
-      <c r="L16" s="22">
+      <c r="H16" s="19">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J16" s="19">
         <v>0.583333333333333</v>
       </c>
-      <c r="M16" s="22">
+      <c r="K16" s="19">
         <v>0.958333333333333</v>
       </c>
-      <c r="N16" s="22">
+      <c r="L16" s="19">
         <v>0.583333333333333</v>
       </c>
-      <c r="O16" s="22">
+      <c r="M16" s="19">
         <v>0.958333333333333</v>
       </c>
-      <c r="P16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="21" t="s">
-        <v>28</v>
+      <c r="N16" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="O16" s="19">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
@@ -2090,14 +2019,7 @@
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A11:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>Trainers</t>
   </si>
@@ -35,25 +35,19 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Monday, July 21, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, July 22, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, July 23, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, July 24, 2025</t>
-  </si>
-  <si>
-    <t>Friday, July 25, 2025</t>
-  </si>
-  <si>
-    <t>Eman Elsawy</t>
-  </si>
-  <si>
-    <t>Abdelsalam Hisham</t>
+    <t>Monday, July 28, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, July 29, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, July 30, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, July 31, 2025</t>
+  </si>
+  <si>
+    <t>Friday, August 1, 2025</t>
   </si>
   <si>
     <t>Janisse Saad</t>
@@ -62,7 +56,7 @@
     <t>Hajer Ahmed</t>
   </si>
   <si>
-    <t>5th settlement</t>
+    <t>5th Settlement</t>
   </si>
   <si>
     <t>Monday</t>
@@ -92,9 +86,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Account</t>
-  </si>
-  <si>
     <t>Shift Start</t>
   </si>
   <si>
@@ -104,16 +95,13 @@
     <t>Omar Sabry</t>
   </si>
   <si>
-    <t>AirAlo</t>
-  </si>
-  <si>
     <t>OFF</t>
   </si>
   <si>
+    <t>Toka Mohamed Ragai</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Toka Mohamed Ragai</t>
   </si>
 </sst>
 </file>
@@ -128,7 +116,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,7 +130,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -181,19 +168,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial Narrow"/>
@@ -201,30 +175,30 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="18"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Century Gothic"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -602,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -674,27 +648,41 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -818,133 +806,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -952,68 +940,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1548,10 +1536,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L6"/>
+      <selection activeCell="E13" sqref="E13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1565,12 +1553,12 @@
     <col min="17" max="17" width="9.18181818181818"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.25" customHeight="1" spans="1:1">
+    <row r="1" ht="24.5" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="17.5" customHeight="1" spans="1:12">
+    <row r="2" customFormat="1" ht="18.25" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1598,428 +1586,322 @@
     </row>
     <row r="3" customFormat="1" ht="17.5" customHeight="1" spans="1:12">
       <c r="A3" s="5">
-        <v>10278353</v>
+        <v>10326418</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D3" s="6">
-        <v>0.75</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E3" s="6">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F3" s="6">
-        <v>0.75</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="G3" s="6">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H3" s="6">
-        <v>0.75</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="I3" s="6">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="J3" s="6">
-        <v>0.75</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="K3" s="6">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="L3" s="6">
-        <v>0.75</v>
+        <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="14.75" spans="1:12">
-      <c r="A4" s="5">
-        <v>10281254</v>
+    <row r="4" customFormat="1" ht="15.25" spans="1:12">
+      <c r="A4" s="7">
+        <v>10318438</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" ht="15.25"/>
+    <row r="10" ht="15.25" spans="1:17">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10">
+        <v>45866</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
+        <v>45867</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
+        <v>45868</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10">
+        <v>45869</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10">
+        <v>45870</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10">
+        <v>45871</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10">
+        <v>45872</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="21"/>
+    </row>
+    <row r="11" ht="23.75" spans="1:16">
+      <c r="A11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A13" s="16">
+        <v>10314766</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="18">
         <v>0.333333333333333</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D13" s="18">
         <v>0.708333333333333</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="18">
         <v>0.333333333333333</v>
       </c>
-      <c r="F4" s="6">
+      <c r="J13" s="18">
         <v>0.708333333333333</v>
       </c>
-      <c r="G4" s="6">
+      <c r="K13" s="18">
         <v>0.333333333333333</v>
       </c>
-      <c r="H4" s="6">
+      <c r="L13" s="18">
         <v>0.708333333333333</v>
       </c>
-      <c r="I4" s="6">
+      <c r="M13" s="18">
         <v>0.333333333333333</v>
       </c>
-      <c r="J4" s="6">
+      <c r="N13" s="18">
         <v>0.708333333333333</v>
       </c>
-      <c r="K4" s="6">
+      <c r="O13" s="18">
         <v>0.333333333333333</v>
       </c>
-      <c r="L4" s="6">
+      <c r="P13" s="18">
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="14.75" spans="1:12">
-      <c r="A5" s="5">
-        <v>10326418</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="14.75" spans="1:12">
-      <c r="A6" s="7">
-        <v>10318438</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1"/>
-    <row r="8" customFormat="1"/>
-    <row r="10" ht="15.25"/>
-    <row r="11" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="11">
-        <v>45859</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
-        <v>45860</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
-        <v>45861</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11">
-        <v>45862</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11">
-        <v>45863</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11">
-        <v>45864</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11">
-        <v>45865</v>
-      </c>
-      <c r="Q12" s="11"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="14"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="16" t="s">
+    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A14" s="16">
+        <v>10307941</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="16" t="s">
+      <c r="D14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A15" s="17">
-        <v>10314766</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="E14" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E15" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Q15" s="19">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A16" s="17">
-        <v>10307941</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G16" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="H16" s="19">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I16" s="19">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J16" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="K16" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="L16" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="M16" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="N16" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="O16" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="P16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="20" t="s">
-        <v>26</v>
+      <c r="H14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,109 +27,122 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Trainers</t>
   </si>
   <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Monday, July 28, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, July 29, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, July 30, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, July 31, 2025</t>
-  </si>
-  <si>
-    <t>Friday, August 1, 2025</t>
-  </si>
-  <si>
-    <t>Janisse Saad</t>
-  </si>
-  <si>
-    <t>Hajer Ahmed</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Monday, August 4, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, August 5, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, August 6, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, August 7, 2025</t>
+  </si>
+  <si>
+    <t>Friday, August 8, 2025</t>
+  </si>
+  <si>
+    <t>Shift start</t>
+  </si>
+  <si>
+    <t>Shift end</t>
+  </si>
+  <si>
+    <t>Marina Tarek</t>
+  </si>
+  <si>
+    <t>Nermine Gamal</t>
+  </si>
+  <si>
+    <t>Adham Abdelbadee</t>
+  </si>
+  <si>
+    <t>Nancy gergues</t>
+  </si>
+  <si>
+    <t>Mariam Saif</t>
+  </si>
+  <si>
+    <t>Ahmed Taha</t>
+  </si>
+  <si>
+    <t>Mohamed Osama</t>
   </si>
   <si>
     <t>5th Settlement</t>
   </si>
   <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
     <t>HRID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Shift Start</t>
-  </si>
-  <si>
-    <t>Shift End</t>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Toka Mohamed Ragai</t>
+  </si>
+  <si>
+    <t>AirAlo</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Omar Sabry</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Toka Mohamed Ragai</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -143,7 +156,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="IBM Plex Sans"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -151,52 +164,50 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="IBM Plex Sans"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0C343D"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0C343D"/>
-      <name val="IBM Plex Sans"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial Narrow"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF222222"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color rgb="FF222222"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -361,31 +372,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCE0808"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEEAF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -587,6 +598,17 @@
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -601,14 +623,10 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -648,41 +666,12 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -806,202 +795,199 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1270,6 +1256,11 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="00CE0808"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1536,10 +1527,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1553,355 +1544,605 @@
     <col min="17" max="17" width="9.18181818181818"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.5" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="25.25" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="18.25" customHeight="1" spans="1:12">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>5</v>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>6</v>
+      <c r="K2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" customFormat="1" ht="17.5" customHeight="1" spans="1:12">
-      <c r="A3" s="5">
-        <v>10326418</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6">
+    <row r="3" customFormat="1" ht="18.25" customHeight="1" spans="1:12">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="16" customHeight="1" spans="1:12">
+      <c r="A4" s="8">
+        <v>10227730</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="1:12">
+      <c r="A5" s="8">
+        <v>10240199</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="6" ht="15.25" spans="1:12">
+      <c r="A6" s="8">
+        <v>10245229</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" ht="15.25" spans="1:12">
+      <c r="A7" s="8">
+        <v>10304459</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.25" spans="1:12">
+      <c r="A8" s="8">
+        <v>10293186</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="9" ht="15.25" spans="1:12">
+      <c r="A9" s="8">
+        <v>10276032</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="1:12">
+      <c r="A10" s="8">
+        <v>10271545</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25"/>
+    <row r="14" customFormat="1" ht="17.25" spans="1:17">
+      <c r="A14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="15">
+        <v>32</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15">
+        <v>32</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15">
+        <v>32</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15">
+        <v>32</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15">
+        <v>32</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15">
+        <v>32</v>
+      </c>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="15"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:17">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="16">
+        <v>45873</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16">
+        <v>45874</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16">
+        <v>45875</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16">
+        <v>45876</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16">
+        <v>45877</v>
+      </c>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16">
+        <v>45878</v>
+      </c>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16">
+        <v>45879</v>
+      </c>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" customFormat="1" ht="15.25" spans="1:17">
+      <c r="A18" s="17">
+        <v>10307941</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="19">
         <v>0.333333333333333</v>
       </c>
-      <c r="D3" s="6">
+      <c r="G18" s="19">
         <v>0.708333333333333</v>
       </c>
-      <c r="E3" s="6">
+      <c r="H18" s="19">
         <v>0.333333333333333</v>
       </c>
-      <c r="F3" s="6">
+      <c r="I18" s="19">
         <v>0.708333333333333</v>
       </c>
-      <c r="G3" s="6">
+      <c r="J18" s="19">
         <v>0.333333333333333</v>
       </c>
-      <c r="H3" s="6">
+      <c r="K18" s="19">
         <v>0.708333333333333</v>
       </c>
-      <c r="I3" s="6">
+      <c r="L18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="1:17">
+      <c r="A19" s="17">
+        <v>10314766</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="19">
         <v>0.333333333333333</v>
       </c>
-      <c r="J3" s="6">
+      <c r="E19" s="19">
         <v>0.708333333333333</v>
       </c>
-      <c r="K3" s="6">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="15.25" spans="1:12">
-      <c r="A4" s="7">
-        <v>10318438</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="9" ht="15.25"/>
-    <row r="10" ht="15.25" spans="1:17">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10">
-        <v>45866</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10">
-        <v>45867</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10">
-        <v>45868</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10">
-        <v>45869</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10">
-        <v>45870</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10">
-        <v>45871</v>
-      </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10">
-        <v>45872</v>
-      </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="21"/>
-    </row>
-    <row r="11" ht="23.75" spans="1:16">
-      <c r="A11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A13" s="16">
-        <v>10314766</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J13" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="K13" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L13" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="M13" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="N13" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="O13" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="P13" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A14" s="16">
-        <v>10307941</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="20" t="s">
-        <v>24</v>
+      <c r="F19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M19" s="19">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="N19" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="O19" s="19">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="P19" s="19">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>0.833333333333333</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="31">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,57 +27,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Trainers</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Monday, August 4, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, August 5, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, August 6, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, August 7, 2025</t>
-  </si>
-  <si>
-    <t>Friday, August 8, 2025</t>
-  </si>
-  <si>
-    <t>Shift start</t>
-  </si>
-  <si>
-    <t>Shift end</t>
-  </si>
-  <si>
-    <t>Marina Tarek</t>
-  </si>
-  <si>
-    <t>Nermine Gamal</t>
-  </si>
-  <si>
-    <t>Adham Abdelbadee</t>
-  </si>
-  <si>
-    <t>Nancy gergues</t>
-  </si>
-  <si>
-    <t>Mariam Saif</t>
-  </si>
-  <si>
-    <t>Ahmed Taha</t>
-  </si>
-  <si>
-    <t>Mohamed Osama</t>
+    <t>Janisse Saad</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Abdelsalam Hisham</t>
   </si>
   <si>
     <t>5th Settlement</t>
@@ -110,16 +95,16 @@
     <t>Sun</t>
   </si>
   <si>
+    <t>Mohamed Aref Azzam</t>
+  </si>
+  <si>
+    <t>AirAlo</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Toka Mohamed Ragai</t>
-  </si>
-  <si>
-    <t>AirAlo</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Omar Sabry</t>
@@ -134,9 +119,9 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,31 +138,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <i/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color rgb="FF0C343D"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0C343D"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -357,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,19 +342,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF434343"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCE0808"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor rgb="FFEA4335"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1155CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,6 +366,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -587,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -596,20 +578,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -625,7 +594,20 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -637,7 +619,7 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
@@ -667,13 +649,28 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,133 +792,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -933,60 +930,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1530,7 +1527,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1544,579 +1541,403 @@
     <col min="17" max="17" width="9.18181818181818"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.25" customHeight="1" spans="1:1">
+    <row r="1" ht="26" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="19.75" customHeight="1" spans="3:8">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3" t="s">
+    </row>
+    <row r="3" ht="26.75" customHeight="1" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45873</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45874</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45875</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45876</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45877</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45878</v>
+      </c>
     </row>
-    <row r="3" customFormat="1" ht="18.25" customHeight="1" spans="1:12">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+    <row r="4" ht="16" customHeight="1" spans="1:8">
+      <c r="A4" s="6">
+        <v>10326418</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="1:8">
+      <c r="A5" s="6">
+        <v>10281254</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="17.25" spans="1:17">
+      <c r="A12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="14" ht="15.25" spans="1:17">
+      <c r="A14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="C14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="14">
+        <v>32</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14">
+        <v>32</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
+        <v>32</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14">
+        <v>32</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14">
+        <v>32</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14">
+        <v>32</v>
+      </c>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="14"/>
     </row>
-    <row r="4" customFormat="1" ht="16" customHeight="1" spans="1:12">
-      <c r="A4" s="8">
-        <v>10227730</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.791666666666667</v>
-      </c>
+    <row r="15" ht="15.25" spans="1:17">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="14"/>
     </row>
-    <row r="5" ht="15.25" spans="1:12">
-      <c r="A5" s="8">
-        <v>10240199</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="6" ht="15.25" spans="1:12">
-      <c r="A6" s="8">
-        <v>10245229</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" ht="15.25" spans="1:12">
-      <c r="A7" s="8">
-        <v>10304459</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="15.25" spans="1:12">
-      <c r="A8" s="8">
-        <v>10293186</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L8" s="10">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="9" ht="15.25" spans="1:12">
-      <c r="A9" s="8">
-        <v>10276032</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="10" ht="15.25" spans="1:12">
-      <c r="A10" s="8">
-        <v>10271545</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K10" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="13" ht="15.25"/>
-    <row r="14" customFormat="1" ht="17.25" spans="1:17">
-      <c r="A14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-    </row>
-    <row r="15" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="15">
-        <v>32</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15">
-        <v>32</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15">
-        <v>32</v>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15">
-        <v>32</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15">
-        <v>32</v>
-      </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15">
-        <v>32</v>
-      </c>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="15"/>
-    </row>
-    <row r="16" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15" t="s">
-        <v>20</v>
+    <row r="16" spans="1:17">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="15">
+        <v>45873</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="15" t="s">
-        <v>21</v>
+      <c r="F16" s="15">
+        <v>45874</v>
       </c>
       <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
-        <v>22</v>
+      <c r="H16" s="15">
+        <v>45875</v>
       </c>
       <c r="I16" s="15"/>
-      <c r="J16" s="15" t="s">
-        <v>23</v>
+      <c r="J16" s="15">
+        <v>45876</v>
       </c>
       <c r="K16" s="15"/>
-      <c r="L16" s="15" t="s">
-        <v>24</v>
+      <c r="L16" s="15">
+        <v>45877</v>
       </c>
       <c r="M16" s="15"/>
-      <c r="N16" s="15" t="s">
-        <v>25</v>
+      <c r="N16" s="15">
+        <v>45878</v>
       </c>
       <c r="O16" s="15"/>
-      <c r="P16" s="15" t="s">
-        <v>26</v>
+      <c r="P16" s="15">
+        <v>45879</v>
       </c>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" customFormat="1" spans="1:17">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="16">
-        <v>45873</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16">
-        <v>45874</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16">
-        <v>45875</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16">
-        <v>45876</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16">
-        <v>45877</v>
-      </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16">
-        <v>45878</v>
-      </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16">
-        <v>45879</v>
-      </c>
-      <c r="Q17" s="16"/>
+    <row r="17" ht="15.25" spans="1:17">
+      <c r="A17" s="16">
+        <v>10314789</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J17" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K17" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="20" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="18" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A18" s="17">
+    <row r="18" ht="15.25" spans="1:17">
+      <c r="A18" s="19">
         <v>10307941</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="19">
+      <c r="B18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="18">
         <v>0.333333333333333</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="18">
         <v>0.708333333333333</v>
       </c>
-      <c r="H18" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I18" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J18" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K18" s="19">
-        <v>0.708333333333333</v>
+      <c r="H18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q18" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:17">
-      <c r="A19" s="17">
+      <c r="A19" s="19">
         <v>10314766</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="19">
+      <c r="B19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="18">
         <v>0.333333333333333</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>0.708333333333333</v>
       </c>
-      <c r="F19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>29</v>
+      <c r="F19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="19">
+        <v>24</v>
+      </c>
+      <c r="L19" s="18">
         <v>0.583333333333333</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="18">
         <v>0.958333333333333</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N19" s="18">
         <v>0.583333333333333</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="18">
         <v>0.958333333333333</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="18">
         <v>0.458333333333333</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q19" s="18">
         <v>0.833333333333333</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
+  <mergeCells count="24">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
@@ -2131,18 +1952,9 @@
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Trainers</t>
   </si>
@@ -74,18 +74,6 @@
     <t>Account</t>
   </si>
   <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Tue</t>
-  </si>
-  <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>Thu</t>
-  </si>
-  <si>
     <t>Fri</t>
   </si>
   <si>
@@ -95,19 +83,49 @@
     <t>Sun</t>
   </si>
   <si>
+    <t>Hassan Osama</t>
+  </si>
+  <si>
+    <t>AirAlo</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Mohamed Aref Azzam</t>
   </si>
   <si>
-    <t>AirAlo</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Toka Mohamed Ragai</t>
-  </si>
-  <si>
     <t>Omar Sabry</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Monday, August 11, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, August 12, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, August 13, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, August 14, 2025</t>
+  </si>
+  <si>
+    <t>Friday, August 15, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, August 16, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, August 17, 2025</t>
+  </si>
+  <si>
+    <t>TR</t>
   </si>
 </sst>
 </file>
@@ -121,7 +139,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,8 +201,46 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF5A3286"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF215A6C"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -333,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,7 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7F7F7F"/>
+        <fgColor rgb="FF1C4587"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB9CED5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -637,7 +699,22 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -661,16 +738,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,137 +869,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,23 +1045,44 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="16" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1524,10 +1622,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1541,12 +1639,12 @@
     <col min="17" max="17" width="9.18181818181818"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" customHeight="1" spans="1:1">
+    <row r="1" ht="26.75" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="19.75" customHeight="1" spans="3:8">
+    <row r="2" ht="20.5" customHeight="1" spans="3:8">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1566,7 +1664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="26.75" customHeight="1" spans="1:8">
+    <row r="3" ht="27.5" customHeight="1" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1644,6 +1742,7 @@
         <v>0.708333333333333</v>
       </c>
     </row>
+    <row r="11" ht="15.25"/>
     <row r="12" customFormat="1" ht="17.25" spans="1:17">
       <c r="A12" s="10" t="s">
         <v>12</v>
@@ -1665,7 +1764,8 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="14" ht="15.25" spans="1:17">
+    <row r="13" ht="15.25"/>
+    <row r="14" ht="15.25" spans="1:9">
       <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
@@ -1687,271 +1787,245 @@
         <v>32</v>
       </c>
       <c r="I14" s="14"/>
-      <c r="J14" s="14">
-        <v>32</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14">
-        <v>32</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14">
-        <v>32</v>
-      </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="14"/>
     </row>
-    <row r="15" ht="15.25" spans="1:17">
+    <row r="15" ht="15.25" spans="1:9">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="14"/>
+      <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" ht="15.25" spans="1:9">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="15">
-        <v>45873</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15">
-        <v>45874</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15">
-        <v>45875</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15">
-        <v>45876</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15">
+      <c r="D16" s="16">
         <v>45877</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16">
         <v>45878</v>
       </c>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16">
         <v>45879</v>
       </c>
-      <c r="Q16" s="15"/>
+      <c r="I16" s="16"/>
     </row>
-    <row r="17" ht="15.25" spans="1:17">
-      <c r="A17" s="16">
+    <row r="17" ht="15.25" spans="1:9">
+      <c r="A17" s="17">
+        <v>10299936</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="1:9">
+      <c r="A18" s="17">
         <v>10314789</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I18" s="19">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="1:9">
+      <c r="A19" s="17">
+        <v>10314766</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25"/>
+    <row r="21" ht="24.75" spans="1:11">
+      <c r="A21" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="1:11">
+      <c r="A22" s="23">
+        <v>10326418</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F22" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I22" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J22" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="K22" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="17" t="s">
+    </row>
+    <row r="23" ht="15.25" spans="1:11">
+      <c r="A23" s="23">
+        <v>10281254</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H23" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I23" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="J23" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I17" s="18">
+      <c r="K23" s="26">
         <v>0.708333333333333</v>
-      </c>
-      <c r="J17" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K17" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="1:17">
-      <c r="A18" s="19">
-        <v>10307941</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="1:17">
-      <c r="A19" s="19">
-        <v>10314766</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="M19" s="18">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="N19" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="O19" s="18">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="P19" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="Q19" s="18">
-        <v>0.833333333333333</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="12">
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,53 +27,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
   <si>
     <t>Trainers</t>
   </si>
   <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
     <t>Employee ID</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Monday, August 11, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, August 12, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, August 13, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, August 14, 2025</t>
+  </si>
+  <si>
+    <t>Friday, August 15, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, August 16, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, August 17, 2025</t>
+  </si>
+  <si>
     <t>Janisse Saad</t>
   </si>
   <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>5th Settlement</t>
+  </si>
+  <si>
     <t>OFF</t>
   </si>
   <si>
     <t>Abdelsalam Hisham</t>
   </si>
   <si>
-    <t>5th Settlement</t>
-  </si>
-  <si>
     <t>HRID</t>
   </si>
   <si>
     <t>Account</t>
   </si>
   <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
     <t>Fri</t>
   </si>
   <si>
@@ -83,49 +107,25 @@
     <t>Sun</t>
   </si>
   <si>
+    <t>Toka Mohamed Ragai</t>
+  </si>
+  <si>
+    <t>AirAlo</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Mohamed Aref Azzam</t>
+  </si>
+  <si>
+    <t>Ahmed Helal</t>
+  </si>
+  <si>
     <t>Hassan Osama</t>
   </si>
   <si>
-    <t>AirAlo</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Mohamed Aref Azzam</t>
-  </si>
-  <si>
     <t>Omar Sabry</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Monday, August 11, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, August 12, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, August 13, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, August 14, 2025</t>
-  </si>
-  <si>
-    <t>Friday, August 15, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, August 16, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, August 17, 2025</t>
-  </si>
-  <si>
-    <t>TR</t>
   </si>
 </sst>
 </file>
@@ -139,7 +139,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,21 +156,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0C343D"/>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="9"/>
+      <color rgb="FF5A3286"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -195,44 +212,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF5A3286"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -389,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,19 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA4335"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1155CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF34A853"/>
+        <fgColor rgb="FF1C4587"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,19 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB7E1CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1C4587"/>
+        <fgColor rgb="FF7F7F7F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,64 +600,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -723,6 +640,21 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
@@ -738,16 +670,106 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,137 +891,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,82 +1029,76 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="20" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1622,17 +1638,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:K23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="18.3636363636364" customWidth="1"/>
-    <col min="3" max="12" width="12.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="21.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="8.27272727272727" customWidth="1"/>
+    <col min="4" max="4" width="12.2727272727273" customWidth="1"/>
+    <col min="5" max="11" width="14.1818181818182" customWidth="1"/>
+    <col min="12" max="12" width="12.5454545454545" customWidth="1"/>
     <col min="13" max="13" width="9.27272727272727"/>
     <col min="14" max="14" width="10.7272727272727"/>
     <col min="15" max="16" width="9.45454545454546"/>
@@ -1644,391 +1663,522 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.5" customHeight="1" spans="3:8">
-      <c r="C2" s="2" t="s">
+    <row r="2" ht="24.75" spans="1:11">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" ht="27.5" customHeight="1" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5">
-        <v>45873</v>
-      </c>
-      <c r="D3" s="5">
-        <v>45874</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45875</v>
-      </c>
-      <c r="F3" s="5">
-        <v>45876</v>
-      </c>
-      <c r="G3" s="5">
-        <v>45877</v>
-      </c>
-      <c r="H3" s="5">
-        <v>45878</v>
+    <row r="3" ht="18" customHeight="1" spans="1:11">
+      <c r="A3" s="5">
+        <v>10326418</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1" spans="1:8">
-      <c r="A4" s="6">
-        <v>10326418</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.375</v>
+    <row r="4" ht="18" customHeight="1" spans="1:11">
+      <c r="A4" s="5">
+        <v>10281254</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="8">
-        <v>0.375</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="F4" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="15.25" spans="1:8">
-      <c r="A5" s="6">
-        <v>10281254</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8">
         <v>0.708333333333333</v>
       </c>
-      <c r="D5" s="8">
+      <c r="G4" s="8">
         <v>0.708333333333333</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="H4" s="8">
         <v>0.708333333333333</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="8">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="11" ht="15.25"/>
     <row r="12" customFormat="1" ht="17.25" spans="1:17">
-      <c r="A12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
+      <c r="A12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
     </row>
-    <row r="13" ht="15.25"/>
-    <row r="14" ht="15.25" spans="1:9">
-      <c r="A14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="14">
+    <row r="13" ht="15.25" spans="1:17">
+      <c r="A13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="13">
+        <v>33</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13">
+        <v>33</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
+        <v>33</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13">
+        <v>33</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13">
+        <v>33</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13">
+        <v>33</v>
+      </c>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="15.25" spans="1:17">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" ht="15.25" spans="1:17">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="18">
+        <v>45880</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18">
+        <v>45881</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18">
+        <v>45882</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18">
+        <v>45883</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18">
+        <v>45884</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18">
+        <v>45885</v>
+      </c>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18">
+        <v>45886</v>
+      </c>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" ht="15.25" spans="1:17">
+      <c r="A16" s="19">
+        <v>10307941</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G16" s="22">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+    </row>
+    <row r="17" ht="15.25" spans="1:17">
+      <c r="A17" s="19">
+        <v>10314789</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J17" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K17" s="22">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L17" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M17" s="22">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N17" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="O17" s="22">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="P17" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="1:17">
+      <c r="A18" s="19">
+        <v>10325095</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="G18" s="22">
+        <v>0</v>
+      </c>
+      <c r="H18" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="K18" s="22">
+        <v>0</v>
+      </c>
+      <c r="L18" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="M18" s="22">
+        <v>0</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="1:17">
+      <c r="A19" s="19">
+        <v>10299936</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="22">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="1:17">
+      <c r="A20" s="19">
+        <v>10314766</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14">
-        <v>32</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14">
-        <v>32</v>
-      </c>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" ht="15.25" spans="1:9">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" ht="15.25" spans="1:9">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="16">
-        <v>45877</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16">
-        <v>45878</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16">
-        <v>45879</v>
-      </c>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" ht="15.25" spans="1:9">
-      <c r="A17" s="17">
-        <v>10299936</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="I17" s="19">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="1:9">
-      <c r="A18" s="17">
-        <v>10314789</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="19">
+      <c r="C20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="22">
         <v>0.333333333333333</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E20" s="22">
         <v>0.708333333333333</v>
       </c>
-      <c r="F18" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G18" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H18" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I18" s="19">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="1:9">
-      <c r="A19" s="17">
-        <v>10314766</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E19" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G19" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25"/>
-    <row r="21" ht="24.75" spans="1:11">
-      <c r="A21" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" ht="15.25" spans="1:11">
-      <c r="A22" s="23">
-        <v>10326418</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="26">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F22" s="26">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G22" s="26">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H22" s="26">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I22" s="26">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25" spans="1:11">
-      <c r="A23" s="23">
-        <v>10281254</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F23" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H23" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="26">
-        <v>0.708333333333333</v>
+      <c r="F20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="21">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="32">
   <si>
     <t>Trainers</t>
   </si>
@@ -38,48 +38,39 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Monday, August 11, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, August 12, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, August 13, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, August 14, 2025</t>
-  </si>
-  <si>
-    <t>Friday, August 15, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, August 16, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, August 17, 2025</t>
-  </si>
-  <si>
-    <t>Janisse Saad</t>
-  </si>
-  <si>
-    <t>TR</t>
+    <t>Monday, August 18, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, August 19, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, August 20, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, August 21, 2025</t>
+  </si>
+  <si>
+    <t>Friday, August 22, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, August 23, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, August 24, 2025</t>
+  </si>
+  <si>
+    <t>Zyad Ashraf</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Abdelsalam Hisham</t>
   </si>
   <si>
     <t>5th Settlement</t>
   </si>
   <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Abdelsalam Hisham</t>
-  </si>
-  <si>
     <t>HRID</t>
   </si>
   <si>
@@ -113,6 +104,9 @@
     <t>AirAlo</t>
   </si>
   <si>
+    <t>Hassan Osama</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -122,10 +116,13 @@
     <t>Ahmed Helal</t>
   </si>
   <si>
-    <t>Hassan Osama</t>
+    <t>Joudi Moussa</t>
   </si>
   <si>
     <t>Omar Sabry</t>
+  </si>
+  <si>
+    <t>Yara Ayman</t>
   </si>
 </sst>
 </file>
@@ -137,9 +134,9 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,21 +177,21 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF5A3286"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF215A6C"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="17"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -212,22 +209,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF215A6C"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -376,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +386,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB9CED5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -409,12 +410,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB9CED5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -600,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -627,6 +622,32 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -685,16 +706,53 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,74 +761,56 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -891,140 +931,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1034,70 +1077,82 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1638,547 +1693,692 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="21.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="8.27272727272727" customWidth="1"/>
-    <col min="4" max="4" width="12.2727272727273" customWidth="1"/>
-    <col min="5" max="11" width="14.1818181818182" customWidth="1"/>
-    <col min="12" max="12" width="12.5454545454545" customWidth="1"/>
-    <col min="13" max="13" width="9.27272727272727"/>
-    <col min="14" max="14" width="10.7272727272727"/>
-    <col min="15" max="16" width="9.45454545454546"/>
-    <col min="17" max="17" width="9.18181818181818"/>
+    <col min="2" max="2" width="19.1818181818182" customWidth="1"/>
+    <col min="3" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.75" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="27.5" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="24.75" spans="1:11">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="15.25"/>
+    <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="L3" s="6"/>
+      <c r="M3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="N3" s="6"/>
+      <c r="O3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="P3" s="29"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A4" s="7">
+        <v>10273660</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="C4" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="J4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="O4" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.833333333333333</v>
+      </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:11">
-      <c r="A3" s="5">
-        <v>10326418</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="5" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A5" s="7">
+        <v>10281254</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C5" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="8" ht="22.25" spans="1:17">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" ht="16.25" spans="1:17">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8">
+      <c r="B9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15">
+        <v>34</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15">
+        <v>34</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15">
+        <v>34</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="15">
+        <v>34</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="15">
+        <v>34</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="15">
+        <v>34</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="15">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" ht="16.25" spans="1:17">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" ht="16.25" spans="1:17">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21">
+        <v>45887</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="21">
+        <v>45888</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21">
+        <v>45889</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="21">
+        <v>45890</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21">
+        <v>45891</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="21">
+        <v>45892</v>
+      </c>
+      <c r="O11" s="22"/>
+      <c r="P11" s="21">
+        <v>45893</v>
+      </c>
+      <c r="Q11" s="22"/>
+    </row>
+    <row r="12" ht="16.25" spans="1:17">
+      <c r="A12" s="23">
+        <v>10307941</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M12" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="16.25" spans="1:17">
+      <c r="A13" s="23">
+        <v>10299936</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="25">
         <v>0.458333333333333</v>
       </c>
-      <c r="F3" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>15</v>
+      <c r="Q13" s="25">
+        <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:11">
-      <c r="A4" s="5">
-        <v>10281254</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="8">
+    <row r="14" ht="16.25" spans="1:17">
+      <c r="A14" s="23">
+        <v>10314789</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="16.25" spans="1:17">
+      <c r="A15" s="23">
+        <v>10325095</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="L15" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M15" s="25">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="16.25" spans="1:17">
+      <c r="A16" s="23">
+        <v>10320445</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="25">
         <v>0.708333333333333</v>
       </c>
-      <c r="F4" s="8">
+      <c r="Q16" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="17" ht="16.25" spans="1:17">
+      <c r="A17" s="23">
+        <v>10314766</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="O17" s="25">
         <v>0.708333333333333</v>
       </c>
-      <c r="G4" s="8">
+      <c r="P17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" ht="16.25" spans="1:17">
+      <c r="A18" s="23">
+        <v>10307944</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="25">
         <v>0.708333333333333</v>
       </c>
-      <c r="H4" s="8">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25"/>
-    <row r="12" customFormat="1" ht="17.25" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" ht="15.25" spans="1:17">
-      <c r="A13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="13">
-        <v>33</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13">
-        <v>33</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13">
-        <v>33</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13">
-        <v>33</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13">
-        <v>33</v>
-      </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13">
-        <v>33</v>
-      </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="15.25" spans="1:17">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="17"/>
-    </row>
-    <row r="15" ht="15.25" spans="1:17">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="18">
-        <v>45880</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18">
-        <v>45881</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18">
-        <v>45882</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18">
-        <v>45883</v>
-      </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18">
-        <v>45884</v>
-      </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18">
-        <v>45885</v>
-      </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18">
-        <v>45886</v>
-      </c>
-      <c r="Q15" s="18"/>
-    </row>
-    <row r="16" ht="15.25" spans="1:17">
-      <c r="A16" s="19">
-        <v>10307941</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G16" s="22">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-    </row>
-    <row r="17" ht="15.25" spans="1:17">
-      <c r="A17" s="19">
-        <v>10314789</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I17" s="22">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J17" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K17" s="22">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L17" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M17" s="22">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N17" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="O17" s="22">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="P17" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Q17" s="22">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="1:17">
-      <c r="A18" s="19">
-        <v>10325095</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="22">
-        <v>0.625</v>
-      </c>
-      <c r="E18" s="22">
-        <v>0</v>
-      </c>
-      <c r="F18" s="22">
-        <v>0.625</v>
-      </c>
-      <c r="G18" s="22">
-        <v>0</v>
-      </c>
-      <c r="H18" s="22">
-        <v>0.625</v>
-      </c>
-      <c r="I18" s="22">
-        <v>0</v>
-      </c>
-      <c r="J18" s="22">
-        <v>0.625</v>
-      </c>
-      <c r="K18" s="22">
-        <v>0</v>
-      </c>
-      <c r="L18" s="22">
-        <v>0.625</v>
-      </c>
-      <c r="M18" s="22">
-        <v>0</v>
-      </c>
-      <c r="N18" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q18" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="1:17">
-      <c r="A19" s="19">
-        <v>10299936</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="O19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="22">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="Q19" s="22">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="1:17">
-      <c r="A20" s="19">
-        <v>10314766</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E20" s="22">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" s="23" t="s">
-        <v>28</v>
+      <c r="O18" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="26" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
+  <mergeCells count="32">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="56">
   <si>
     <t>Trainers</t>
   </si>
@@ -38,28 +38,31 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Monday, August 18, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, August 19, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, August 20, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, August 21, 2025</t>
-  </si>
-  <si>
-    <t>Friday, August 22, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, August 23, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, August 24, 2025</t>
-  </si>
-  <si>
-    <t>Zyad Ashraf</t>
+    <t>Monday, August 25, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, August 26, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, August 27, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, August 28, 2025</t>
+  </si>
+  <si>
+    <t>Friday, August 29, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, August 30, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, August 31, 2025</t>
+  </si>
+  <si>
+    <t>Janisse Saad</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>OFF</t>
@@ -68,75 +71,146 @@
     <t>Abdelsalam Hisham</t>
   </si>
   <si>
+    <t>Hajer Ahmed</t>
+  </si>
+  <si>
+    <t>5th Settl.</t>
+  </si>
+  <si>
+    <t>HRID</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Toka Mohamed Ragai</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Hassan Osama</t>
+  </si>
+  <si>
+    <t>Mohamed Aref Azzam</t>
+  </si>
+  <si>
+    <t>Joudi Moussa</t>
+  </si>
+  <si>
+    <t>Omar Sabry</t>
+  </si>
+  <si>
+    <t>CIM</t>
+  </si>
+  <si>
+    <t>MGR Name</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Karim Ahmed Mohamed Hamed</t>
+  </si>
+  <si>
+    <t>Planner</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Monday, September 1, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, September 2, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, September 3, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, September 4, 2025</t>
+  </si>
+  <si>
+    <t>Friday, September 5, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, September 6, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, September 7, 2025</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
     <t>5th Settlement</t>
   </si>
   <si>
-    <t>HRID</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Tue</t>
-  </si>
-  <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>Thu</t>
-  </si>
-  <si>
-    <t>Fri</t>
-  </si>
-  <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>Toka Mohamed Ragai</t>
-  </si>
-  <si>
-    <t>AirAlo</t>
-  </si>
-  <si>
-    <t>Hassan Osama</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Mohamed Aref Azzam</t>
-  </si>
-  <si>
-    <t>Ahmed Helal</t>
-  </si>
-  <si>
-    <t>Joudi Moussa</t>
-  </si>
-  <si>
-    <t>Omar Sabry</t>
-  </si>
-  <si>
-    <t>Yara Ayman</t>
+    <t>Mohamed Atef</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="180" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,14 +258,7 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF215A6C"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="17"/>
+      <sz val="19"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -209,15 +276,54 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF5A3286"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF215A6C"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF215A6C"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFEFEFEF"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -365,7 +471,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,25 +492,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB9CED5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD0E0E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7F7F7F"/>
+        <fgColor rgb="FF999999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,7 +719,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -699,106 +823,6 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -931,137 +955,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1092,67 +1116,85 @@
     <xf numFmtId="178" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="20" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1693,10 +1735,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G18"/>
+      <selection activeCell="A21" sqref="A21:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1706,54 +1748,103 @@
     <col min="3" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.5" customHeight="1" spans="1:1">
+    <row r="1" ht="28.25" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="15.25"/>
-    <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
-      <c r="A3" s="3" t="s">
+    <row r="2" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="5" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="5" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="28" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P2" s="34"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
+      <c r="A3" s="7">
+        <v>10326418</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="15.25" spans="1:16">
       <c r="A4" s="7">
-        <v>10273660</v>
+        <v>10281254</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9">
         <v>0.458333333333333</v>
@@ -1773,17 +1864,17 @@
       <c r="H4" s="9">
         <v>0.833333333333333</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>11</v>
+      <c r="I4" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="M4" s="9">
         <v>0.458333333333333</v>
@@ -1791,19 +1882,19 @@
       <c r="N4" s="9">
         <v>0.833333333333333</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="9">
         <v>0.458333333333333</v>
       </c>
       <c r="P4" s="9">
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.25" spans="1:16">
+    <row r="5" ht="15.25" spans="1:4">
       <c r="A5" s="7">
-        <v>10281254</v>
+        <v>10318438</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9">
         <v>0.708333333333333</v>
@@ -1811,574 +1902,705 @@
       <c r="D5" s="9">
         <v>0.0833333333333333</v>
       </c>
-      <c r="E5" s="9">
+    </row>
+    <row r="6" s="1" customFormat="1" ht="24.75" spans="1:16">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14">
+        <v>35</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14">
+        <v>35</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14">
+        <v>35</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14">
+        <v>35</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14">
+        <v>35</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14">
+        <v>35</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14">
+        <v>35</v>
+      </c>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="15">
+        <v>45894</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15">
+        <v>45895</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15">
+        <v>45896</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15">
+        <v>45897</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15">
+        <v>45898</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15">
+        <v>45899</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15">
+        <v>45900</v>
+      </c>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A10" s="16">
+        <v>10307941</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L10" s="18">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A11" s="16">
+        <v>10299936</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A12" s="16">
+        <v>10314789</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K12" s="18">
         <v>0.708333333333333</v>
       </c>
-      <c r="F5" s="9">
+      <c r="L12" s="18">
         <v>0.0833333333333333</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="M12" s="18">
         <v>0.708333333333333</v>
       </c>
-      <c r="L5" s="9">
+      <c r="N12" s="18">
         <v>0.0833333333333333</v>
       </c>
-      <c r="M5" s="9">
+      <c r="O12" s="18">
         <v>0.708333333333333</v>
       </c>
-      <c r="N5" s="9">
+      <c r="P12" s="18">
         <v>0.0833333333333333</v>
       </c>
-      <c r="O5" s="9">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A13" s="16">
+        <v>10320445</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="18">
         <v>0.708333333333333</v>
       </c>
-      <c r="P5" s="9">
+      <c r="D13" s="18">
         <v>0.0833333333333333</v>
       </c>
+      <c r="E13" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="8" ht="22.25" spans="1:17">
-      <c r="A8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
+    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A14" s="16">
+        <v>10314766</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="N14" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="O14" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P14" s="18">
+        <v>0.708333333333333</v>
+      </c>
     </row>
-    <row r="9" ht="16.25" spans="1:17">
-      <c r="A9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="14" t="s">
+    <row r="15" ht="15.25"/>
+    <row r="16" ht="15.25" spans="1:17">
+      <c r="A16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="22">
+        <v>45894</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22">
+        <v>45895</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22">
+        <v>45896</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22">
+        <v>45897</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22">
+        <v>45898</v>
+      </c>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22">
+        <v>45899</v>
+      </c>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22">
+        <v>45900</v>
+      </c>
+      <c r="Q16" s="22"/>
+    </row>
+    <row r="17" ht="15.25" spans="1:17">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="23"/>
+    </row>
+    <row r="18" ht="15.25" spans="1:17">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="1:17">
+      <c r="A19" s="16">
+        <v>10306591</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F19" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H19" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J19" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K19" s="25">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L19" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="M19" s="25">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25"/>
+    <row r="21" spans="1:11">
+      <c r="A21" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="15">
-        <v>34</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15">
-        <v>34</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15">
-        <v>34</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="15">
-        <v>34</v>
-      </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="15">
-        <v>34</v>
-      </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="15">
-        <v>34</v>
-      </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="15">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="16"/>
+      <c r="C21" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="10" ht="16.25" spans="1:17">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="16"/>
+    <row r="22" spans="1:11">
+      <c r="A22" s="28">
+        <v>10326418</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="31">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F22" s="31">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G22" s="31">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H22" s="31">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I22" s="31">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" ht="16.25" spans="1:17">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21">
-        <v>45887</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="21">
-        <v>45888</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="21">
-        <v>45889</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="21">
-        <v>45890</v>
-      </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="21">
-        <v>45891</v>
-      </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="21">
-        <v>45892</v>
-      </c>
-      <c r="O11" s="22"/>
-      <c r="P11" s="21">
-        <v>45893</v>
-      </c>
-      <c r="Q11" s="22"/>
-    </row>
-    <row r="12" ht="16.25" spans="1:17">
-      <c r="A12" s="23">
-        <v>10307941</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E12" s="25">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F12" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G12" s="25">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H12" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I12" s="25">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J12" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K12" s="25">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L12" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M12" s="25">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" ht="16.25" spans="1:17">
-      <c r="A13" s="23">
-        <v>10299936</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" s="25">
+    <row r="23" spans="1:11">
+      <c r="A23" s="28">
+        <v>10307948</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="31">
         <v>0.458333333333333</v>
       </c>
-      <c r="Q13" s="25">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="14" ht="16.25" spans="1:17">
-      <c r="A14" s="23">
-        <v>10314789</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="I14" s="25">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" ht="16.25" spans="1:17">
-      <c r="A15" s="23">
-        <v>10325095</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E15" s="25">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="F15" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G15" s="25">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="K15" s="25">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="L15" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="M15" s="25">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="16.25" spans="1:17">
-      <c r="A16" s="23">
-        <v>10320445</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" s="25">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="Q16" s="25">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="17" ht="16.25" spans="1:17">
-      <c r="A17" s="23">
-        <v>10314766</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="O17" s="25">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="P17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" ht="16.25" spans="1:17">
-      <c r="A18" s="23">
-        <v>10307944</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" s="25">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="O18" s="25">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="P18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18" s="26" t="s">
-        <v>26</v>
+      <c r="G23" s="31">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H23" s="31">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I23" s="31">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J23" s="31">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
+  <mergeCells count="47">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="29">
   <si>
     <t>Trainers</t>
   </si>
@@ -38,40 +38,34 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Monday, August 25, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, August 26, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, August 27, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, August 28, 2025</t>
-  </si>
-  <si>
-    <t>Friday, August 29, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, August 30, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, August 31, 2025</t>
+    <t>Monday, September 1, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, September 2, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, September 3, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, September 4, 2025</t>
+  </si>
+  <si>
+    <t>Friday, September 5, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, September 6, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, September 7, 2025</t>
   </si>
   <si>
     <t>Janisse Saad</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>OFF</t>
   </si>
   <si>
-    <t>Abdelsalam Hisham</t>
-  </si>
-  <si>
-    <t>Hajer Ahmed</t>
+    <t>Mohamed Atef</t>
   </si>
   <si>
     <t>5th Settl.</t>
@@ -104,113 +98,36 @@
     <t>Toka Mohamed Ragai</t>
   </si>
   <si>
+    <t>Hassan Osama</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Hassan Osama</t>
-  </si>
-  <si>
     <t>Mohamed Aref Azzam</t>
   </si>
   <si>
+    <t>Ahmed Helal</t>
+  </si>
+  <si>
     <t>Joudi Moussa</t>
   </si>
   <si>
     <t>Omar Sabry</t>
-  </si>
-  <si>
-    <t>CIM</t>
-  </si>
-  <si>
-    <t>MGR Name</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Karim Ahmed Mohamed Hamed</t>
-  </si>
-  <si>
-    <t>Planner</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Monday, September 1, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, September 2, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, September 3, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, September 4, 2025</t>
-  </si>
-  <si>
-    <t>Friday, September 5, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, September 6, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, September 7, 2025</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>5th Settlement</t>
-  </si>
-  <si>
-    <t>Mohamed Atef</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +170,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF215A6C"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -276,43 +199,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF5A3286"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF215A6C"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF215A6C"/>
@@ -320,10 +206,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFEFEFEF"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -471,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +377,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB9CED5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -505,30 +396,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7F7F7F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB9CED5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF999999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,142 +822,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1116,73 +986,34 @@
     <xf numFmtId="178" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,10 +1022,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1735,10 +1566,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:K23"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1749,811 +1580,570 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.25" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="33" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="34"/>
+      <c r="P2" s="22"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
-      <c r="A3" s="7">
+    <row r="3" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
+      <c r="A3" s="8">
         <v>10326418</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="N3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9">
+      <c r="O3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+      <c r="A4" s="8">
+        <v>10307948</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25"/>
+    <row r="6" s="2" customFormat="1" ht="24.75" spans="1:17">
+      <c r="A6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="16">
+        <v>36</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16">
+        <v>36</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16">
+        <v>36</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16">
+        <v>36</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16">
+        <v>36</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16">
+        <v>36</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
+        <v>36</v>
+      </c>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="17">
+        <v>45901</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17">
+        <v>45902</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17">
+        <v>45903</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17">
+        <v>45904</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17">
+        <v>45905</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17">
+        <v>45906</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17">
+        <v>45907</v>
+      </c>
+      <c r="P9" s="17"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A10" s="18">
+        <v>10307941</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L10" s="20">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A11" s="18">
+        <v>10299936</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L11" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A12" s="18">
+        <v>10314789</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A13" s="18">
+        <v>10325095</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D13" s="20">
         <v>0.708333333333333</v>
       </c>
-      <c r="F3" s="9">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="E13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J13" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A14" s="18">
+        <v>10320445</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="N14" s="20">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="O14" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="P14" s="20">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A15" s="18">
+        <v>10314766</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="N15" s="20">
         <v>0.708333333333333</v>
       </c>
-      <c r="H3" s="9">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="O15" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P15" s="20">
         <v>0.708333333333333</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A4" s="7">
-        <v>10281254</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="O4" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="P4" s="9">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="5" ht="15.25" spans="1:4">
-      <c r="A5" s="7">
-        <v>10318438</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="24.75" spans="1:16">
-      <c r="A6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="14">
-        <v>35</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14">
-        <v>35</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14">
-        <v>35</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14">
-        <v>35</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14">
-        <v>35</v>
-      </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14">
-        <v>35</v>
-      </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14">
-        <v>35</v>
-      </c>
-      <c r="P7" s="14"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="14"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="15">
-        <v>45894</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15">
-        <v>45895</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15">
-        <v>45896</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15">
-        <v>45897</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15">
-        <v>45898</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15">
-        <v>45899</v>
-      </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15">
-        <v>45900</v>
-      </c>
-      <c r="P9" s="15"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A10" s="16">
-        <v>10307941</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J10" s="18">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K10" s="18">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L10" s="18">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A11" s="16">
-        <v>10299936</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A12" s="16">
-        <v>10314789</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H12" s="18">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I12" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J12" s="18">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K12" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L12" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M12" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N12" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="O12" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="P12" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A13" s="16">
-        <v>10320445</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A14" s="16">
-        <v>10314766</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="N14" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="O14" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="P14" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="15" ht="15.25"/>
-    <row r="16" ht="15.25" spans="1:17">
-      <c r="A16" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="22">
-        <v>45894</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22">
-        <v>45895</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22">
-        <v>45896</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22">
-        <v>45897</v>
-      </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22">
-        <v>45898</v>
-      </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22">
-        <v>45899</v>
-      </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22">
-        <v>45900</v>
-      </c>
-      <c r="Q16" s="22"/>
-    </row>
-    <row r="17" ht="15.25" spans="1:17">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q17" s="23"/>
-    </row>
-    <row r="18" ht="15.25" spans="1:17">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="P18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="1:17">
-      <c r="A19" s="16">
-        <v>10306591</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E19" s="25">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F19" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G19" s="25">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H19" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I19" s="25">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J19" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="K19" s="25">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L19" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="M19" s="25">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="N19" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25"/>
-    <row r="21" spans="1:11">
-      <c r="A21" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="28">
-        <v>10326418</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="31">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F22" s="31">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G22" s="31">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H22" s="31">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I22" s="31">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J22" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="28">
-        <v>10307948</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="31">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G23" s="31">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H23" s="31">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I23" s="31">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J23" s="31">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K23" s="32" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="30">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -2582,25 +2172,8 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
   <si>
     <t>Trainers</t>
   </si>
@@ -38,28 +38,28 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Monday, September 1, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, September 2, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, September 3, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, September 4, 2025</t>
-  </si>
-  <si>
-    <t>Friday, September 5, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, September 6, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, September 7, 2025</t>
-  </si>
-  <si>
-    <t>Janisse Saad</t>
+    <t>Monday, September 8, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, September 9, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, September 10, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, September 11, 2025</t>
+  </si>
+  <si>
+    <t>Friday, September 12, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, September 13, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, September 14, 2025</t>
+  </si>
+  <si>
+    <t>Zyad Ashraf</t>
   </si>
   <si>
     <t>OFF</t>
@@ -68,7 +68,7 @@
     <t>Mohamed Atef</t>
   </si>
   <si>
-    <t>5th Settl.</t>
+    <t>5th Settl</t>
   </si>
   <si>
     <t>HRID</t>
@@ -98,16 +98,13 @@
     <t>Toka Mohamed Ragai</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Hassan Osama</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Mohamed Aref Azzam</t>
-  </si>
-  <si>
-    <t>Ahmed Helal</t>
   </si>
   <si>
     <t>Joudi Moussa</t>
@@ -127,7 +124,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +167,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF215A6C"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -199,15 +202,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF215A6C"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -822,145 +825,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -987,33 +987,42 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1022,10 +1031,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1580,101 +1586,101 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.25" customHeight="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="21" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="22"/>
+      <c r="P2" s="24"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
-      <c r="A3" s="8">
-        <v>10326418</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="3" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
+      <c r="A3" s="7">
+        <v>10273660</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>0.708333333333333</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>0.0833333333333333</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>0.708333333333333</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>0.0833333333333333</v>
       </c>
-      <c r="G3" s="10">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M3" s="23" t="s">
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="H3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="I3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="J3" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="K3" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0.833333333333333</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
-      <c r="A4" s="8">
+    <row r="4" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
+      <c r="A4" s="7">
         <v>10307948</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -1683,339 +1689,289 @@
       <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="O4" s="23" t="s">
+      <c r="E4" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="O4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15.25"/>
-    <row r="6" s="2" customFormat="1" ht="24.75" spans="1:17">
-      <c r="A6" s="12" t="s">
+    <row r="6" ht="15.25"/>
+    <row r="7" customFormat="1" ht="24.75" spans="1:17">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A7" s="14" t="s">
+    <row r="8" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C8" s="16">
         <v>36</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16">
         <v>36</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16">
         <v>36</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16">
         <v>36</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16">
         <v>36</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16">
+      <c r="L8" s="16"/>
+      <c r="M8" s="16">
         <v>36</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16">
+      <c r="N8" s="16"/>
+      <c r="O8" s="16">
         <v>36</v>
-      </c>
-      <c r="P7" s="16"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="P8" s="16"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15.25" spans="1:16">
+    <row r="9" customFormat="1" ht="15.25" spans="1:16">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="17">
-        <v>45901</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17">
-        <v>45902</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17">
-        <v>45903</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17">
-        <v>45904</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17">
-        <v>45905</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17">
-        <v>45906</v>
-      </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17">
-        <v>45907</v>
-      </c>
-      <c r="P9" s="17"/>
+      <c r="C9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="16"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A10" s="18">
+    <row r="10" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="17">
+        <v>45908</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17">
+        <v>45909</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17">
+        <v>45910</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17">
+        <v>45911</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17">
+        <v>45912</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17">
+        <v>45913</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17">
+        <v>45914</v>
+      </c>
+      <c r="P10" s="17"/>
+    </row>
+    <row r="11" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A11" s="18">
         <v>10307941</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C11" s="20">
         <v>0.583333333333333</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D11" s="20">
         <v>0.958333333333333</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="20">
         <v>0.583333333333333</v>
       </c>
-      <c r="F10" s="20">
+      <c r="J11" s="20">
         <v>0.958333333333333</v>
       </c>
-      <c r="G10" s="20">
+      <c r="K11" s="20">
         <v>0.583333333333333</v>
       </c>
-      <c r="H10" s="20">
+      <c r="L11" s="20">
         <v>0.958333333333333</v>
       </c>
-      <c r="I10" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J10" s="20">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K10" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L10" s="20">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="M10" s="24" t="s">
+      <c r="M11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="P11" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A11" s="18">
+    <row r="12" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A12" s="18">
         <v>10299936</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="20">
+      <c r="C12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="20">
         <v>0.458333333333333</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F12" s="20">
         <v>0.833333333333333</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="20">
+      <c r="G12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A13" s="18">
+        <v>10314789</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="20">
         <v>0.458333333333333</v>
       </c>
-      <c r="L11" s="20">
+      <c r="H13" s="20">
         <v>0.833333333333333</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A12" s="18">
-        <v>10314789</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H12" s="20">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A13" s="18">
-        <v>10325095</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>24</v>
       </c>
       <c r="I13" s="20">
         <v>0.458333333333333</v>
@@ -2023,123 +1979,123 @@
       <c r="J13" s="20">
         <v>0.833333333333333</v>
       </c>
-      <c r="K13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="24" t="s">
-        <v>11</v>
+      <c r="K13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="15.25" spans="1:16">
+    <row r="14" customFormat="1" ht="15.25" spans="1:16">
       <c r="A14" s="18">
         <v>10320445</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="N14" s="20">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="O14" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="P14" s="20">
-        <v>0.958333333333333</v>
+        <v>26</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="15.25" spans="1:16">
+    <row r="15" customFormat="1" ht="15.25" spans="1:16">
       <c r="A15" s="18">
         <v>10314766</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="M15" s="20">
-        <v>0.333333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="N15" s="20">
-        <v>0.708333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="O15" s="20">
-        <v>0.333333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="P15" s="20">
-        <v>0.708333333333333</v>
+        <v>0.958333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2151,13 +2107,6 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -2172,8 +2121,15 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
   <si>
     <t>Trainers</t>
   </si>
@@ -955,7 +955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,6 +1033,12 @@
     </xf>
     <xf numFmtId="178" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1585,12 +1591,12 @@
     <col min="3" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.25" customHeight="1" spans="1:1">
+    <row r="1" ht="29" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
+    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1626,7 +1632,7 @@
       </c>
       <c r="P2" s="24"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
+    <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:16">
       <c r="A3" s="7">
         <v>10273660</v>
       </c>
@@ -1935,17 +1941,17 @@
       <c r="L12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="21" t="s">
-        <v>23</v>
+      <c r="M12" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="N12" s="26">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="O12" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="P12" s="26">
+        <v>0.833333333333333</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="15.25" spans="1:16">
@@ -1985,17 +1991,17 @@
       <c r="L13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="21" t="s">
-        <v>23</v>
+      <c r="M13" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="N13" s="26">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="O13" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="P13" s="26">
+        <v>0.958333333333333</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="15.25" spans="1:16">
@@ -2085,17 +2091,17 @@
       <c r="L15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="N15" s="20">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="O15" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="P15" s="20">
-        <v>0.958333333333333</v>
+      <c r="M15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="42">
   <si>
     <t>Trainers</t>
   </si>
@@ -68,6 +68,12 @@
     <t>Mohamed Atef</t>
   </si>
   <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>Abdelsalam Hisham</t>
+  </si>
+  <si>
     <t>5th Settl</t>
   </si>
   <si>
@@ -111,20 +117,57 @@
   </si>
   <si>
     <t>Omar Sabry</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Monday, September 15, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, September 16, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, September 17, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, September 18, 2025</t>
+  </si>
+  <si>
+    <t>Friday, September 19, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, September 20, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, September 21, 2025</t>
+  </si>
+  <si>
+    <t>Janisse Saad</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>5th Settlement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +252,26 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF5A3286"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF215A6C"/>
       <name val="Calibri"/>
@@ -359,7 +422,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +462,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7F7F7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,137 +894,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1025,13 +1094,43 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1039,6 +1138,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1578,10 +1680,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+      <selection activeCell="A17" sqref="A17:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1627,10 +1729,10 @@
         <v>8</v>
       </c>
       <c r="N2" s="6"/>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="24"/>
+      <c r="P2" s="34"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:16">
       <c r="A3" s="7">
@@ -1713,29 +1815,49 @@
       <c r="J4" s="9">
         <v>0.0833333333333333</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="1:14">
+      <c r="A5" s="7">
+        <v>10281254</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="9">
         <v>0.708333333333333</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L5" s="9">
         <v>0.0833333333333333</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M5" s="9">
         <v>0.708333333333333</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N5" s="9">
         <v>0.0833333333333333</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" ht="15.25"/>
     <row r="7" customFormat="1" ht="24.75" spans="1:17">
       <c r="A7" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1756,7 +1878,7 @@
     </row>
     <row r="8" customFormat="1" ht="15.25" spans="1:16">
       <c r="A8" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>2</v>
@@ -1794,31 +1916,31 @@
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="16"/>
     </row>
@@ -1859,7 +1981,7 @@
         <v>10307941</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="20">
         <v>0.583333333333333</v>
@@ -1868,16 +1990,16 @@
         <v>0.958333333333333</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I11" s="20">
         <v>0.583333333333333</v>
@@ -1909,13 +2031,13 @@
         <v>10299936</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" s="20">
         <v>0.458333333333333</v>
@@ -1924,33 +2046,33 @@
         <v>0.833333333333333</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="26">
+        <v>25</v>
+      </c>
+      <c r="M12" s="36">
         <v>0.458333333333333</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="36">
         <v>0.833333333333333</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="36">
         <v>0.458333333333333</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="36">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -1959,7 +2081,7 @@
         <v>10314789</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>11</v>
@@ -1986,21 +2108,21 @@
         <v>0.833333333333333</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="26">
+        <v>25</v>
+      </c>
+      <c r="M13" s="36">
         <v>0.583333333333333</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="36">
         <v>0.958333333333333</v>
       </c>
-      <c r="O13" s="26">
+      <c r="O13" s="36">
         <v>0.583333333333333</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="36">
         <v>0.958333333333333</v>
       </c>
     </row>
@@ -2009,13 +2131,13 @@
         <v>10320445</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" s="20">
         <v>0.333333333333333</v>
@@ -2030,28 +2152,28 @@
         <v>0.708333333333333</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15.25" spans="1:16">
@@ -2059,49 +2181,154 @@
         <v>10314766</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="26">
+        <v>10326418</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H18" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I18" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="26">
+        <v>10281254</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="30">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="32">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I19" s="32">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J19" s="32">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="K19" s="32">
+        <v>0.708333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="54">
   <si>
     <t>Trainers</t>
   </si>
@@ -38,46 +38,43 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Monday, September 8, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, September 9, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, September 10, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, September 11, 2025</t>
-  </si>
-  <si>
-    <t>Friday, September 12, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, September 13, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, September 14, 2025</t>
-  </si>
-  <si>
-    <t>Zyad Ashraf</t>
+    <t>Monday, September 15, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, September 16, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, September 17, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, September 18, 2025</t>
+  </si>
+  <si>
+    <t>Friday, September 19, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, September 20, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, September 21, 2025</t>
+  </si>
+  <si>
+    <t>Janisse Saad</t>
+  </si>
+  <si>
+    <t>AN</t>
   </si>
   <si>
     <t>OFF</t>
   </si>
   <si>
-    <t>Mohamed Atef</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
     <t>Abdelsalam Hisham</t>
   </si>
   <si>
     <t>5th Settl</t>
   </si>
   <si>
-    <t>HRID</t>
+    <t>ID</t>
   </si>
   <si>
     <t>Mon</t>
@@ -110,49 +107,88 @@
     <t>Hassan Osama</t>
   </si>
   <si>
+    <t>Ahmed Helal</t>
+  </si>
+  <si>
+    <t>Joudi Moussa</t>
+  </si>
+  <si>
     <t>Mohamed Aref Azzam</t>
   </si>
   <si>
-    <t>Joudi Moussa</t>
-  </si>
-  <si>
-    <t>Omar Sabry</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Monday, September 15, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, September 16, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, September 17, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, September 18, 2025</t>
-  </si>
-  <si>
-    <t>Friday, September 19, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, September 20, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, September 21, 2025</t>
-  </si>
-  <si>
-    <t>Janisse Saad</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>5th Settlement</t>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Satruday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Ahmed Farrag</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>WK 38</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Start vs End</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Ahmed Elsayed</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Mohamed Youssef</t>
+  </si>
+  <si>
+    <t>Shawky Ahmed</t>
+  </si>
+  <si>
+    <t>Hazem Sayed</t>
+  </si>
+  <si>
+    <t>Youssef Amr</t>
   </si>
 </sst>
 </file>
@@ -165,9 +201,9 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,12 +251,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF215A6C"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF215A6C"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -251,23 +281,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF5A3286"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF3D3D3D"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color rgb="FF073763"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -422,7 +475,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,13 +514,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF7F7F7F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6E6"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE9F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF073763"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,7 +765,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -754,6 +861,21 @@
     </border>
     <border>
       <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
@@ -762,6 +884,56 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -894,137 +1066,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1058,89 +1230,110 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="20" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="14" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="16" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="20" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1680,10 +1873,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K19"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1693,12 +1886,12 @@
     <col min="3" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:1">
+    <row r="1" ht="31.25" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:16">
+    <row r="2" s="1" customFormat="1" ht="21.25" customHeight="1" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1729,610 +1922,1068 @@
         <v>8</v>
       </c>
       <c r="N2" s="6"/>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="34"/>
+      <c r="P2" s="41"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:16">
+    <row r="3" s="1" customFormat="1" ht="20.5" customHeight="1" spans="1:16">
       <c r="A3" s="7">
-        <v>10273660</v>
+        <v>10326418</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I3" s="9">
         <v>0.708333333333333</v>
       </c>
-      <c r="D3" s="9">
+      <c r="J3" s="9">
         <v>0.0833333333333333</v>
       </c>
-      <c r="E3" s="9">
+      <c r="K3" s="9">
         <v>0.708333333333333</v>
       </c>
-      <c r="F3" s="9">
+      <c r="L3" s="9">
         <v>0.0833333333333333</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="9">
+      <c r="M3" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
+      <c r="A4" s="7">
+        <v>10281254</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="L3" s="9">
+      <c r="J4" s="9">
         <v>0.833333333333333</v>
       </c>
-      <c r="M3" s="9">
+      <c r="K4" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="N3" s="9">
+      <c r="L4" s="9">
         <v>0.833333333333333</v>
       </c>
-      <c r="O3" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="P3" s="9">
-        <v>0.833333333333333</v>
+      <c r="M4" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.0833333333333333</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
-      <c r="A4" s="7">
-        <v>10307948</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" ht="15.25"/>
+    <row r="6" ht="24.75" spans="1:16">
+      <c r="A6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
     </row>
-    <row r="5" ht="15.25" spans="1:14">
-      <c r="A5" s="7">
-        <v>10281254</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="6" ht="15.25"/>
-    <row r="7" customFormat="1" ht="24.75" spans="1:17">
-      <c r="A7" s="12" t="s">
+    <row r="7" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
+      <c r="B7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15">
+        <v>38</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15">
+        <v>38</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15">
+        <v>38</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15">
+        <v>38</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15">
+        <v>38</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15">
+        <v>38</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15">
+        <v>38</v>
+      </c>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="16">
-        <v>36</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16">
-        <v>36</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16">
-        <v>36</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16">
-        <v>36</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16">
-        <v>36</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16">
-        <v>36</v>
-      </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16">
-        <v>36</v>
-      </c>
-      <c r="P8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16" t="s">
-        <v>17</v>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="16">
+        <v>45915</v>
       </c>
       <c r="D9" s="16"/>
-      <c r="E9" s="16" t="s">
-        <v>18</v>
+      <c r="E9" s="16">
+        <v>45916</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="16" t="s">
-        <v>19</v>
+      <c r="G9" s="16">
+        <v>45917</v>
       </c>
       <c r="H9" s="16"/>
-      <c r="I9" s="16" t="s">
-        <v>20</v>
+      <c r="I9" s="16">
+        <v>45918</v>
       </c>
       <c r="J9" s="16"/>
-      <c r="K9" s="16" t="s">
-        <v>21</v>
+      <c r="K9" s="16">
+        <v>45919</v>
       </c>
       <c r="L9" s="16"/>
-      <c r="M9" s="16" t="s">
-        <v>22</v>
+      <c r="M9" s="16">
+        <v>45920</v>
       </c>
       <c r="N9" s="16"/>
-      <c r="O9" s="16" t="s">
-        <v>23</v>
+      <c r="O9" s="16">
+        <v>45921</v>
       </c>
       <c r="P9" s="16"/>
     </row>
     <row r="10" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="17">
-        <v>45908</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17">
-        <v>45909</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17">
-        <v>45910</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17">
-        <v>45911</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17">
-        <v>45912</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17">
-        <v>45913</v>
-      </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17">
-        <v>45914</v>
-      </c>
-      <c r="P10" s="17"/>
+      <c r="A10" s="17">
+        <v>10307941</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A11" s="18">
-        <v>10307941</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D11" s="20">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E11" s="21" t="s">
+      <c r="A11" s="17">
+        <v>10299936</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J11" s="20">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K11" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L11" s="20">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>11</v>
+      <c r="C11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A12" s="18">
-        <v>10299936</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="17">
+        <v>10325095</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="C12" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="19">
         <v>0.458333333333333</v>
       </c>
-      <c r="F12" s="20">
+      <c r="H12" s="19">
         <v>0.833333333333333</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="36">
+      <c r="I12" s="19">
         <v>0.458333333333333</v>
       </c>
-      <c r="N12" s="36">
+      <c r="J12" s="19">
         <v>0.833333333333333</v>
       </c>
-      <c r="O12" s="36">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="P12" s="36">
-        <v>0.833333333333333</v>
+      <c r="K12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A13" s="18">
-        <v>10314789</v>
-      </c>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="17">
+        <v>10320445</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H13" s="20">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I13" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J13" s="20">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="N13" s="36">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="O13" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="P13" s="36">
-        <v>0.958333333333333</v>
+      <c r="C13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="O13" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0.708333333333333</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A14" s="18">
-        <v>10320445</v>
-      </c>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="17">
+        <v>10314789</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="C14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="M14" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="N14" s="19">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="O14" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25"/>
+    <row r="17" ht="15.25" spans="1:17">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="23">
+        <v>45915</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23">
+        <v>45916</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23">
+        <v>45917</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23">
+        <v>45918</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23">
+        <v>45919</v>
+      </c>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23">
+        <v>45920</v>
+      </c>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23">
+        <v>45921</v>
+      </c>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="45"/>
+    </row>
+    <row r="18" ht="16.25" spans="1:16">
+      <c r="A18" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="25"/>
+    </row>
+    <row r="19" ht="15.25" spans="1:16">
+      <c r="A19" s="26">
+        <v>10317390</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="28">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D19" s="28">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G19" s="28">
+        <v>0.375</v>
+      </c>
+      <c r="H19" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="1:16">
+      <c r="A20" s="26">
+        <v>10324909</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="28">
+        <v>0.375</v>
+      </c>
+      <c r="J20" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="K20" s="28">
+        <v>0.375</v>
+      </c>
+      <c r="L20" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" hidden="1" spans="1:16">
+      <c r="A22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+    </row>
+    <row r="23" ht="15.25" hidden="1" spans="1:16">
+      <c r="A23" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" hidden="1" spans="1:16">
+      <c r="A24" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" hidden="1" spans="1:16">
+      <c r="A25" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="34">
+        <v>45915</v>
+      </c>
+      <c r="D25" s="34">
+        <v>45915</v>
+      </c>
+      <c r="E25" s="34">
+        <v>45916</v>
+      </c>
+      <c r="F25" s="34">
+        <v>45916</v>
+      </c>
+      <c r="G25" s="34">
+        <v>45917</v>
+      </c>
+      <c r="H25" s="34">
+        <v>45917</v>
+      </c>
+      <c r="I25" s="34">
+        <v>45918</v>
+      </c>
+      <c r="J25" s="34">
+        <v>45918</v>
+      </c>
+      <c r="K25" s="34">
+        <v>45919</v>
+      </c>
+      <c r="L25" s="34">
+        <v>45919</v>
+      </c>
+      <c r="M25" s="34">
+        <v>45920</v>
+      </c>
+      <c r="N25" s="34">
+        <v>45920</v>
+      </c>
+      <c r="O25" s="34">
+        <v>45921</v>
+      </c>
+      <c r="P25" s="34">
+        <v>45921</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" hidden="1" spans="1:16">
+      <c r="A26" s="35">
+        <v>10317390</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="37">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D26" s="37">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E26" s="37">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F26" s="37">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G26" s="37">
+        <v>0.375</v>
+      </c>
+      <c r="H26" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="O26" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" hidden="1" spans="1:16">
+      <c r="A27" s="35">
+        <v>10324909</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="37">
+        <v>0.375</v>
+      </c>
+      <c r="H27" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="I27" s="37">
+        <v>0.375</v>
+      </c>
+      <c r="J27" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="K27" s="37">
+        <v>0.375</v>
+      </c>
+      <c r="L27" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="M27" s="37">
+        <v>0.375</v>
+      </c>
+      <c r="N27" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="O27" s="37">
+        <v>0.375</v>
+      </c>
+      <c r="P27" s="37">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" hidden="1" spans="1:16">
+      <c r="A28" s="35">
+        <v>10333264</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="39">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D28" s="39">
         <v>0.333333333333333</v>
       </c>
-      <c r="F14" s="20">
+      <c r="E28" s="39">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F28" s="39">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G28" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="H28" s="39">
+        <v>0.125</v>
+      </c>
+      <c r="I28" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="J28" s="39">
+        <v>0.125</v>
+      </c>
+      <c r="K28" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="L28" s="39">
+        <v>0.125</v>
+      </c>
+      <c r="M28" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="O28" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="P28" s="38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" hidden="1" spans="1:16">
+      <c r="A29" s="35">
+        <v>10333263</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="37">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D29" s="37">
         <v>0.708333333333333</v>
       </c>
-      <c r="G14" s="20">
+      <c r="E29" s="37">
         <v>0.333333333333333</v>
       </c>
-      <c r="H14" s="20">
+      <c r="F29" s="37">
         <v>0.708333333333333</v>
       </c>
-      <c r="I14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="21" t="s">
-        <v>25</v>
+      <c r="G29" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="37">
+        <v>0.875</v>
+      </c>
+      <c r="I29" s="37">
+        <v>0.375</v>
+      </c>
+      <c r="J29" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="K29" s="37">
+        <v>0.375</v>
+      </c>
+      <c r="L29" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="M29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="38" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A15" s="18">
-        <v>10314766</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="26">
-        <v>10326418</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="30">
+    <row r="30" ht="15.25" hidden="1" spans="1:16">
+      <c r="A30" s="35">
+        <v>10340710</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="37">
         <v>0.458333333333333</v>
       </c>
-      <c r="H18" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I18" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="26">
-        <v>10281254</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="30">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="32">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I19" s="32">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J19" s="32">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="K19" s="32">
-        <v>0.708333333333333</v>
+      <c r="D30" s="37">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E30" s="37">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F30" s="37">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="L30" s="39">
+        <v>0.125</v>
+      </c>
+      <c r="M30" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="N30" s="39">
+        <v>0.125</v>
+      </c>
+      <c r="O30" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="P30" s="39">
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="49">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -2340,6 +2991,13 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -2354,15 +3012,27 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Trainers</t>
   </si>
@@ -38,28 +38,28 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Monday, September 22, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, September 23, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, September 24, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, September 25, 2025</t>
-  </si>
-  <si>
-    <t>Friday, September 26, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, September 27, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, September 28, 2025</t>
-  </si>
-  <si>
-    <t>Janisse Saad</t>
+    <t>Monday, September 29, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, September 30, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, October 1, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, October 2, 2025</t>
+  </si>
+  <si>
+    <t>Friday, October 3, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, October 4, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, October 5, 2025</t>
+  </si>
+  <si>
+    <t>Rawan Moftah</t>
   </si>
   <si>
     <t>OFF</t>
@@ -68,10 +68,7 @@
     <t>Abdelsalam Hisham</t>
   </si>
   <si>
-    <t>5th Settl</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>Day</t>
   </si>
   <si>
     <t>Mon</t>
@@ -95,39 +92,37 @@
     <t>Sun</t>
   </si>
   <si>
-    <t>Hassan Osama</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Mohamed Aref Azzam</t>
-  </si>
-  <si>
-    <t>Ahmed Helal</t>
-  </si>
-  <si>
-    <t>Joudi Moussa</t>
-  </si>
-  <si>
-    <t>Omar Sabry</t>
-  </si>
-  <si>
-    <t>Yara Ayman</t>
+    <t>Start vs End</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Ahmed Elsayed</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,28 +168,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="19"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -342,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,25 +350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7F7F7F"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,38 +620,28 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -816,137 +769,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,40 +937,31 @@
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1557,7 +1501,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
@@ -1570,12 +1514,12 @@
     <col min="3" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.25" customHeight="1" spans="1:1">
+    <row r="1" ht="32" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+    <row r="2" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1611,57 +1555,57 @@
       </c>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+    <row r="3" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
       <c r="A3" s="7">
-        <v>10326418</v>
+        <v>10323544</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="9">
-        <v>0.708333333333333</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="D3" s="9">
-        <v>0.0833333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E3" s="9">
-        <v>0.708333333333333</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="F3" s="9">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0.0833333333333333</v>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="K3" s="9">
-        <v>0.708333333333333</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="L3" s="9">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>11</v>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16" customHeight="1" spans="1:16">
+    <row r="4" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
       <c r="A4" s="7">
         <v>10281254</v>
       </c>
@@ -1681,459 +1625,214 @@
         <v>11</v>
       </c>
       <c r="G4" s="9">
-        <v>0.458333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="H4" s="9">
-        <v>0.833333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="I4" s="9">
-        <v>0.458333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="J4" s="9">
-        <v>0.833333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="K4" s="9">
-        <v>0.458333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="L4" s="9">
-        <v>0.833333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="M4" s="9">
-        <v>0.458333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="N4" s="9">
-        <v>0.833333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="O4" s="9">
-        <v>0.458333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="P4" s="9">
-        <v>0.833333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
-    <row r="5" ht="15.25"/>
-    <row r="6" customFormat="1" ht="24.75" spans="1:16">
-      <c r="A6" s="12" t="s">
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1"/>
+    <row r="11" customFormat="1"/>
+    <row r="12" customFormat="1"/>
+    <row r="13" customFormat="1"/>
+    <row r="14" customFormat="1"/>
+    <row r="15" customFormat="1"/>
+    <row r="17" ht="15.75" spans="1:16">
+      <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="14"/>
     </row>
-    <row r="7" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="16">
-        <v>39</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16">
-        <v>39</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16">
-        <v>39</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16">
-        <v>39</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16">
-        <v>39</v>
-      </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16">
-        <v>39</v>
-      </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16">
-        <v>39</v>
-      </c>
-      <c r="P7" s="16"/>
+    <row r="18" ht="15.75" spans="1:16">
+      <c r="A18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="16"/>
+    <row r="19" ht="15.75" spans="1:16">
+      <c r="A19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="16">
+        <v>45929</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16">
+        <v>45930</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="16">
+        <v>45931</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="16">
+        <v>45932</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="16">
+        <v>45933</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="16">
+        <v>45934</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="16">
+        <v>45935</v>
+      </c>
+      <c r="P19" s="17"/>
     </row>
-    <row r="9" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="17">
-        <v>45922</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17">
-        <v>45923</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17">
-        <v>45924</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17">
-        <v>45925</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17">
-        <v>45926</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17">
-        <v>45927</v>
-      </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17">
-        <v>45928</v>
-      </c>
-      <c r="P9" s="17"/>
-    </row>
-    <row r="10" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A10" s="18">
-        <v>10299936</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L10" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A11" s="18">
-        <v>10314789</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="22" t="s">
+    <row r="20" ht="15.75" spans="1:16">
+      <c r="A20" s="18">
+        <v>10317390</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H20" s="20">
+        <v>0.125</v>
+      </c>
+      <c r="I20" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="J20" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="K20" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="L20" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H11" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I11" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J11" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K11" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L11" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="M11" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="N11" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="O11" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="P11" s="21">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A12" s="18">
-        <v>10325095</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D12" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A13" s="18">
-        <v>10320445</v>
-      </c>
-      <c r="B13" s="19" t="s">
+      <c r="M20" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="N20" s="20">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="O20" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G13" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H13" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="P13" s="21">
-        <v>0.333333333333333</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A14" s="18">
-        <v>10314766</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="N14" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="O14" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="P14" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="15" ht="15.25" spans="1:16">
-      <c r="A15" s="18">
-        <v>10307944</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J15" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>23</v>
+      <c r="P20" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="24">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -2141,29 +1840,23 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
   <si>
     <t>Trainers</t>
   </si>
@@ -68,28 +68,58 @@
     <t>Abdelsalam Hisham</t>
   </si>
   <si>
+    <t>5th Settl</t>
+  </si>
+  <si>
+    <t>HRID</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Hassan Osama</t>
+  </si>
+  <si>
+    <t>Airalo</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Mohamed Aref Azzam</t>
+  </si>
+  <si>
+    <t>Ahmed Helal</t>
+  </si>
+  <si>
+    <t>Joudi Moussa</t>
+  </si>
+  <si>
+    <t>Omar Sabry</t>
+  </si>
+  <si>
     <t>Day</t>
   </si>
   <si>
     <t>Mon</t>
-  </si>
-  <si>
-    <t>Tue</t>
-  </si>
-  <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>Thu</t>
-  </si>
-  <si>
-    <t>Fri</t>
-  </si>
-  <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>Sun</t>
   </si>
   <si>
     <t>Start vs End</t>
@@ -122,7 +152,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +194,31 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF215A6C"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="19"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -323,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +405,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -541,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -609,6 +688,36 @@
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
@@ -769,137 +878,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,30 +1046,63 @@
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="10" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="10" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1519,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
+    <row r="2" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1555,7 +1697,7 @@
       </c>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
+    <row r="3" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
       <c r="A3" s="7">
         <v>10323544</v>
       </c>
@@ -1605,7 +1747,7 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
+    <row r="4" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
       <c r="A4" s="7">
         <v>10281254</v>
       </c>
@@ -1655,184 +1797,522 @@
         <v>0.0833333333333333</v>
       </c>
     </row>
-    <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1"/>
-    <row r="8" customFormat="1"/>
-    <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1"/>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1"/>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1"/>
+    <row r="5" ht="15.25"/>
+    <row r="6" ht="24.75" spans="1:15">
+      <c r="A6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" ht="15.25" spans="1:15">
+      <c r="A7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="16">
+        <v>40</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16">
+        <v>40</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16">
+        <v>40</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16">
+        <v>40</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16">
+        <v>40</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16">
+        <v>40</v>
+      </c>
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" ht="15.25" spans="1:15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="17">
+        <v>45930</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17">
+        <v>45931</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17">
+        <v>45932</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17">
+        <v>45933</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17">
+        <v>45934</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17">
+        <v>45935</v>
+      </c>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" ht="15.25" spans="1:15">
+      <c r="A10" s="18">
+        <v>10299936</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:15">
+      <c r="A11" s="18">
+        <v>10314789</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I11" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J11" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="1:15">
+      <c r="A12" s="18">
+        <v>10325095</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="1:15">
+      <c r="A13" s="18">
+        <v>10320445</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M13" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N13" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="O13" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="1:15">
+      <c r="A14" s="18">
+        <v>10314766</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M14" s="21">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="N14" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="O14" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
     <row r="17" ht="15.75" spans="1:16">
-      <c r="A17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="13" t="s">
+      <c r="A17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="13" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="13" t="s">
+      <c r="H17" s="25"/>
+      <c r="I17" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="13" t="s">
+      <c r="J17" s="25"/>
+      <c r="K17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="13" t="s">
+      <c r="L17" s="25"/>
+      <c r="M17" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="14"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="25"/>
     </row>
     <row r="18" ht="15.75" spans="1:16">
-      <c r="A18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="15" t="s">
-        <v>23</v>
+      <c r="A18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:16">
-      <c r="A19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="16">
+      <c r="A19" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="27">
         <v>45929</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16">
+      <c r="D19" s="28"/>
+      <c r="E19" s="27">
         <v>45930</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="16">
+      <c r="F19" s="28"/>
+      <c r="G19" s="27">
         <v>45931</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16">
+      <c r="H19" s="28"/>
+      <c r="I19" s="27">
         <v>45932</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="16">
+      <c r="J19" s="28"/>
+      <c r="K19" s="27">
         <v>45933</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="16">
+      <c r="L19" s="28"/>
+      <c r="M19" s="27">
         <v>45934</v>
       </c>
-      <c r="N19" s="17"/>
-      <c r="O19" s="16">
+      <c r="N19" s="28"/>
+      <c r="O19" s="27">
         <v>45935</v>
       </c>
-      <c r="P19" s="17"/>
+      <c r="P19" s="28"/>
     </row>
     <row r="20" ht="15.75" spans="1:16">
-      <c r="A20" s="18">
+      <c r="A20" s="29">
         <v>10317390</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="20">
+      <c r="B20" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="31">
         <v>0.375</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="31">
         <v>0.75</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="31">
         <v>0.375</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="31">
         <v>0.75</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="31">
         <v>0.75</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="31">
         <v>0.125</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="31">
         <v>0.333333333333333</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="31">
         <v>0.708333333333333</v>
       </c>
-      <c r="O20" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" s="20" t="s">
-        <v>26</v>
+      <c r="O20" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="31" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="45">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -1840,6 +2320,24 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
@@ -1857,6 +2355,9 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="O19:P19"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
   <si>
     <t>Trainers</t>
   </si>
@@ -38,28 +38,28 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Monday, September 29, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, September 30, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, October 1, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, October 2, 2025</t>
-  </si>
-  <si>
-    <t>Friday, October 3, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, October 4, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, October 5, 2025</t>
-  </si>
-  <si>
-    <t>Rawan Moftah</t>
+    <t>Monday, October 6, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, October 7, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, October 8, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, October 9, 2025</t>
+  </si>
+  <si>
+    <t>Friday, October 10, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, October 11, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, October 12, 2025</t>
+  </si>
+  <si>
+    <t>Janisse Saad</t>
   </si>
   <si>
     <t>OFF</t>
@@ -68,13 +68,13 @@
     <t>Abdelsalam Hisham</t>
   </si>
   <si>
-    <t>5th Settl</t>
+    <t>5th Sett</t>
   </si>
   <si>
     <t>HRID</t>
   </si>
   <si>
-    <t>Account</t>
+    <t>Mon</t>
   </si>
   <si>
     <t>Tue</t>
@@ -98,18 +98,12 @@
     <t>Hassan Osama</t>
   </si>
   <si>
-    <t>Airalo</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>Mohamed Aref Azzam</t>
   </si>
   <si>
-    <t>Ahmed Helal</t>
-  </si>
-  <si>
     <t>Joudi Moussa</t>
   </si>
   <si>
@@ -119,7 +113,7 @@
     <t>Day</t>
   </si>
   <si>
-    <t>Mon</t>
+    <t>Site</t>
   </si>
   <si>
     <t>Start vs End</t>
@@ -137,7 +131,7 @@
     <t>Ahmed Elsayed</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>Cairo 2 Site</t>
   </si>
 </sst>
 </file>
@@ -149,19 +143,11 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="31">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+  <fonts count="33">
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -178,21 +164,35 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF215A6C"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -217,12 +217,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Tahoma"/>
@@ -230,7 +224,19 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -378,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,13 +429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF7F7F7F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +632,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -692,6 +704,19 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -878,150 +903,147 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1036,74 +1058,83 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="20" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1643,10 +1674,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1656,502 +1687,475 @@
     <col min="3" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="32.75" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="6"/>
+      <c r="P2" s="5"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
-      <c r="A3" s="7">
-        <v>10323544</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A3" s="6">
+        <v>10326418</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="8">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="N3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M3" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="N3" s="9">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="O3" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="P3" s="9">
-        <v>0.833333333333333</v>
-      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
-      <c r="A4" s="7">
+    <row r="4" customFormat="1" spans="1:16">
+      <c r="A4" s="6">
         <v>10281254</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1"/>
+    <row r="7" customFormat="1" ht="24.75" spans="1:16">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17">
+        <v>41</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17">
+        <v>41</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17">
+        <v>41</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17">
+        <v>41</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17">
+        <v>41</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17">
+        <v>41</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
+        <v>41</v>
+      </c>
+      <c r="P8" s="17"/>
+    </row>
+    <row r="9" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="17"/>
+    </row>
+    <row r="10" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="18">
+        <v>45936</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18">
+        <v>45937</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18">
+        <v>45938</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18">
+        <v>45939</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18">
+        <v>45940</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18">
+        <v>45941</v>
+      </c>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18">
+        <v>45942</v>
+      </c>
+      <c r="P10" s="18"/>
+    </row>
+    <row r="11" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A11" s="19">
+        <v>10299936</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A12" s="19">
+        <v>10314789</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="N12" s="21">
         <v>0.708333333333333</v>
       </c>
-      <c r="H4" s="9">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="O12" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P12" s="21">
         <v>0.708333333333333</v>
       </c>
-      <c r="J4" s="9">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="K4" s="9">
+    </row>
+    <row r="13" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A13" s="19">
+        <v>10320445</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D13" s="21">
         <v>0.708333333333333</v>
       </c>
-      <c r="L4" s="9">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M4" s="9">
+      <c r="E13" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F13" s="21">
         <v>0.708333333333333</v>
       </c>
-      <c r="N4" s="9">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="O4" s="9">
+      <c r="G13" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H13" s="21">
         <v>0.708333333333333</v>
       </c>
-      <c r="P4" s="9">
-        <v>0.0833333333333333</v>
+      <c r="I13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="N13" s="21">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="O13" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="P13" s="21">
+        <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="5" ht="15.25"/>
-    <row r="6" ht="24.75" spans="1:15">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
+    <row r="14" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A14" s="19">
+        <v>10314766</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J14" s="21">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" ht="15.25" spans="1:15">
-      <c r="A7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="16">
-        <v>40</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16">
-        <v>40</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16">
-        <v>40</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16">
-        <v>40</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16">
-        <v>40</v>
-      </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16">
-        <v>40</v>
-      </c>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" ht="15.25" spans="1:15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="16"/>
-    </row>
-    <row r="9" ht="15.25" spans="1:15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17">
-        <v>45930</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17">
-        <v>45931</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17">
-        <v>45932</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17">
-        <v>45933</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17">
-        <v>45934</v>
-      </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17">
-        <v>45935</v>
-      </c>
-      <c r="O9" s="17"/>
-    </row>
-    <row r="10" ht="15.25" spans="1:15">
-      <c r="A10" s="18">
-        <v>10299936</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25" spans="1:15">
-      <c r="A11" s="18">
-        <v>10314789</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G11" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="H11" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I11" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J11" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K11" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="15.25" spans="1:15">
-      <c r="A12" s="18">
-        <v>10325095</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" ht="15.25" spans="1:15">
-      <c r="A13" s="18">
-        <v>10320445</v>
-      </c>
-      <c r="B13" s="19" t="s">
+    <row r="17" ht="15.75" spans="1:17">
+      <c r="A17" s="23" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G13" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M13" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N13" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="O13" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="14" ht="15.25" spans="1:15">
-      <c r="A14" s="18">
-        <v>10314766</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="M14" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="N14" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="O14" s="21">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" spans="1:16">
-      <c r="A17" s="23" t="s">
-        <v>29</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="24" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="24" t="s">
@@ -2178,141 +2182,149 @@
         <v>21</v>
       </c>
       <c r="P17" s="25"/>
+      <c r="Q17" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="18" ht="15.75" spans="1:16">
+    <row r="18" ht="15.75" spans="1:17">
       <c r="A18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="26" t="s">
+      <c r="E18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="33"/>
+    </row>
+    <row r="19" ht="15.75" spans="1:17">
+      <c r="A19" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="26">
+        <v>45936</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="26">
+        <v>45937</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="26">
+        <v>45938</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="26">
+        <v>45939</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="K19" s="26">
+        <v>45940</v>
+      </c>
+      <c r="L19" s="27"/>
+      <c r="M19" s="26">
+        <v>45941</v>
+      </c>
+      <c r="N19" s="27"/>
+      <c r="O19" s="26">
+        <v>45942</v>
+      </c>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="33"/>
+    </row>
+    <row r="20" ht="15.75" spans="1:17">
+      <c r="A20" s="28">
+        <v>10317390</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="1:16">
-      <c r="A19" s="23" t="s">
+      <c r="C20" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="30">
+        <v>0.875</v>
+      </c>
+      <c r="E20" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="30">
+        <v>0.875</v>
+      </c>
+      <c r="G20" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="30">
+        <v>0.875</v>
+      </c>
+      <c r="I20" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="30">
+        <v>0.875</v>
+      </c>
+      <c r="K20" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="30">
+        <v>0.875</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="29" t="s">
         <v>34</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="27">
-        <v>45929</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="27">
-        <v>45930</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="27">
-        <v>45931</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27">
-        <v>45932</v>
-      </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="27">
-        <v>45933</v>
-      </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="27">
-        <v>45934</v>
-      </c>
-      <c r="N19" s="28"/>
-      <c r="O19" s="27">
-        <v>45935</v>
-      </c>
-      <c r="P19" s="28"/>
-    </row>
-    <row r="20" ht="15.75" spans="1:16">
-      <c r="A20" s="29">
-        <v>10317390</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="31">
-        <v>0.375</v>
-      </c>
-      <c r="D20" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="E20" s="31">
-        <v>0.375</v>
-      </c>
-      <c r="F20" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="G20" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="H20" s="31">
-        <v>0.125</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="31">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="N20" s="31">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="O20" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="P20" s="31" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="48">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -2320,24 +2332,27 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
@@ -2355,9 +2370,9 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="O19:P19"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="Q17:Q19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
   <si>
     <t>Trainers</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Omar Sabry</t>
+  </si>
+  <si>
+    <t>Esraa Mohammed</t>
   </si>
   <si>
     <t>Day</t>
@@ -1033,7 +1036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1102,6 +1105,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -1677,7 +1689,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1778,7 +1790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:16">
+    <row r="4" customFormat="1" ht="15.25" spans="1:16">
       <c r="A4" s="6">
         <v>10281254</v>
       </c>
@@ -1828,7 +1840,7 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="5" customFormat="1"/>
+    <row r="6" ht="15.25"/>
     <row r="7" customFormat="1" ht="24.75" spans="1:16">
       <c r="A7" s="13" t="s">
         <v>13</v>
@@ -1968,11 +1980,11 @@
       <c r="F11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>23</v>
+      <c r="G11" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0.833333333333333</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>23</v>
@@ -2068,22 +2080,22 @@
       <c r="F13" s="21">
         <v>0.708333333333333</v>
       </c>
-      <c r="G13" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H13" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I13" s="31" t="s">
+      <c r="G13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="34" t="s">
         <v>11</v>
       </c>
       <c r="M13" s="21">
@@ -2149,178 +2161,228 @@
         <v>23</v>
       </c>
     </row>
+    <row r="15" ht="15.25" spans="1:16">
+      <c r="A15" s="23">
+        <v>10305318</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="17" ht="15.75" spans="1:17">
-      <c r="A17" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24" t="s">
+      <c r="A17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="24" t="s">
+      <c r="F17" s="28"/>
+      <c r="G17" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="24" t="s">
+      <c r="H17" s="28"/>
+      <c r="I17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="24" t="s">
+      <c r="J17" s="28"/>
+      <c r="K17" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="24" t="s">
+      <c r="L17" s="28"/>
+      <c r="M17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="25"/>
-      <c r="O17" s="24" t="s">
+      <c r="N17" s="28"/>
+      <c r="O17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="33" t="s">
-        <v>28</v>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="36" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:17">
-      <c r="A18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="25" t="s">
+      <c r="D18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="25" t="s">
+      <c r="F18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="25" t="s">
+      <c r="H18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="25" t="s">
+      <c r="J18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="25" t="s">
+      <c r="L18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="25" t="s">
+      <c r="N18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Q18" s="33"/>
+      <c r="P18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="36"/>
     </row>
     <row r="19" ht="15.75" spans="1:17">
-      <c r="A19" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="26">
+      <c r="A19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="29">
         <v>45936</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="26">
+      <c r="D19" s="30"/>
+      <c r="E19" s="29">
         <v>45937</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="26">
+      <c r="F19" s="30"/>
+      <c r="G19" s="29">
         <v>45938</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="26">
+      <c r="H19" s="30"/>
+      <c r="I19" s="29">
         <v>45939</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="26">
+      <c r="J19" s="30"/>
+      <c r="K19" s="29">
         <v>45940</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="26">
+      <c r="L19" s="30"/>
+      <c r="M19" s="29">
         <v>45941</v>
       </c>
-      <c r="N19" s="27"/>
-      <c r="O19" s="26">
+      <c r="N19" s="30"/>
+      <c r="O19" s="29">
         <v>45942</v>
       </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="33"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="36"/>
     </row>
     <row r="20" ht="15.75" spans="1:17">
-      <c r="A20" s="28">
+      <c r="A20" s="31">
         <v>10317390</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="30">
+      <c r="B20" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="33">
         <v>0.5</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="33">
         <v>0.875</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="33">
         <v>0.5</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="33">
         <v>0.875</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="33">
         <v>0.5</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="33">
         <v>0.875</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="33">
         <v>0.5</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="33">
         <v>0.875</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="33">
         <v>0.5</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="33">
         <v>0.875</v>
       </c>
-      <c r="M20" s="32" t="s">
+      <c r="M20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="32" t="s">
+      <c r="N20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="O20" s="32" t="s">
+      <c r="O20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
+      <c r="P20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="Q20" s="29" t="s">
-        <v>34</v>
+      <c r="Q20" s="32" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="34">
   <si>
     <t>Trainers</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Day</t>
   </si>
   <si>
-    <t>Site</t>
-  </si>
-  <si>
     <t>Start vs End</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
   </si>
   <si>
     <t>Ahmed Elsayed</t>
-  </si>
-  <si>
-    <t>Cairo 2 Site</t>
   </si>
 </sst>
 </file>
@@ -387,7 +381,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,12 +433,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7F7F7F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,7 +900,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,16 +924,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -954,89 +942,89 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,9 +1132,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1686,7 +1671,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
@@ -1699,12 +1684,12 @@
     <col min="3" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.75" customHeight="1" spans="1:1">
+    <row r="1" ht="33.5" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.25" spans="1:16">
+    <row r="2" customFormat="1" ht="16" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1740,7 +1725,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" customFormat="1" ht="15.25" spans="1:16">
+    <row r="3" customFormat="1" ht="16" customHeight="1" spans="1:16">
       <c r="A3" s="6">
         <v>10326418</v>
       </c>
@@ -2211,7 +2196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="1:17">
+    <row r="17" ht="15.75" spans="1:16">
       <c r="A17" s="26" t="s">
         <v>28</v>
       </c>
@@ -2244,62 +2229,58 @@
         <v>21</v>
       </c>
       <c r="P17" s="28"/>
-      <c r="Q17" s="36" t="s">
+    </row>
+    <row r="18" ht="15.75" spans="1:16">
+      <c r="A18" s="26" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" spans="1:17">
-      <c r="A18" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="E18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="1:16">
+      <c r="A19" s="26" t="s">
         <v>32</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="36"/>
-    </row>
-    <row r="19" ht="15.75" spans="1:17">
-      <c r="A19" s="26" t="s">
-        <v>33</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="29">
@@ -2330,14 +2311,13 @@
         <v>45942</v>
       </c>
       <c r="P19" s="30"/>
-      <c r="Q19" s="36"/>
     </row>
-    <row r="20" ht="15.75" spans="1:17">
+    <row r="20" ht="15.75" spans="1:16">
       <c r="A20" s="31">
         <v>10317390</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="33">
         <v>0.5</v>
@@ -2381,12 +2361,175 @@
       <c r="P20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="Q20" s="32" t="s">
-        <v>35</v>
+    </row>
+    <row r="25" ht="15.75" spans="1:16">
+      <c r="A25" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="28"/>
+      <c r="I25" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="28"/>
+      <c r="M25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="28"/>
+      <c r="O25" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="28"/>
+    </row>
+    <row r="26" ht="15.75" spans="1:16">
+      <c r="A26" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="1:16">
+      <c r="A27" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="29">
+        <v>45943</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="29">
+        <v>45944</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="29">
+        <v>45945</v>
+      </c>
+      <c r="H27" s="30"/>
+      <c r="I27" s="29">
+        <v>45946</v>
+      </c>
+      <c r="J27" s="30"/>
+      <c r="K27" s="29">
+        <v>45947</v>
+      </c>
+      <c r="L27" s="30"/>
+      <c r="M27" s="29">
+        <v>45948</v>
+      </c>
+      <c r="N27" s="30"/>
+      <c r="O27" s="29">
+        <v>45949</v>
+      </c>
+      <c r="P27" s="30"/>
+    </row>
+    <row r="28" ht="15.75" spans="1:16">
+      <c r="A28" s="31">
+        <v>10317390</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D28" s="33">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E28" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F28" s="33">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G28" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H28" s="33">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I28" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J28" s="33">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K28" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L28" s="33">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="M28" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="O28" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="35" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="64">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -2432,9 +2575,25 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="O19:P19"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="Q17:Q19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="37">
   <si>
     <t>Trainers</t>
   </si>
@@ -38,37 +38,40 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Monday, October 6, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, October 7, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, October 8, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, October 9, 2025</t>
-  </si>
-  <si>
-    <t>Friday, October 10, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, October 11, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, October 12, 2025</t>
+    <t>Monday, October 13, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, October 14, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, October 15, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, October 16, 2025</t>
+  </si>
+  <si>
+    <t>Friday, October 17, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, October 18, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, October 19, 2025</t>
+  </si>
+  <si>
+    <t>Abdelsalam Hisham</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>AN</t>
   </si>
   <si>
     <t>Janisse Saad</t>
   </si>
   <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Abdelsalam Hisham</t>
-  </si>
-  <si>
-    <t>5th Sett</t>
+    <t>5th Sett.</t>
   </si>
   <si>
     <t>HRID</t>
@@ -95,12 +98,15 @@
     <t>Sun</t>
   </si>
   <si>
+    <t>Esraa Mohammed</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Hassan Osama</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Mohamed Aref Azzam</t>
   </si>
   <si>
@@ -110,9 +116,6 @@
     <t>Omar Sabry</t>
   </si>
   <si>
-    <t>Esraa Mohammed</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -129,6 +132,12 @@
   </si>
   <si>
     <t>Ahmed Elsayed</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Cairo 2 Site</t>
   </si>
 </sst>
 </file>
@@ -143,7 +152,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,13 +193,19 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF215A6C"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF215A6C"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -214,6 +229,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Tahoma"/>
@@ -231,9 +258,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -381,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,6 +441,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -426,13 +465,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7F7F7F"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +686,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -715,13 +778,28 @@
     </border>
     <border>
       <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -739,7 +817,7 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,137 +972,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1049,89 +1127,110 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="16" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1671,7 +1770,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
@@ -1684,12 +1783,12 @@
     <col min="3" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.5" customHeight="1" spans="1:1">
+    <row r="1" ht="34.25" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="16" customHeight="1" spans="1:16">
+    <row r="2" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1725,233 +1824,281 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" customFormat="1" ht="16" customHeight="1" spans="1:16">
+    <row r="3" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
       <c r="A3" s="6">
-        <v>10326418</v>
+        <v>10281254</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="16" customHeight="1" spans="1:16">
+      <c r="A4" s="6">
+        <v>10326418</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10">
         <v>0.708333333333333</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D4" s="10">
         <v>0.0833333333333333</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E4" s="10">
         <v>0.708333333333333</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F4" s="10">
         <v>0.0833333333333333</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G4" s="10">
         <v>0.708333333333333</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H4" s="10">
         <v>0.0833333333333333</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I4" s="10">
         <v>0.708333333333333</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J4" s="10">
         <v>0.0833333333333333</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K4" s="10">
         <v>0.708333333333333</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L4" s="10">
         <v>0.0833333333333333</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P4" s="39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A4" s="6">
-        <v>10281254</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="O4" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0.833333333333333</v>
-      </c>
+    <row r="5" ht="15.25"/>
+    <row r="6" customFormat="1" ht="24.75" spans="1:16">
+      <c r="A6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
     </row>
-    <row r="6" ht="15.25"/>
-    <row r="7" customFormat="1" ht="24.75" spans="1:16">
-      <c r="A7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+    <row r="7" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="16">
+        <v>42</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16">
+        <v>42</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16">
+        <v>42</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16">
+        <v>42</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16">
+        <v>42</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16">
+        <v>42</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
+        <v>42</v>
+      </c>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="17">
-        <v>41</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17">
-        <v>41</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17">
-        <v>41</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17">
-        <v>41</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17">
-        <v>41</v>
-      </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17">
-        <v>41</v>
-      </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
-        <v>41</v>
-      </c>
-      <c r="P8" s="17"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
-        <v>15</v>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="17">
+        <v>45943</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
-        <v>16</v>
+      <c r="E9" s="17">
+        <v>45944</v>
       </c>
       <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
-        <v>17</v>
+      <c r="G9" s="17">
+        <v>45945</v>
       </c>
       <c r="H9" s="17"/>
-      <c r="I9" s="17" t="s">
-        <v>18</v>
+      <c r="I9" s="17">
+        <v>45946</v>
       </c>
       <c r="J9" s="17"/>
-      <c r="K9" s="17" t="s">
-        <v>19</v>
+      <c r="K9" s="17">
+        <v>45947</v>
       </c>
       <c r="L9" s="17"/>
-      <c r="M9" s="17" t="s">
-        <v>20</v>
+      <c r="M9" s="17">
+        <v>45948</v>
       </c>
       <c r="N9" s="17"/>
-      <c r="O9" s="17" t="s">
-        <v>21</v>
+      <c r="O9" s="17">
+        <v>45949</v>
       </c>
       <c r="P9" s="17"/>
     </row>
     <row r="10" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="18">
-        <v>45936</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18">
-        <v>45937</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18">
-        <v>45938</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18">
-        <v>45939</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18">
-        <v>45940</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18">
-        <v>45941</v>
-      </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18">
-        <v>45942</v>
-      </c>
-      <c r="P10" s="18"/>
+      <c r="A10" s="18">
+        <v>10305318</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L10" s="21">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="P10" s="21">
+        <v>0.833333333333333</v>
+      </c>
     </row>
     <row r="11" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>10299936</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>22</v>
+      <c r="B11" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="21">
         <v>0.458333333333333</v>
@@ -1959,79 +2106,79 @@
       <c r="D11" s="21">
         <v>0.833333333333333</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="21">
+      <c r="E11" s="21">
         <v>0.458333333333333</v>
       </c>
-      <c r="H11" s="21">
+      <c r="F11" s="21">
         <v>0.833333333333333</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>23</v>
+      <c r="G11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>10314789</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>23</v>
+      <c r="B12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L12" s="21">
+        <v>0.708333333333333</v>
       </c>
       <c r="M12" s="21">
         <v>0.333333333333333</v>
@@ -2047,11 +2194,11 @@
       </c>
     </row>
     <row r="13" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>10320445</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>25</v>
+      <c r="B13" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="21">
         <v>0.333333333333333</v>
@@ -2059,67 +2206,67 @@
       <c r="D13" s="21">
         <v>0.708333333333333</v>
       </c>
-      <c r="E13" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="21">
+      <c r="E13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="21">
         <v>0.458333333333333</v>
       </c>
-      <c r="N13" s="21">
+      <c r="H13" s="21">
         <v>0.833333333333333</v>
       </c>
-      <c r="O13" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="P13" s="21">
-        <v>0.833333333333333</v>
+      <c r="I13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>10314766</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>23</v>
+      <c r="B14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="I14" s="21">
         <v>0.458333333333333</v>
@@ -2127,409 +2274,395 @@
       <c r="J14" s="21">
         <v>0.833333333333333</v>
       </c>
-      <c r="K14" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L14" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>23</v>
+      <c r="K14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N14" s="21">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="15" ht="15.25" spans="1:16">
-      <c r="A15" s="23">
-        <v>10305318</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="H15" s="25">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="22" t="s">
-        <v>23</v>
-      </c>
+    <row r="16" ht="15.75" spans="1:16">
+      <c r="A16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="26"/>
+      <c r="M16" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="26"/>
+      <c r="O16" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="26"/>
     </row>
     <row r="17" ht="15.75" spans="1:16">
-      <c r="A17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="28"/>
+      <c r="A17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" ht="15.75" spans="1:16">
-      <c r="A18" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="28" t="s">
-        <v>31</v>
-      </c>
+      <c r="A18" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="27">
+        <v>45943</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="27">
+        <v>45944</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="27">
+        <v>45945</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27">
+        <v>45946</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="27">
+        <v>45947</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="27">
+        <v>45948</v>
+      </c>
+      <c r="N18" s="28"/>
+      <c r="O18" s="27">
+        <v>45949</v>
+      </c>
+      <c r="P18" s="28"/>
     </row>
     <row r="19" ht="15.75" spans="1:16">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="29">
+        <v>10317390</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D19" s="31">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E19" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F19" s="31">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G19" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H19" s="31">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I19" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J19" s="31">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K19" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L19" s="31">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="1:17">
+      <c r="A23" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="1:17">
+      <c r="A24" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="29">
-        <v>45936</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29">
-        <v>45937</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="29">
-        <v>45938</v>
-      </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="29">
-        <v>45939</v>
-      </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="29">
-        <v>45940</v>
-      </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="29">
-        <v>45941</v>
-      </c>
-      <c r="N19" s="30"/>
-      <c r="O19" s="29">
-        <v>45942</v>
-      </c>
-      <c r="P19" s="30"/>
+      <c r="E24" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="42"/>
     </row>
-    <row r="20" ht="15.75" spans="1:16">
-      <c r="A20" s="31">
+    <row r="25" ht="15.25" spans="1:17">
+      <c r="A25" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="35">
+        <v>45950</v>
+      </c>
+      <c r="D25" s="35">
+        <v>45950</v>
+      </c>
+      <c r="E25" s="35">
+        <v>45951</v>
+      </c>
+      <c r="F25" s="35">
+        <v>45951</v>
+      </c>
+      <c r="G25" s="35">
+        <v>45952</v>
+      </c>
+      <c r="H25" s="35">
+        <v>45952</v>
+      </c>
+      <c r="I25" s="35">
+        <v>45953</v>
+      </c>
+      <c r="J25" s="35">
+        <v>45953</v>
+      </c>
+      <c r="K25" s="35">
+        <v>45954</v>
+      </c>
+      <c r="L25" s="35">
+        <v>45954</v>
+      </c>
+      <c r="M25" s="35">
+        <v>45955</v>
+      </c>
+      <c r="N25" s="35">
+        <v>45955</v>
+      </c>
+      <c r="O25" s="35">
+        <v>45956</v>
+      </c>
+      <c r="P25" s="35">
+        <v>45956</v>
+      </c>
+      <c r="Q25" s="42"/>
+    </row>
+    <row r="26" ht="15.25" spans="1:17">
+      <c r="A26" s="36">
         <v>10317390</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="33">
-        <v>0.875</v>
-      </c>
-      <c r="E20" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="33">
-        <v>0.875</v>
-      </c>
-      <c r="G20" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="33">
-        <v>0.875</v>
-      </c>
-      <c r="I20" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="J20" s="33">
-        <v>0.875</v>
-      </c>
-      <c r="K20" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="L20" s="33">
-        <v>0.875</v>
-      </c>
-      <c r="M20" s="35" t="s">
+      <c r="B26" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="38">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D26" s="38">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E26" s="38">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F26" s="38">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G26" s="38">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H26" s="38">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I26" s="38">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J26" s="38">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K26" s="38">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L26" s="38">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="M26" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="35" t="s">
+      <c r="N26" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="O20" s="35" t="s">
+      <c r="O26" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="35" t="s">
+      <c r="P26" s="41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" ht="15.75" spans="1:16">
-      <c r="A25" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="28"/>
-      <c r="M25" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N25" s="28"/>
-      <c r="O25" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="28"/>
-    </row>
-    <row r="26" ht="15.75" spans="1:16">
-      <c r="A26" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="O26" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="P26" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" spans="1:16">
-      <c r="A27" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="29">
-        <v>45943</v>
-      </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="29">
-        <v>45944</v>
-      </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="29">
-        <v>45945</v>
-      </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="29">
-        <v>45946</v>
-      </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="29">
-        <v>45947</v>
-      </c>
-      <c r="L27" s="30"/>
-      <c r="M27" s="29">
-        <v>45948</v>
-      </c>
-      <c r="N27" s="30"/>
-      <c r="O27" s="29">
-        <v>45949</v>
-      </c>
-      <c r="P27" s="30"/>
-    </row>
-    <row r="28" ht="15.75" spans="1:16">
-      <c r="A28" s="31">
-        <v>10317390</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D28" s="33">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E28" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="F28" s="33">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="G28" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="H28" s="33">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="I28" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J28" s="33">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K28" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L28" s="33">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="M28" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="N28" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="O28" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="35" t="s">
-        <v>11</v>
+      <c r="Q26" s="37" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="51">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -2537,6 +2670,13 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -2551,49 +2691,29 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="Q23:Q25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
   <si>
     <t>Trainers</t>
   </si>
@@ -38,25 +38,25 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Monday, October 13, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, October 14, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, October 15, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, October 16, 2025</t>
-  </si>
-  <si>
-    <t>Friday, October 17, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, October 18, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, October 19, 2025</t>
+    <t>Monday, October 20, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, October 21, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, October 22, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, October 23, 2025</t>
+  </si>
+  <si>
+    <t>Friday, October 24, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, October 25, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, October 26, 2025</t>
   </si>
   <si>
     <t>Abdelsalam Hisham</t>
@@ -65,13 +65,10 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>AN</t>
-  </si>
-  <si>
     <t>Janisse Saad</t>
   </si>
   <si>
-    <t>5th Sett.</t>
+    <t>5th Sett</t>
   </si>
   <si>
     <t>HRID</t>
@@ -98,22 +95,19 @@
     <t>Sun</t>
   </si>
   <si>
-    <t>Esraa Mohammed</t>
+    <t>Hassan Osama</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Hassan Osama</t>
-  </si>
-  <si>
     <t>Mohamed Aref Azzam</t>
   </si>
   <si>
-    <t>Joudi Moussa</t>
-  </si>
-  <si>
-    <t>Omar Sabry</t>
+    <t>Ahmed Helal</t>
+  </si>
+  <si>
+    <t>Yara Ayman</t>
   </si>
   <si>
     <t>Day</t>
@@ -132,12 +126,6 @@
   </si>
   <si>
     <t>Ahmed Elsayed</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Cairo 2 Site</t>
   </si>
 </sst>
 </file>
@@ -152,7 +140,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,12 +182,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF215A6C"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF3D3D3D"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -241,19 +223,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -265,7 +236,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -414,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,12 +411,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -465,12 +429,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF7F7F7F"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -483,19 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +632,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -778,28 +724,13 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -817,7 +748,7 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,141 +903,147 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,107 +1067,71 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="20" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="16" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="17" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1240,7 +1141,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1770,7 +1671,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
@@ -1783,886 +1684,635 @@
     <col min="3" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.25" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="4" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="5"/>
+      <c r="P2" s="7"/>
     </row>
-    <row r="3" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
-      <c r="A3" s="6">
+    <row r="3" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
+      <c r="A3" s="8">
         <v>10281254</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="P3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
+      <c r="A4" s="8">
+        <v>10326418</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0</v>
-      </c>
-      <c r="M3" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0</v>
-      </c>
-      <c r="O3" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="P3" s="10">
-        <v>0</v>
+      <c r="C4" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="16" customHeight="1" spans="1:16">
-      <c r="A4" s="6">
-        <v>10326418</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="5" s="2" customFormat="1" ht="24.75" spans="1:16">
+      <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="39" t="s">
-        <v>11</v>
-      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
     </row>
-    <row r="5" ht="15.25"/>
-    <row r="6" customFormat="1" ht="24.75" spans="1:16">
-      <c r="A6" s="11" t="s">
+    <row r="6" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16">
+        <v>42</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16">
+        <v>42</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16">
+        <v>42</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16">
+        <v>42</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16">
+        <v>42</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16">
+        <v>42</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16">
+        <v>42</v>
+      </c>
+      <c r="P6" s="16"/>
     </row>
-    <row r="7" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A7" s="14" t="s">
+    <row r="7" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="16">
-        <v>42</v>
-      </c>
       <c r="D7" s="16"/>
-      <c r="E7" s="16">
-        <v>42</v>
+      <c r="E7" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="16">
-        <v>42</v>
+      <c r="G7" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="H7" s="16"/>
-      <c r="I7" s="16">
-        <v>42</v>
+      <c r="I7" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="J7" s="16"/>
-      <c r="K7" s="16">
-        <v>42</v>
+      <c r="K7" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="L7" s="16"/>
-      <c r="M7" s="16">
-        <v>42</v>
+      <c r="M7" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="N7" s="16"/>
-      <c r="O7" s="16">
-        <v>42</v>
+      <c r="O7" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="P7" s="16"/>
     </row>
-    <row r="8" customFormat="1" ht="15.25" spans="1:16">
+    <row r="8" s="2" customFormat="1" ht="15.25" spans="1:16">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16" t="s">
+      <c r="C8" s="17">
+        <v>45950</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17">
+        <v>45951</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17">
+        <v>45952</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17">
+        <v>45953</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17">
+        <v>45954</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17">
+        <v>45955</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
+        <v>45956</v>
+      </c>
+      <c r="P8" s="17"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A9" s="18">
+        <v>10299936</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="16"/>
+      <c r="C9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N9" s="21">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="O9" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="P9" s="21">
+        <v>0.0833333333333333</v>
+      </c>
     </row>
-    <row r="9" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="17">
-        <v>45943</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17">
-        <v>45944</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17">
-        <v>45945</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17">
-        <v>45946</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17">
-        <v>45947</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17">
-        <v>45948</v>
-      </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17">
-        <v>45949</v>
-      </c>
-      <c r="P9" s="17"/>
+    <row r="10" s="2" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A10" s="18">
+        <v>10314789</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J10" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L10" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="M10" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="N10" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="O10" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P10" s="21">
+        <v>0.708333333333333</v>
+      </c>
     </row>
-    <row r="10" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A10" s="18">
-        <v>10305318</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L10" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="P10" s="21">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="15.25" spans="1:16">
+    <row r="11" s="2" customFormat="1" ht="15.25" spans="1:16">
       <c r="A11" s="18">
-        <v>10299936</v>
+        <v>10325095</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="21">
-        <v>0.458333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="D11" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>24</v>
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15.25" spans="1:16">
+    <row r="12" s="2" customFormat="1" ht="15.25" spans="1:16">
       <c r="A12" s="18">
-        <v>10314789</v>
+        <v>10307944</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I12" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="24"/>
+      <c r="M14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="24"/>
+      <c r="O14" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="26">
+        <v>45950</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="26">
+        <v>45951</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="26">
+        <v>45952</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="26">
+        <v>45953</v>
+      </c>
+      <c r="J16" s="27"/>
+      <c r="K16" s="26">
+        <v>45954</v>
+      </c>
+      <c r="L16" s="27"/>
+      <c r="M16" s="26">
+        <v>45955</v>
+      </c>
+      <c r="N16" s="27"/>
+      <c r="O16" s="26">
+        <v>45956</v>
+      </c>
+      <c r="P16" s="27"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A17" s="28">
+        <v>10317390</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="30">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D17" s="30">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F17" s="30">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G17" s="30">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H17" s="30">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I17" s="30">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J17" s="30">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K17" s="30">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L17" s="30">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="M17" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="N17" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="O17" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="P17" s="32" t="s">
         <v>11</v>
-      </c>
-      <c r="G12" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H12" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L12" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="M12" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="N12" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="O12" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="P12" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A13" s="18">
-        <v>10320445</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H13" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A14" s="18">
-        <v>10314766</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J14" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N14" s="21">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="O14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" spans="1:16">
-      <c r="A16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" s="26"/>
-    </row>
-    <row r="17" ht="15.75" spans="1:16">
-      <c r="A17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" spans="1:16">
-      <c r="A18" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="27">
-        <v>45943</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="27">
-        <v>45944</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="27">
-        <v>45945</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27">
-        <v>45946</v>
-      </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="27">
-        <v>45947</v>
-      </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="27">
-        <v>45948</v>
-      </c>
-      <c r="N18" s="28"/>
-      <c r="O18" s="27">
-        <v>45949</v>
-      </c>
-      <c r="P18" s="28"/>
-    </row>
-    <row r="19" ht="15.75" spans="1:16">
-      <c r="A19" s="29">
-        <v>10317390</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="31">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D19" s="31">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E19" s="31">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="F19" s="31">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="G19" s="31">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="H19" s="31">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="I19" s="31">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J19" s="31">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K19" s="31">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L19" s="31">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="M19" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="O19" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25" spans="1:17">
-      <c r="A23" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25" spans="1:17">
-      <c r="A24" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="P24" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="42"/>
-    </row>
-    <row r="25" ht="15.25" spans="1:17">
-      <c r="A25" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="35">
-        <v>45950</v>
-      </c>
-      <c r="D25" s="35">
-        <v>45950</v>
-      </c>
-      <c r="E25" s="35">
-        <v>45951</v>
-      </c>
-      <c r="F25" s="35">
-        <v>45951</v>
-      </c>
-      <c r="G25" s="35">
-        <v>45952</v>
-      </c>
-      <c r="H25" s="35">
-        <v>45952</v>
-      </c>
-      <c r="I25" s="35">
-        <v>45953</v>
-      </c>
-      <c r="J25" s="35">
-        <v>45953</v>
-      </c>
-      <c r="K25" s="35">
-        <v>45954</v>
-      </c>
-      <c r="L25" s="35">
-        <v>45954</v>
-      </c>
-      <c r="M25" s="35">
-        <v>45955</v>
-      </c>
-      <c r="N25" s="35">
-        <v>45955</v>
-      </c>
-      <c r="O25" s="35">
-        <v>45956</v>
-      </c>
-      <c r="P25" s="35">
-        <v>45956</v>
-      </c>
-      <c r="Q25" s="42"/>
-    </row>
-    <row r="26" ht="15.25" spans="1:17">
-      <c r="A26" s="36">
-        <v>10317390</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="38">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D26" s="38">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E26" s="38">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="F26" s="38">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="G26" s="38">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="H26" s="38">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="I26" s="38">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J26" s="38">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K26" s="38">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L26" s="38">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="M26" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="N26" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="O26" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="P26" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="37" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="47">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -2670,6 +2320,13 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
@@ -2684,13 +2341,15 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
@@ -2699,21 +2358,8 @@
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="O16:P16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
   <si>
     <t>Trainers</t>
   </si>
@@ -68,64 +68,70 @@
     <t>Janisse Saad</t>
   </si>
   <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Start vs End</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Ahmed Elsayed</t>
+  </si>
+  <si>
+    <t>Cairo 2</t>
+  </si>
+  <si>
+    <t>Mohamed Youssef</t>
+  </si>
+  <si>
     <t>5th Sett</t>
   </si>
   <si>
     <t>HRID</t>
   </si>
   <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Tue</t>
-  </si>
-  <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>Thu</t>
-  </si>
-  <si>
-    <t>Fri</t>
-  </si>
-  <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
     <t>Hassan Osama</t>
   </si>
   <si>
+    <t>Mohamed Aref Azzam</t>
+  </si>
+  <si>
+    <t>Yara Ayman</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Mohamed Aref Azzam</t>
-  </si>
-  <si>
-    <t>Ahmed Helal</t>
-  </si>
-  <si>
-    <t>Yara Ayman</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Start vs End</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Ahmed Elsayed</t>
   </si>
 </sst>
 </file>
@@ -140,7 +146,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +195,18 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -199,20 +217,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -220,23 +232,6 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -384,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +406,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -429,19 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7F7F7F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +633,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -724,6 +725,30 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
@@ -748,40 +773,7 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,145 +895,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1071,67 +1060,64 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1671,10 +1657,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+      <selection activeCell="A16" sqref="A16:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1684,635 +1670,675 @@
     <col min="3" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="20.75" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="1" ht="19.75" customHeight="1" spans="1:16">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="6"/>
     </row>
-    <row r="3" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
-      <c r="A3" s="8">
+    <row r="3" customFormat="1" ht="19.75" customHeight="1" spans="1:16">
+      <c r="A3" s="7">
         <v>10281254</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>0.458333333333333</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="10">
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="16.75" customHeight="1" spans="1:16">
-      <c r="A4" s="8">
+    <row r="4" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
+      <c r="A4" s="7">
         <v>10326418</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.708333333333333</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>0.0833333333333333</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>0.708333333333333</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>0.0833333333333333</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>0.708333333333333</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>0.0833333333333333</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>0.708333333333333</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>0.0833333333333333</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>0.708333333333333</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>0.0833333333333333</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="24.75" spans="1:16">
-      <c r="A5" s="12" t="s">
+    <row r="6" spans="1:17">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A6" s="14" t="s">
+    <row r="7" spans="1:17">
+      <c r="A7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="30"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14">
+        <v>45957</v>
+      </c>
+      <c r="D8" s="14">
+        <v>45957</v>
+      </c>
+      <c r="E8" s="14">
+        <v>45958</v>
+      </c>
+      <c r="F8" s="14">
+        <v>45958</v>
+      </c>
+      <c r="G8" s="14">
+        <v>45959</v>
+      </c>
+      <c r="H8" s="14">
+        <v>45959</v>
+      </c>
+      <c r="I8" s="14">
+        <v>45960</v>
+      </c>
+      <c r="J8" s="14">
+        <v>45960</v>
+      </c>
+      <c r="K8" s="14">
+        <v>45961</v>
+      </c>
+      <c r="L8" s="14">
+        <v>45961</v>
+      </c>
+      <c r="M8" s="14">
+        <v>45962</v>
+      </c>
+      <c r="N8" s="14">
+        <v>45962</v>
+      </c>
+      <c r="O8" s="14">
+        <v>45963</v>
+      </c>
+      <c r="P8" s="14">
+        <v>45963</v>
+      </c>
+      <c r="Q8" s="30"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="15">
+        <v>10317390</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L9" s="17">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="15">
+        <v>10324909</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" ht="24.75" spans="1:17">
+      <c r="A12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+    </row>
+    <row r="13" ht="15.25" spans="1:16">
+      <c r="A13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="22">
+        <v>44</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22">
+        <v>44</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22">
+        <v>44</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22">
+        <v>44</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22">
+        <v>44</v>
+      </c>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22">
+        <v>44</v>
+      </c>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22">
+        <v>44</v>
+      </c>
+      <c r="P13" s="22"/>
+    </row>
+    <row r="14" ht="15.25" spans="1:16">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="16">
-        <v>42</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16">
-        <v>42</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16">
-        <v>42</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16">
-        <v>42</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16">
-        <v>42</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16">
-        <v>42</v>
-      </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16">
-        <v>42</v>
-      </c>
-      <c r="P6" s="16"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="22"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="16"/>
+    <row r="15" spans="1:16">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="23">
+        <v>45957</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23">
+        <v>45958</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23">
+        <v>45959</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23">
+        <v>45960</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23">
+        <v>45961</v>
+      </c>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23">
+        <v>45962</v>
+      </c>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23">
+        <v>45963</v>
+      </c>
+      <c r="P15" s="23"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="17">
-        <v>45950</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17">
-        <v>45951</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17">
-        <v>45952</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17">
-        <v>45953</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17">
-        <v>45954</v>
-      </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17">
-        <v>45955</v>
-      </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
-        <v>45956</v>
-      </c>
-      <c r="P8" s="17"/>
+    <row r="16" ht="15.25" spans="1:16">
+      <c r="A16" s="24">
+        <v>10299936</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D16" s="26">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I16" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J16" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="K16" s="26">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="L16" s="26">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A9" s="18">
-        <v>10299936</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="21">
+    <row r="17" ht="15.25" spans="1:16">
+      <c r="A17" s="24">
+        <v>10314789</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I17" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J17" s="26">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K17" s="26">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="L17" s="26">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="M17" s="26">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="N17" s="26">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="O17" s="26">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="P17" s="26">
+        <v>0.916666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="24">
+        <v>10307944</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="26">
         <v>0.708333333333333</v>
       </c>
-      <c r="N9" s="21">
+      <c r="F18" s="26">
         <v>0.0833333333333333</v>
       </c>
-      <c r="O9" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="P9" s="21">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A10" s="18">
-        <v>10314789</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H10" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I10" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J10" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="K10" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L10" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="M10" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="N10" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="O10" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="P10" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A11" s="18">
-        <v>10325095</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D11" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A12" s="18">
-        <v>10307944</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G12" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H12" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I12" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J12" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="24"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A15" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A16" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="26">
-        <v>45950</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="26">
-        <v>45951</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="26">
-        <v>45952</v>
-      </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="26">
-        <v>45953</v>
-      </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="26">
-        <v>45954</v>
-      </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="26">
-        <v>45955</v>
-      </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="26">
-        <v>45956</v>
-      </c>
-      <c r="P16" s="27"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:16">
-      <c r="A17" s="28">
-        <v>10317390</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D17" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E17" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="F17" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="G17" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="H17" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="I17" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J17" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K17" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L17" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="M17" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="N17" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="O17" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="32" t="s">
-        <v>11</v>
+      <c r="G18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="34">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -2320,28 +2346,16 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -2349,17 +2363,16 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="Q6:Q8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -1025,7 +1025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1114,6 +1114,12 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,7 +1666,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D18"/>
+      <selection activeCell="A9" sqref="A9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1670,12 +1676,12 @@
     <col min="3" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.75" customHeight="1" spans="1:1">
+    <row r="1" s="1" customFormat="1" ht="21.5" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="19.75" customHeight="1" spans="1:16">
+    <row r="2" customFormat="1" ht="20.5" customHeight="1" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1711,7 +1717,7 @@
       </c>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" customFormat="1" ht="19.75" customHeight="1" spans="1:16">
+    <row r="3" customFormat="1" ht="20.5" customHeight="1" spans="1:16">
       <c r="A3" s="7">
         <v>10281254</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" ht="15.25" spans="1:17">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -1858,11 +1864,11 @@
       <c r="P6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" ht="15.25" spans="1:17">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
@@ -1909,9 +1915,9 @@
       <c r="P7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="30"/>
+      <c r="Q7" s="32"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" ht="15.25" spans="1:17">
       <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
@@ -1958,9 +1964,9 @@
       <c r="P8" s="14">
         <v>45963</v>
       </c>
-      <c r="Q8" s="30"/>
+      <c r="Q8" s="32"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" ht="15.25" spans="1:17">
       <c r="A9" s="15">
         <v>10317390</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" ht="15.25" spans="1:17">
       <c r="A10" s="15">
         <v>10324909</v>
       </c>
@@ -2066,6 +2072,7 @@
         <v>27</v>
       </c>
     </row>
+    <row r="11" ht="15.25"/>
     <row r="12" ht="24.75" spans="1:17">
       <c r="A12" s="18" t="s">
         <v>29</v>
@@ -2155,7 +2162,7 @@
       </c>
       <c r="P14" s="22"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" ht="15.25" spans="1:16">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23">
@@ -2218,22 +2225,22 @@
       <c r="J16" s="26">
         <v>0.0833333333333333</v>
       </c>
-      <c r="K16" s="26">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L16" s="26">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="M16" s="27" t="s">
+      <c r="K16" s="30">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L16" s="30">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="M16" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="27" t="s">
+      <c r="N16" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="27" t="s">
+      <c r="O16" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P16" s="27" t="s">
+      <c r="P16" s="31" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2268,26 +2275,26 @@
       <c r="J17" s="26">
         <v>0.958333333333333</v>
       </c>
-      <c r="K17" s="26">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="L17" s="26">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="M17" s="26">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="N17" s="26">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="O17" s="26">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="P17" s="26">
-        <v>0.916666666666667</v>
+      <c r="K17" s="30">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L17" s="30">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M17" s="30">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="N17" s="30">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="O17" s="30">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="P17" s="30">
+        <v>0.958333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" ht="15.25" spans="1:16">
       <c r="A18" s="24">
         <v>10307944</v>
       </c>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
   <si>
     <t>Trainers</t>
   </si>
@@ -68,30 +68,48 @@
     <t>Janisse Saad</t>
   </si>
   <si>
+    <t>5th Sett</t>
+  </si>
+  <si>
+    <t>HRID</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Hassan Osama</t>
+  </si>
+  <si>
+    <t>Mohamed Aref Azzam</t>
+  </si>
+  <si>
+    <t>Ahmed Helal</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Day</t>
   </si>
   <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Tue</t>
-  </si>
-  <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>Thu</t>
-  </si>
-  <si>
-    <t>Fri</t>
-  </si>
-  <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
     <t>Site</t>
   </si>
   <si>
@@ -110,28 +128,16 @@
     <t>Ahmed Elsayed</t>
   </si>
   <si>
+    <t>Smart</t>
+  </si>
+  <si>
+    <t>Cairo 2 Except Thursday &amp; Friday Smart</t>
+  </si>
+  <si>
+    <t>Mohamed Youssef</t>
+  </si>
+  <si>
     <t>Cairo 2</t>
-  </si>
-  <si>
-    <t>Mohamed Youssef</t>
-  </si>
-  <si>
-    <t>5th Sett</t>
-  </si>
-  <si>
-    <t>HRID</t>
-  </si>
-  <si>
-    <t>Hassan Osama</t>
-  </si>
-  <si>
-    <t>Mohamed Aref Azzam</t>
-  </si>
-  <si>
-    <t>Yara Ayman</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -146,7 +152,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,18 +201,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -217,6 +211,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -232,6 +232,18 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -379,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +418,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,25 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,30 +743,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
@@ -774,6 +768,30 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,55 +913,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -958,70 +973,73 @@
     <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,67 +1080,67 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="20" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1663,10 +1681,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B10"/>
+      <selection activeCell="A19" sqref="A19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1676,12 +1694,12 @@
     <col min="3" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21.5" customHeight="1" spans="1:1">
+    <row r="1" s="1" customFormat="1" ht="22.25" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="20.5" customHeight="1" spans="1:16">
+    <row r="2" customFormat="1" ht="22" customHeight="1" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1717,7 +1735,7 @@
       </c>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" customFormat="1" ht="20.5" customHeight="1" spans="1:16">
+    <row r="3" customFormat="1" ht="22" customHeight="1" spans="1:16">
       <c r="A3" s="7">
         <v>10281254</v>
       </c>
@@ -1767,7 +1785,7 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
+    <row r="4" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
       <c r="A4" s="7">
         <v>10326418</v>
       </c>
@@ -1804,544 +1822,542 @@
       <c r="L4" s="10">
         <v>0.0833333333333333</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="P4" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="15.25" spans="1:17">
-      <c r="A6" s="11" t="s">
+    <row r="7" ht="24.75" spans="1:16">
+      <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:16">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="B8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="15">
+        <v>44</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15">
+        <v>44</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15">
+        <v>44</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15">
+        <v>44</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15">
+        <v>44</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15">
+        <v>44</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15">
+        <v>44</v>
+      </c>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" ht="15.25" spans="1:16">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="12" t="s">
+      <c r="J9" s="15"/>
+      <c r="K9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="12" t="s">
+      <c r="L9" s="15"/>
+      <c r="M9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="32" t="s">
+      <c r="N9" s="15"/>
+      <c r="O9" s="15" t="s">
         <v>21</v>
       </c>
+      <c r="P9" s="15"/>
     </row>
-    <row r="7" ht="15.25" spans="1:17">
-      <c r="A7" s="11" t="s">
+    <row r="10" spans="1:16">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="16">
+        <v>45964</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16">
+        <v>45965</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
+        <v>45966</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16">
+        <v>45967</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16">
+        <v>45968</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16">
+        <v>45969</v>
+      </c>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16">
+        <v>45970</v>
+      </c>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" ht="15.25" spans="1:16">
+      <c r="A11" s="17">
+        <v>10299936</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="13" t="s">
+      <c r="C11" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="1:16">
+      <c r="A12" s="17">
+        <v>10314789</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="32"/>
-    </row>
-    <row r="8" ht="15.25" spans="1:17">
-      <c r="A8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14">
-        <v>45957</v>
-      </c>
-      <c r="D8" s="14">
-        <v>45957</v>
-      </c>
-      <c r="E8" s="14">
-        <v>45958</v>
-      </c>
-      <c r="F8" s="14">
-        <v>45958</v>
-      </c>
-      <c r="G8" s="14">
-        <v>45959</v>
-      </c>
-      <c r="H8" s="14">
-        <v>45959</v>
-      </c>
-      <c r="I8" s="14">
-        <v>45960</v>
-      </c>
-      <c r="J8" s="14">
-        <v>45960</v>
-      </c>
-      <c r="K8" s="14">
-        <v>45961</v>
-      </c>
-      <c r="L8" s="14">
-        <v>45961</v>
-      </c>
-      <c r="M8" s="14">
-        <v>45962</v>
-      </c>
-      <c r="N8" s="14">
-        <v>45962</v>
-      </c>
-      <c r="O8" s="14">
-        <v>45963</v>
-      </c>
-      <c r="P8" s="14">
-        <v>45963</v>
-      </c>
-      <c r="Q8" s="32"/>
-    </row>
-    <row r="9" ht="15.25" spans="1:17">
-      <c r="A9" s="15">
-        <v>10317390</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="17">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H9" s="17">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="J9" s="17">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K9" s="17">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L9" s="17">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="M9" s="29" t="s">
+      <c r="C12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="D12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="29" t="s">
+      <c r="E12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="29" t="s">
+      <c r="F12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" ht="15.25" spans="1:17">
-      <c r="A10" s="15">
-        <v>10324909</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0.875</v>
-      </c>
-      <c r="E10" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0.875</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="17">
-        <v>0.875</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="17">
-        <v>0.875</v>
-      </c>
-      <c r="K10" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="L10" s="17">
-        <v>0.875</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25"/>
-    <row r="12" ht="24.75" spans="1:17">
-      <c r="A12" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="G12" s="19">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="L12" s="19">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="M12" s="19">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="N12" s="19">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="O12" s="19">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="P12" s="19">
+        <v>0.0416666666666667</v>
+      </c>
     </row>
     <row r="13" ht="15.25" spans="1:16">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17">
+        <v>10325095</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="22">
-        <v>44</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22">
-        <v>44</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22">
-        <v>44</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22">
-        <v>44</v>
-      </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22">
-        <v>44</v>
-      </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22">
-        <v>44</v>
-      </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22">
-        <v>44</v>
-      </c>
-      <c r="P13" s="22"/>
+      <c r="E17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="32"/>
     </row>
-    <row r="14" ht="15.25" spans="1:16">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="22"/>
+    <row r="18" spans="1:17">
+      <c r="A18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="25">
+        <v>45964</v>
+      </c>
+      <c r="D18" s="25">
+        <v>45964</v>
+      </c>
+      <c r="E18" s="25">
+        <v>45965</v>
+      </c>
+      <c r="F18" s="25">
+        <v>45965</v>
+      </c>
+      <c r="G18" s="25">
+        <v>45966</v>
+      </c>
+      <c r="H18" s="25">
+        <v>45966</v>
+      </c>
+      <c r="I18" s="25">
+        <v>45967</v>
+      </c>
+      <c r="J18" s="25">
+        <v>45967</v>
+      </c>
+      <c r="K18" s="25">
+        <v>45968</v>
+      </c>
+      <c r="L18" s="25">
+        <v>45968</v>
+      </c>
+      <c r="M18" s="25">
+        <v>45969</v>
+      </c>
+      <c r="N18" s="25">
+        <v>45969</v>
+      </c>
+      <c r="O18" s="25">
+        <v>45970</v>
+      </c>
+      <c r="P18" s="25">
+        <v>45970</v>
+      </c>
+      <c r="Q18" s="32"/>
     </row>
-    <row r="15" ht="15.25" spans="1:16">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="23">
-        <v>45957</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23">
-        <v>45958</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23">
-        <v>45959</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23">
-        <v>45960</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23">
-        <v>45961</v>
-      </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23">
-        <v>45962</v>
-      </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23">
-        <v>45963</v>
-      </c>
-      <c r="P15" s="23"/>
+    <row r="19" spans="1:17">
+      <c r="A19" s="26">
+        <v>10317390</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="28">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D19" s="28">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G19" s="28">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H19" s="28">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="16" ht="15.25" spans="1:16">
-      <c r="A16" s="24">
-        <v>10299936</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D16" s="26">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E16" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F16" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G16" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H16" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I16" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J16" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="K16" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L16" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="M16" s="31" t="s">
+    <row r="20" spans="1:17">
+      <c r="A20" s="26">
+        <v>10324909</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="28">
+        <v>0.625</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0.625</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0.625</v>
+      </c>
+      <c r="H20" s="28">
+        <v>0</v>
+      </c>
+      <c r="I20" s="28">
+        <v>0.625</v>
+      </c>
+      <c r="J20" s="28">
+        <v>0</v>
+      </c>
+      <c r="K20" s="28">
+        <v>0.625</v>
+      </c>
+      <c r="L20" s="28">
+        <v>0</v>
+      </c>
+      <c r="M20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="31" t="s">
+      <c r="N20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="31" t="s">
+      <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P16" s="31" t="s">
+      <c r="P20" s="31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" ht="15.25" spans="1:16">
-      <c r="A17" s="24">
-        <v>10314789</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="H17" s="26">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="I17" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J17" s="26">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K17" s="30">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L17" s="30">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M17" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="N17" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="O17" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="P17" s="30">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="1:16">
-      <c r="A18" s="24">
-        <v>10307944</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F18" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="25" t="s">
-        <v>34</v>
+      <c r="Q20" s="27" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2353,33 +2369,33 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="Q16:Q18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,51 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
-  <si>
-    <t>Trainers</t>
-  </si>
-  <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Monday, October 20, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, October 21, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, October 22, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, October 23, 2025</t>
-  </si>
-  <si>
-    <t>Friday, October 24, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, October 25, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, October 26, 2025</t>
-  </si>
-  <si>
-    <t>Abdelsalam Hisham</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Janisse Saad</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="24">
   <si>
     <t>5th Sett</t>
   </si>
   <si>
     <t>HRID</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>Mon</t>
@@ -98,6 +62,9 @@
     <t>Hassan Osama</t>
   </si>
   <si>
+    <t>OFF</t>
+  </si>
+  <si>
     <t>Mohamed Aref Azzam</t>
   </si>
   <si>
@@ -108,9 +75,6 @@
   </si>
   <si>
     <t>Day</t>
-  </si>
-  <si>
-    <t>Site</t>
   </si>
   <si>
     <t>Start vs End</t>
@@ -131,28 +95,24 @@
     <t>Smart</t>
   </si>
   <si>
-    <t>Cairo 2 Except Thursday &amp; Friday Smart</t>
-  </si>
-  <si>
     <t>Mohamed Youssef</t>
   </si>
   <si>
-    <t>Cairo 2</t>
+    <t>Youssef Amr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,49 +122,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF215A6C"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="19"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -242,6 +159,18 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -391,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,7 +329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1C4587"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,18 +341,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB9CED5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -454,18 +371,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -651,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -661,10 +578,10 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -679,23 +596,14 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -725,49 +633,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,235 +778,226 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1681,721 +1537,858 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A2:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D20"/>
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="19.1818181818182" customWidth="1"/>
-    <col min="3" max="17" width="10" customWidth="1"/>
+    <col min="3" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.25" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="2" ht="24.75" spans="1:16">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
-    <row r="2" customFormat="1" ht="22" customHeight="1" spans="1:16">
-      <c r="A2" s="3" t="s">
+    <row r="3" ht="15.25" spans="1:16">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5">
+        <v>44</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
+        <v>44</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
+        <v>44</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5">
+        <v>44</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5">
+        <v>44</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5">
+        <v>44</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5">
+        <v>44</v>
+      </c>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" ht="15.25" spans="1:16">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="5" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="5" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="6"/>
+      <c r="P4" s="5"/>
     </row>
-    <row r="3" customFormat="1" ht="22" customHeight="1" spans="1:16">
-      <c r="A3" s="7">
-        <v>10281254</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6">
+        <v>45964</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>45965</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
+        <v>45966</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
+        <v>45967</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6">
+        <v>45968</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6">
+        <v>45969</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>45970</v>
+      </c>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" ht="15.25" spans="1:16">
+      <c r="A6" s="7">
+        <v>10299936</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="C6" s="9">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="7">
+        <v>10314789</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.0416666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="7">
+        <v>10325095</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="15">
+        <v>45964</v>
+      </c>
+      <c r="D13" s="15">
+        <v>45964</v>
+      </c>
+      <c r="E13" s="15">
+        <v>45965</v>
+      </c>
+      <c r="F13" s="15">
+        <v>45965</v>
+      </c>
+      <c r="G13" s="15">
+        <v>45966</v>
+      </c>
+      <c r="H13" s="15">
+        <v>45966</v>
+      </c>
+      <c r="I13" s="15">
+        <v>45967</v>
+      </c>
+      <c r="J13" s="15">
+        <v>45967</v>
+      </c>
+      <c r="K13" s="15">
+        <v>45968</v>
+      </c>
+      <c r="L13" s="15">
+        <v>45968</v>
+      </c>
+      <c r="M13" s="15">
+        <v>45969</v>
+      </c>
+      <c r="N13" s="15">
+        <v>45969</v>
+      </c>
+      <c r="O13" s="15">
+        <v>45970</v>
+      </c>
+      <c r="P13" s="15">
+        <v>45970</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="16">
+        <v>10317390</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="18">
         <v>0.458333333333333</v>
       </c>
-      <c r="H3" s="10">
+      <c r="D14" s="18">
         <v>0.833333333333333</v>
       </c>
-      <c r="I3" s="10">
+      <c r="E14" s="18">
         <v>0.458333333333333</v>
       </c>
-      <c r="J3" s="10">
+      <c r="F14" s="18">
         <v>0.833333333333333</v>
       </c>
-      <c r="K3" s="10">
+      <c r="G14" s="18">
         <v>0.458333333333333</v>
       </c>
-      <c r="L3" s="10">
+      <c r="H14" s="18">
         <v>0.833333333333333</v>
       </c>
-      <c r="M3" s="10">
+      <c r="I14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="16">
+        <v>10324909</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="J15" s="18">
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="L15" s="18">
+        <v>0</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="1:16">
+      <c r="A18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="1:16">
+      <c r="A19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:16">
+      <c r="A20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="22">
+        <v>45971</v>
+      </c>
+      <c r="D20" s="22">
+        <v>45971</v>
+      </c>
+      <c r="E20" s="22">
+        <v>45972</v>
+      </c>
+      <c r="F20" s="22">
+        <v>45972</v>
+      </c>
+      <c r="G20" s="22">
+        <v>45973</v>
+      </c>
+      <c r="H20" s="22">
+        <v>45973</v>
+      </c>
+      <c r="I20" s="22">
+        <v>45974</v>
+      </c>
+      <c r="J20" s="22">
+        <v>45974</v>
+      </c>
+      <c r="K20" s="22">
+        <v>45975</v>
+      </c>
+      <c r="L20" s="22">
+        <v>45975</v>
+      </c>
+      <c r="M20" s="22">
+        <v>45976</v>
+      </c>
+      <c r="N20" s="22">
+        <v>45976</v>
+      </c>
+      <c r="O20" s="22">
+        <v>45977</v>
+      </c>
+      <c r="P20" s="22">
+        <v>45977</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:16">
+      <c r="A21" s="23">
+        <v>10317390</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="25">
         <v>0.458333333333333</v>
       </c>
-      <c r="N3" s="10">
+      <c r="D21" s="25">
         <v>0.833333333333333</v>
       </c>
-      <c r="O3" s="10">
+      <c r="E21" s="25">
         <v>0.458333333333333</v>
       </c>
-      <c r="P3" s="10">
+      <c r="F21" s="25">
         <v>0.833333333333333</v>
       </c>
+      <c r="G21" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H21" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="26" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" customFormat="1" ht="18.25" customHeight="1" spans="1:16">
-      <c r="A4" s="7">
-        <v>10326418</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10">
+    <row r="22" ht="15.75" spans="1:16">
+      <c r="A22" s="23">
+        <v>10324909</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0</v>
+      </c>
+      <c r="I22" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="J22" s="25">
+        <v>0</v>
+      </c>
+      <c r="K22" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="L22" s="25">
+        <v>0</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:16">
+      <c r="A23" s="23">
+        <v>10340710</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J23" s="25">
         <v>0.708333333333333</v>
       </c>
-      <c r="D4" s="10">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="K23" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L23" s="25">
         <v>0.708333333333333</v>
       </c>
-      <c r="F4" s="10">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="24.75" spans="1:16">
-      <c r="A7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-    </row>
-    <row r="8" ht="15.25" spans="1:16">
-      <c r="A8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="15">
-        <v>44</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15">
-        <v>44</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15">
-        <v>44</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15">
-        <v>44</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15">
-        <v>44</v>
-      </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15">
-        <v>44</v>
-      </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15">
-        <v>44</v>
-      </c>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" ht="15.25" spans="1:16">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15" t="s">
+      <c r="M23" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="15"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="16">
-        <v>45964</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16">
-        <v>45965</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16">
-        <v>45966</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16">
-        <v>45967</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16">
-        <v>45968</v>
-      </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16">
-        <v>45969</v>
-      </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16">
-        <v>45970</v>
-      </c>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" ht="15.25" spans="1:16">
-      <c r="A11" s="17">
-        <v>10299936</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="F11" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="I11" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K11" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L11" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" ht="15.25" spans="1:16">
-      <c r="A12" s="17">
-        <v>10314789</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H12" s="19">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="I12" s="19">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J12" s="19">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="K12" s="19">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L12" s="19">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="M12" s="19">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="N12" s="19">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="O12" s="19">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="P12" s="19">
-        <v>0.0416666666666667</v>
-      </c>
-    </row>
-    <row r="13" ht="15.25" spans="1:16">
-      <c r="A13" s="17">
-        <v>10325095</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E13" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="23" t="s">
+      <c r="N23" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="23" t="s">
+      <c r="O23" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="O17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="32"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="25">
-        <v>45964</v>
-      </c>
-      <c r="D18" s="25">
-        <v>45964</v>
-      </c>
-      <c r="E18" s="25">
-        <v>45965</v>
-      </c>
-      <c r="F18" s="25">
-        <v>45965</v>
-      </c>
-      <c r="G18" s="25">
-        <v>45966</v>
-      </c>
-      <c r="H18" s="25">
-        <v>45966</v>
-      </c>
-      <c r="I18" s="25">
-        <v>45967</v>
-      </c>
-      <c r="J18" s="25">
-        <v>45967</v>
-      </c>
-      <c r="K18" s="25">
-        <v>45968</v>
-      </c>
-      <c r="L18" s="25">
-        <v>45968</v>
-      </c>
-      <c r="M18" s="25">
-        <v>45969</v>
-      </c>
-      <c r="N18" s="25">
-        <v>45969</v>
-      </c>
-      <c r="O18" s="25">
-        <v>45970</v>
-      </c>
-      <c r="P18" s="25">
-        <v>45970</v>
-      </c>
-      <c r="Q18" s="32"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="26">
-        <v>10317390</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="28">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D19" s="28">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E19" s="28">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F19" s="28">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G19" s="28">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H19" s="28">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="26">
-        <v>10324909</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="28">
-        <v>0.625</v>
-      </c>
-      <c r="D20" s="28">
-        <v>0</v>
-      </c>
-      <c r="E20" s="28">
-        <v>0.625</v>
-      </c>
-      <c r="F20" s="28">
-        <v>0</v>
-      </c>
-      <c r="G20" s="28">
-        <v>0.625</v>
-      </c>
-      <c r="H20" s="28">
-        <v>0</v>
-      </c>
-      <c r="I20" s="28">
-        <v>0.625</v>
-      </c>
-      <c r="J20" s="28">
-        <v>0</v>
-      </c>
-      <c r="K20" s="28">
-        <v>0.625</v>
-      </c>
-      <c r="L20" s="28">
-        <v>0</v>
-      </c>
-      <c r="M20" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="N20" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="O20" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="27" t="s">
-        <v>36</v>
+      <c r="P23" s="25" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
+  <mergeCells count="29">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="Q16:Q18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="25">
   <si>
     <t>5th Sett</t>
   </si>
@@ -62,16 +62,19 @@
     <t>Hassan Osama</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Mohamed Aref Azzam</t>
+  </si>
+  <si>
+    <t>Ahmed Helal</t>
+  </si>
+  <si>
     <t>OFF</t>
   </si>
   <si>
-    <t>Mohamed Aref Azzam</t>
-  </si>
-  <si>
-    <t>Ahmed Helal</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>Yara Ayman</t>
   </si>
   <si>
     <t>Day</t>
@@ -112,7 +115,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,27 +143,10 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Tahoma"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -173,6 +159,12 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -353,12 +345,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -372,6 +358,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,137 +770,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,7 +919,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -939,64 +931,37 @@
     <xf numFmtId="20" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1537,10 +1502,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:P23"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="A6" sqref="A6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1550,7 +1515,8 @@
     <col min="3" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="24.75" spans="1:16">
+    <row r="1" ht="16" customHeight="1"/>
+    <row r="2" ht="26.25" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1536,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" ht="15.25" spans="1:16">
+    <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1578,35 +1544,35 @@
         <v>2</v>
       </c>
       <c r="C3" s="5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" ht="15.25" spans="1:16">
+    <row r="4" spans="1:16">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
@@ -1642,35 +1608,35 @@
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="6">
-        <v>45964</v>
+        <v>45971</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6">
-        <v>45965</v>
+        <v>45972</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6">
-        <v>45966</v>
+        <v>45973</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6">
-        <v>45968</v>
+        <v>45975</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6">
-        <v>45969</v>
+        <v>45976</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6">
-        <v>45970</v>
+        <v>45977</v>
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" ht="15.25" spans="1:16">
+    <row r="6" spans="1:16">
       <c r="A6" s="7">
         <v>10299936</v>
       </c>
@@ -1678,34 +1644,34 @@
         <v>10</v>
       </c>
       <c r="C6" s="9">
-        <v>0.583333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="D6" s="9">
-        <v>0.958333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E6" s="9">
-        <v>0.583333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="F6" s="9">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0.958333333333333</v>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="M6" s="10" t="s">
         <v>11</v>
@@ -1739,35 +1705,35 @@
       <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="9">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0.0416666666666667</v>
+      <c r="G7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="K7" s="9">
-        <v>0.666666666666667</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="L7" s="9">
-        <v>0.0416666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="M7" s="9">
-        <v>0.666666666666667</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="N7" s="9">
-        <v>0.0416666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="O7" s="9">
-        <v>0.666666666666667</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="P7" s="9">
-        <v>0.0416666666666667</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1778,588 +1744,394 @@
         <v>13</v>
       </c>
       <c r="C8" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="7">
+        <v>10307944</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:16">
+      <c r="A11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:16">
+      <c r="A12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:16">
+      <c r="A13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="14">
+        <v>45971</v>
+      </c>
+      <c r="D13" s="14">
+        <v>45971</v>
+      </c>
+      <c r="E13" s="14">
+        <v>45972</v>
+      </c>
+      <c r="F13" s="14">
+        <v>45972</v>
+      </c>
+      <c r="G13" s="14">
+        <v>45973</v>
+      </c>
+      <c r="H13" s="14">
+        <v>45973</v>
+      </c>
+      <c r="I13" s="14">
+        <v>45974</v>
+      </c>
+      <c r="J13" s="14">
+        <v>45974</v>
+      </c>
+      <c r="K13" s="14">
+        <v>45975</v>
+      </c>
+      <c r="L13" s="14">
+        <v>45975</v>
+      </c>
+      <c r="M13" s="14">
+        <v>45976</v>
+      </c>
+      <c r="N13" s="14">
+        <v>45976</v>
+      </c>
+      <c r="O13" s="14">
+        <v>45977</v>
+      </c>
+      <c r="P13" s="14">
+        <v>45977</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="1:16">
+      <c r="A14" s="15">
+        <v>10317390</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:16">
+      <c r="A15" s="15">
+        <v>10324909</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="J15" s="17">
+        <v>0</v>
+      </c>
+      <c r="K15" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="L15" s="17">
+        <v>0</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:16">
+      <c r="A16" s="15">
+        <v>10340710</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="17">
         <v>0.333333333333333</v>
       </c>
-      <c r="D8" s="9">
+      <c r="J16" s="17">
         <v>0.708333333333333</v>
       </c>
-      <c r="E8" s="9">
+      <c r="K16" s="17">
         <v>0.333333333333333</v>
       </c>
-      <c r="F8" s="9">
+      <c r="L16" s="17">
         <v>0.708333333333333</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="15">
-        <v>45964</v>
-      </c>
-      <c r="D13" s="15">
-        <v>45964</v>
-      </c>
-      <c r="E13" s="15">
-        <v>45965</v>
-      </c>
-      <c r="F13" s="15">
-        <v>45965</v>
-      </c>
-      <c r="G13" s="15">
-        <v>45966</v>
-      </c>
-      <c r="H13" s="15">
-        <v>45966</v>
-      </c>
-      <c r="I13" s="15">
-        <v>45967</v>
-      </c>
-      <c r="J13" s="15">
-        <v>45967</v>
-      </c>
-      <c r="K13" s="15">
-        <v>45968</v>
-      </c>
-      <c r="L13" s="15">
-        <v>45968</v>
-      </c>
-      <c r="M13" s="15">
-        <v>45969</v>
-      </c>
-      <c r="N13" s="15">
-        <v>45969</v>
-      </c>
-      <c r="O13" s="15">
-        <v>45970</v>
-      </c>
-      <c r="P13" s="15">
-        <v>45970</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="16">
-        <v>10317390</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="16">
-        <v>10324909</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="M16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0</v>
-      </c>
-      <c r="I15" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="J15" s="18">
-        <v>0</v>
-      </c>
-      <c r="K15" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="L15" s="18">
-        <v>0</v>
-      </c>
-      <c r="M15" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" spans="1:16">
-      <c r="A18" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="1:16">
-      <c r="A19" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" spans="1:16">
-      <c r="A20" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="22">
-        <v>45971</v>
-      </c>
-      <c r="D20" s="22">
-        <v>45971</v>
-      </c>
-      <c r="E20" s="22">
-        <v>45972</v>
-      </c>
-      <c r="F20" s="22">
-        <v>45972</v>
-      </c>
-      <c r="G20" s="22">
-        <v>45973</v>
-      </c>
-      <c r="H20" s="22">
-        <v>45973</v>
-      </c>
-      <c r="I20" s="22">
-        <v>45974</v>
-      </c>
-      <c r="J20" s="22">
-        <v>45974</v>
-      </c>
-      <c r="K20" s="22">
-        <v>45975</v>
-      </c>
-      <c r="L20" s="22">
-        <v>45975</v>
-      </c>
-      <c r="M20" s="22">
-        <v>45976</v>
-      </c>
-      <c r="N20" s="22">
-        <v>45976</v>
-      </c>
-      <c r="O20" s="22">
-        <v>45977</v>
-      </c>
-      <c r="P20" s="22">
-        <v>45977</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" spans="1:16">
-      <c r="A21" s="23">
-        <v>10317390</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="25">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D21" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E21" s="25">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G21" s="25">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="H21" s="25">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="N21" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="O21" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" spans="1:16">
-      <c r="A22" s="23">
-        <v>10324909</v>
-      </c>
-      <c r="B22" s="24" t="s">
+      <c r="N16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="D22" s="25">
-        <v>0</v>
-      </c>
-      <c r="E22" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="F22" s="25">
-        <v>0</v>
-      </c>
-      <c r="G22" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="H22" s="25">
-        <v>0</v>
-      </c>
-      <c r="I22" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="J22" s="25">
-        <v>0</v>
-      </c>
-      <c r="K22" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="L22" s="25">
-        <v>0</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="N22" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="O22" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" ht="15" spans="1:16">
-      <c r="A23" s="23">
-        <v>10340710</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J23" s="25">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="K23" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L23" s="25">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="25" t="s">
-        <v>21</v>
+      <c r="O16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="26">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -2384,9 +2156,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
   </mergeCells>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
   <si>
     <t>5th Sett</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>Youssef Amr</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Cairo 2 Except Thursday &amp; Friday Smart</t>
+  </si>
+  <si>
+    <t>Cairo 2</t>
+  </si>
+  <si>
+    <t>Smart Except Thursday &amp; Friday Cairo 2</t>
   </si>
 </sst>
 </file>
@@ -115,7 +127,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +169,18 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -363,13 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF7F7F7F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,137 +794,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,11 +982,41 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1502,7 +1556,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:B9"/>
@@ -1515,8 +1569,8 @@
     <col min="3" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1"/>
-    <row r="2" ht="26.25" customHeight="1" spans="1:16">
+    <row r="1" ht="16.75" customHeight="1"/>
+    <row r="2" ht="27" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +1590,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" ht="16" customHeight="1" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1572,7 +1626,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" ht="15.25" spans="1:16">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
@@ -1604,7 +1658,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" ht="15.25" spans="1:16">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="6">
@@ -1636,7 +1690,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" ht="15.25" spans="1:16">
       <c r="A6" s="7">
         <v>10299936</v>
       </c>
@@ -1686,7 +1740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" ht="15.25" spans="1:16">
       <c r="A7" s="7">
         <v>10314789</v>
       </c>
@@ -1736,7 +1790,7 @@
         <v>0.333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" ht="15.25" spans="1:16">
       <c r="A8" s="7">
         <v>10325095</v>
       </c>
@@ -1773,20 +1827,20 @@
       <c r="L8" s="9">
         <v>0.0833333333333333</v>
       </c>
-      <c r="M8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="19" t="s">
+      <c r="M8" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" ht="15.25" spans="1:16">
       <c r="A9" s="7">
         <v>10307944</v>
       </c>
@@ -2005,16 +2059,16 @@
       <c r="H14" s="17">
         <v>0.833333333333333</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="29" t="s">
         <v>22</v>
       </c>
       <c r="M14" s="18" t="s">
@@ -2130,8 +2184,316 @@
         <v>22</v>
       </c>
     </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="30"/>
+    </row>
+    <row r="21" ht="15.25" spans="1:17">
+      <c r="A21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="22">
+        <v>45978</v>
+      </c>
+      <c r="D21" s="22">
+        <v>45978</v>
+      </c>
+      <c r="E21" s="22">
+        <v>45979</v>
+      </c>
+      <c r="F21" s="22">
+        <v>45979</v>
+      </c>
+      <c r="G21" s="22">
+        <v>45980</v>
+      </c>
+      <c r="H21" s="22">
+        <v>45980</v>
+      </c>
+      <c r="I21" s="22">
+        <v>45981</v>
+      </c>
+      <c r="J21" s="22">
+        <v>45981</v>
+      </c>
+      <c r="K21" s="22">
+        <v>45982</v>
+      </c>
+      <c r="L21" s="22">
+        <v>45982</v>
+      </c>
+      <c r="M21" s="22">
+        <v>45983</v>
+      </c>
+      <c r="N21" s="22">
+        <v>45983</v>
+      </c>
+      <c r="O21" s="22">
+        <v>45984</v>
+      </c>
+      <c r="P21" s="22">
+        <v>45984</v>
+      </c>
+      <c r="Q21" s="30"/>
+    </row>
+    <row r="22" ht="15.25" spans="1:17">
+      <c r="A22" s="23">
+        <v>10317390</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="1:17">
+      <c r="A23" s="23">
+        <v>10324909</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="H23" s="25">
+        <v>0</v>
+      </c>
+      <c r="I23" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="J23" s="25">
+        <v>0</v>
+      </c>
+      <c r="K23" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="L23" s="25">
+        <v>0</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="1:17">
+      <c r="A24" s="23">
+        <v>10340710</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J24" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="K24" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L24" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="30">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -2156,8 +2518,12 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
+    <mergeCell ref="Q19:Q21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/5th-settelment-Trainers.xlsx
+++ b/Accounts-Schedules/5th-settelment-Trainers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
   <si>
     <t>5th Sett</t>
   </si>
@@ -62,24 +62,18 @@
     <t>Hassan Osama</t>
   </si>
   <si>
-    <t>-</t>
+    <t>OFF</t>
   </si>
   <si>
     <t>Mohamed Aref Azzam</t>
   </si>
   <si>
-    <t>Ahmed Helal</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Yara Ayman</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
+    <t>Site</t>
+  </si>
+  <si>
     <t>Start vs End</t>
   </si>
   <si>
@@ -98,19 +92,16 @@
     <t>Smart</t>
   </si>
   <si>
+    <t>Cairo 2 Except Thursday &amp; Friday Smart</t>
+  </si>
+  <si>
     <t>Mohamed Youssef</t>
   </si>
   <si>
+    <t>Cairo 2</t>
+  </si>
+  <si>
     <t>Youssef Amr</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Cairo 2 Except Thursday &amp; Friday Smart</t>
-  </si>
-  <si>
-    <t>Cairo 2</t>
   </si>
   <si>
     <t>Smart Except Thursday &amp; Friday Cairo 2</t>
@@ -127,7 +118,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,22 +146,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -186,12 +164,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -369,6 +341,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -381,24 +359,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7F7F7F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -584,7 +556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -619,6 +591,21 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,139 +781,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -934,88 +924,61 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" app